--- a/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
+++ b/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Documents\2019\프로젝트\37기_D반_Fit_c_프로젝트_산출물\02. 산출문서\01. 사용자 요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5802C6-4AE8-459F-9DB6-151886D1781F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEAFA83-1D00-462C-BFB7-0AB55C76A78C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>사용자 요구사항 정의서</t>
   </si>
@@ -53,102 +53,6 @@
   </si>
   <si>
     <t>요구사항 설명</t>
-  </si>
-  <si>
-    <t>회원</t>
-  </si>
-  <si>
-    <t>K01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>K02</t>
-  </si>
-  <si>
-    <t>K03</t>
-  </si>
-  <si>
-    <t>K04</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기록</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -184,10 +88,6 @@
   </si>
   <si>
     <t>마문국</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.08.30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -283,155 +183,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>M02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>그래프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 검색</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원,비회원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 아이콘 클릭</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>국가별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 게임사별, 게임명별 각각 검색시 그에 맞는 정보 제공</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 견적 창</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 아이콘 클릭 시 해당 게임에 대한 추천 견적사항을 이창에 보여주고, 맞춤견적,직접견적,최저가 검색 버튼을 제공한다</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 아이콘 클릭 시 해당 게임에 대한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">M03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>네비게이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 메뉴</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. </t>
     </r>
@@ -467,739 +218,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>M06</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 보유 사양기반 추천</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>접속한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 회원의 컴퓨터 사양을 기반으로 해당게임에 적절한 업그레이드 사양 제공</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>최저가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 확인</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 컴퓨터 견적을 기반으로 웹상의 해당 컴퓨터 부품들의 최저가격 제공</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>D01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>컴퓨터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 부품 데이터 구축</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>국가별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 게임 순위 데이터 구축</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게임별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 추천 사양 데이터 구축</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 데이터 테이블 구축</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC Level 알고리즘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Level 알고리즘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 보유PC 기반 추천 알고리즘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비회원</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>프로필수정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>회원탈퇴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계정으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이페이지에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기본키로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제외</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마이페이지의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원탈퇴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탈퇴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1218,18 +237,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>국제적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 게임웹(ex.steam 등)에서 국가별 게임 순위를 가져와 한달 기준으로 업데이트</t>
-    </r>
+    <t>CPU DB구축</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE DB 구축</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1240,7 +256,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>해당</t>
+      <t>네이버</t>
     </r>
     <r>
       <rPr>
@@ -1249,13 +265,34 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 게임사에서 제공하는 최소 사양을 파싱(or 크롤링)하여 해당하는 게임의 Fit-c기준 GameLevel을 부여</t>
+      <t xml:space="preserve"> 실시간 인기 상위 CASE 30개를 실시간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parsing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여 사용자에게 제공</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>M02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>가입한</t>
+      <t>그래프</t>
     </r>
     <r>
       <rPr>
@@ -1264,53 +301,20 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 회원들의 정보를 저장.</t>
+      <t xml:space="preserve"> 클릭</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2010년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 이후 발매된 부품들에게 일정 알고리즘으로 점수를 부여하고 각 부품들의 호환성을 고려하여 부품들의 총 합으로 Level 부여</t>
-    </r>
+    <t>회원,비회원</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>게임사에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 제공하는 추천사양을 분석하여 GameLevel 부여</t>
-    </r>
+    <t>그래프 안의 게임 아이콘 클릭시 해당 게임의 관한 정보 출력</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>보유중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 컴퓨터를 분석하여 해당 GameLevel에 적합한지 아닌지를 파악, 부적합하다면 어느 부품을 교체해야하는지 정보 제공</t>
-    </r>
+    <t>2019.09.24</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1408,13 +412,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1433,6 +430,12 @@
       <sz val="11"/>
       <name val="MS Gothic"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1699,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1736,44 +739,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,63 +807,42 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2153,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+      <selection activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2169,77 +1173,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>39</v>
+      <c r="B2" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>18</v>
+      <c r="G2" s="36" t="s">
+        <v>12</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>19</v>
+      <c r="G3" s="65" t="s">
+        <v>31</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="50">
-        <v>0.1</v>
+      <c r="J3" s="22">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="49"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2248,576 +1252,488 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="49"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>38</v>
+      <c r="A6" s="55" t="s">
+        <v>19</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>66</v>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>65</v>
+      <c r="D12" s="37" t="s">
+        <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>71</v>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>27</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="57" t="s">
-        <v>20</v>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="C13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" s="16" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>27</v>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="5"/>
+      <c r="Z23" s="5">
+        <v>0</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="24" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" s="16" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A18" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="5"/>
-      <c r="Z22" s="5">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="5"/>
+      <c r="Z35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="49"/>
-    </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="5"/>
-      <c r="Z28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="5"/>
-      <c r="Z30" s="5">
+    <row r="36" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="5"/>
+      <c r="Z37" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.8">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="2:10" ht="13.8">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="2:10" ht="13.8">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" ht="13.8">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" ht="13.8">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:10" ht="13.8">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10" ht="13.8">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10" ht="13.8">
+    <row r="38" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" ht="13.8">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2828,7 +1744,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" ht="13.8">
+    <row r="40" spans="1:26" ht="13.8">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2839,7 +1755,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" ht="13.8">
+    <row r="41" spans="1:26" ht="13.8">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2850,7 +1766,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" ht="13.8">
+    <row r="42" spans="1:26" ht="13.8">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2861,7 +1777,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" ht="13.8">
+    <row r="43" spans="1:26" ht="13.8">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2872,7 +1788,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" ht="13.8">
+    <row r="44" spans="1:26" ht="13.8">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2883,7 +1799,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" ht="13.8">
+    <row r="45" spans="1:26" ht="13.8">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2894,7 +1810,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" ht="13.8">
+    <row r="46" spans="1:26" ht="13.8">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2905,7 +1821,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" ht="13.8">
+    <row r="47" spans="1:26" ht="13.8">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2916,7 +1832,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" ht="13.8">
+    <row r="48" spans="1:26" ht="13.8">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2938,72 +1854,71 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:11" ht="14.4">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" ht="14.4">
-      <c r="B51" s="1"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+    <row r="50" spans="2:11" ht="13.8">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:11" ht="13.8">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:11" ht="13.8">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.4">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="2:11" ht="14.4">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:11" ht="14.4">
-      <c r="B55" s="1"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="2:11" ht="13.8">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" ht="13.8">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.8">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="2:11" ht="13.8">
       <c r="B56" s="8"/>
@@ -3016,71 +1931,72 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:11" ht="13.8">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="2:11" ht="13.8">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+    <row r="57" spans="2:11" ht="14.4">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:11" ht="14.4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:11" ht="13.8">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="2:11" ht="13.8">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="2:11" ht="13.8">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="2:11" ht="13.8">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="2:11" ht="14.4">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:11" ht="14.4">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.4">
+      <c r="B62" s="1"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="13.8">
       <c r="B63" s="8"/>
@@ -13290,23 +12206,98 @@
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
     </row>
+    <row r="991" spans="2:10" ht="13.8">
+      <c r="B991" s="8"/>
+      <c r="C991" s="8"/>
+      <c r="D991" s="8"/>
+      <c r="E991" s="8"/>
+      <c r="F991" s="8"/>
+      <c r="G991" s="8"/>
+      <c r="H991" s="8"/>
+      <c r="I991" s="8"/>
+      <c r="J991" s="8"/>
+    </row>
+    <row r="992" spans="2:10" ht="13.8">
+      <c r="B992" s="8"/>
+      <c r="C992" s="8"/>
+      <c r="D992" s="8"/>
+      <c r="E992" s="8"/>
+      <c r="F992" s="8"/>
+      <c r="G992" s="8"/>
+      <c r="H992" s="8"/>
+      <c r="I992" s="8"/>
+      <c r="J992" s="8"/>
+    </row>
+    <row r="993" spans="2:10" ht="13.8">
+      <c r="B993" s="8"/>
+      <c r="C993" s="8"/>
+      <c r="D993" s="8"/>
+      <c r="E993" s="8"/>
+      <c r="F993" s="8"/>
+      <c r="G993" s="8"/>
+      <c r="H993" s="8"/>
+      <c r="I993" s="8"/>
+      <c r="J993" s="8"/>
+    </row>
+    <row r="994" spans="2:10" ht="13.8">
+      <c r="B994" s="8"/>
+      <c r="C994" s="8"/>
+      <c r="D994" s="8"/>
+      <c r="E994" s="8"/>
+      <c r="F994" s="8"/>
+      <c r="G994" s="8"/>
+      <c r="H994" s="8"/>
+      <c r="I994" s="8"/>
+      <c r="J994" s="8"/>
+    </row>
+    <row r="995" spans="2:10" ht="13.8">
+      <c r="B995" s="8"/>
+      <c r="C995" s="8"/>
+      <c r="D995" s="8"/>
+      <c r="E995" s="8"/>
+      <c r="F995" s="8"/>
+      <c r="G995" s="8"/>
+      <c r="H995" s="8"/>
+      <c r="I995" s="8"/>
+      <c r="J995" s="8"/>
+    </row>
+    <row r="996" spans="2:10" ht="13.8">
+      <c r="B996" s="8"/>
+      <c r="C996" s="8"/>
+      <c r="D996" s="8"/>
+      <c r="E996" s="8"/>
+      <c r="F996" s="8"/>
+      <c r="G996" s="8"/>
+      <c r="H996" s="8"/>
+      <c r="I996" s="8"/>
+      <c r="J996" s="8"/>
+    </row>
+    <row r="997" spans="2:10" ht="13.8">
+      <c r="B997" s="8"/>
+      <c r="C997" s="8"/>
+      <c r="D997" s="8"/>
+      <c r="E997" s="8"/>
+      <c r="F997" s="8"/>
+      <c r="G997" s="8"/>
+      <c r="H997" s="8"/>
+      <c r="I997" s="8"/>
+      <c r="J997" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D25:J25"/>
+  <mergeCells count="40">
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
     <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D19:J19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="A6:J6"/>
@@ -13318,13 +12309,22 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D19:J19"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
+++ b/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msjrh\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D36599-D7A8-4A09-A8BD-3698A06D5459}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>사용자 요구사항 정의서</t>
   </si>
@@ -213,21 +219,6 @@
   </si>
   <si>
     <t>D01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>특정년도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (2010년) 이후 발매된 PC 들의 정보를 인터넷에서 파싱(or 크롤링)하여 데이터 구축</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -859,11 +850,137 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>M04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천견적</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원,비회원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> PC 스펙과 비교하여 업그레이드를 추천한다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU DB 구축</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM DV 구축</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2010년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이후 발매된 NVIDIA, AMD, INTEL의 GPU들의 정보를 인터넷에서 파싱(or 크롤링)하여 데이터 구축</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정년도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (2010년) 이후 발매된 PC 들의 정보를 인터넷에서 파싱(or 크롤링)하여 데이터 구축</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DDR4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규격의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> RAM들의 정보를 인터넷에서 파싱(or 크롤링)하여 데이터 구축</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME SPEC 파싱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STEAM GAME DB의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> appid를 토대로 steam에서 게임별 권장사양을 파싱하여 데이터를 전송한다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\.\ mm\.\ dd"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -1306,15 +1423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1324,6 +1432,33 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,6 +1488,13 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,35 +1505,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1698,18 +1815,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D32" sqref="D32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1722,56 +1839,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>31</v>
+      <c r="G3" s="58" t="s">
+        <v>30</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1780,16 +1897,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -1801,95 +1918,95 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
@@ -1901,193 +2018,201 @@
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>33</v>
+      <c r="C14" s="18" t="s">
+        <v>28</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>29</v>
+      <c r="D14" s="28" t="s">
+        <v>42</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="6"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:26" s="16" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="6"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="6"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="31" t="s">
-        <v>40</v>
+      <c r="D23" s="61" t="s">
+        <v>39</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="5"/>
       <c r="Z23" s="5">
         <v>0</v>
@@ -2095,172 +2220,190 @@
     </row>
     <row r="24" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="64" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="5"/>
-      <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>36</v>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>47</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>39</v>
+      <c r="B26" s="15" t="s">
+        <v>49</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="31" t="s">
-        <v>42</v>
+      <c r="C26" s="6"/>
+      <c r="D26" s="61" t="s">
+        <v>51</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="D27" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="D28" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="15"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="14"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="5"/>
       <c r="Z35" s="5">
         <v>0</v>
@@ -2270,26 +2413,26 @@
       <c r="A36" s="25"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="5"/>
       <c r="Z37" s="5">
         <v>14</v>
@@ -2299,13 +2442,13 @@
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="14.25">
@@ -12860,11 +13003,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D25:J25"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="A6:J6"/>
@@ -12877,29 +13031,18 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D25:J25"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
+++ b/37기_D반_Fit_c조_사용자 요구사항 정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Downloads\크롬다운로드\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D93DF1-F145-4F3B-B9C7-2178DDAADC6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>사용자 요구사항 정의서</t>
   </si>
@@ -1538,11 +1544,46 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>D09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL문 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Parsing Data들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Oracle Db에 Insert하는 SQL문 작성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동완성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 중인 DB를 Join하여 입력받은 문자와 일치하는 DB Select</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\.\ mm\.\ dd"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -1977,44 +2018,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2047,25 +2068,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2372,80 +2413,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2454,16 +2495,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -2475,29 +2516,29 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="24" t="s">
@@ -2507,15 +2548,15 @@
         <v>56</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
@@ -2526,56 +2567,56 @@
         <v>59</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="24" t="s">
@@ -2587,15 +2628,15 @@
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2608,15 +2649,15 @@
       <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2629,15 +2670,15 @@
       <c r="C14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2650,15 +2691,15 @@
       <c r="C15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2671,69 +2712,69 @@
       <c r="C16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="6"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:26" s="16" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="24"/>
       <c r="B18" s="6"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="6"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="24" t="s">
@@ -2743,15 +2784,15 @@
         <v>21</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2762,15 +2803,15 @@
         <v>23</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
@@ -2781,15 +2822,15 @@
         <v>35</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="5"/>
       <c r="Z23" s="5">
         <v>0</v>
@@ -2803,15 +2844,15 @@
         <v>36</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
@@ -2823,15 +2864,15 @@
         <v>37</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2842,15 +2883,15 @@
         <v>46</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2861,15 +2902,15 @@
         <v>47</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -2880,107 +2921,119 @@
         <v>52</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="D29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:26" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="24"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
+      <c r="D34" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="24"/>
       <c r="B35" s="14"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="5"/>
       <c r="Z35" s="5">
         <v>0</v>
@@ -2990,26 +3043,26 @@
       <c r="A36" s="24"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="5"/>
       <c r="Z37" s="5">
         <v>14</v>
@@ -3019,16 +3072,16 @@
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25">
+    <row r="39" spans="1:26" ht="13.8">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3039,7 +3092,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25">
+    <row r="40" spans="1:26" ht="13.8">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3050,7 +3103,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25">
+    <row r="41" spans="1:26" ht="13.8">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3061,7 +3114,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25">
+    <row r="42" spans="1:26" ht="13.8">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3072,7 +3125,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25">
+    <row r="43" spans="1:26" ht="13.8">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3083,7 +3136,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25">
+    <row r="44" spans="1:26" ht="13.8">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3094,7 +3147,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25">
+    <row r="45" spans="1:26" ht="13.8">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3105,7 +3158,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25">
+    <row r="46" spans="1:26" ht="13.8">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3116,7 +3169,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25">
+    <row r="47" spans="1:26" ht="13.8">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3127,7 +3180,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25">
+    <row r="48" spans="1:26" ht="13.8">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3138,7 +3191,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="14.25">
+    <row r="49" spans="2:11" ht="13.8">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3149,7 +3202,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:11" ht="14.25">
+    <row r="50" spans="2:11" ht="13.8">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3160,7 +3213,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="2:11" ht="14.25">
+    <row r="51" spans="2:11" ht="13.8">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3171,7 +3224,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:11" ht="14.25">
+    <row r="52" spans="2:11" ht="13.8">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3182,7 +3235,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:11" ht="14.25">
+    <row r="53" spans="2:11" ht="13.8">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3193,7 +3246,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:11" ht="14.25">
+    <row r="54" spans="2:11" ht="13.8">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3204,7 +3257,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:11" ht="14.25">
+    <row r="55" spans="2:11" ht="13.8">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3215,7 +3268,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:11" ht="14.25">
+    <row r="56" spans="2:11" ht="13.8">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3226,7 +3279,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:11" ht="14.25">
+    <row r="57" spans="2:11" ht="14.4">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="1"/>
@@ -3237,7 +3290,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:11" ht="14.25">
+    <row r="58" spans="2:11" ht="14.4">
       <c r="B58" s="1"/>
       <c r="C58" s="9"/>
       <c r="D58" s="1"/>
@@ -3248,7 +3301,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:11" ht="14.25">
+    <row r="59" spans="2:11" ht="13.8">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
@@ -3259,7 +3312,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="2:11" ht="14.25">
+    <row r="60" spans="2:11" ht="14.4">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="1"/>
@@ -3271,7 +3324,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="2:11" ht="14.25">
+    <row r="61" spans="2:11" ht="14.4">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="1"/>
@@ -3282,7 +3335,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="2:11" ht="14.25">
+    <row r="62" spans="2:11" ht="14.4">
       <c r="B62" s="1"/>
       <c r="C62" s="9"/>
       <c r="D62" s="1"/>
@@ -3293,7 +3346,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="2:11" ht="14.25">
+    <row r="63" spans="2:11" ht="13.8">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3304,7 +3357,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25">
+    <row r="64" spans="2:11" ht="13.8">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3315,7 +3368,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="2:10" ht="14.25">
+    <row r="65" spans="2:10" ht="13.8">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3326,7 +3379,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="2:10" ht="14.25">
+    <row r="66" spans="2:10" ht="13.8">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3337,7 +3390,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="2:10" ht="14.25">
+    <row r="67" spans="2:10" ht="13.8">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3348,7 +3401,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="2:10" ht="14.25">
+    <row r="68" spans="2:10" ht="13.8">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3359,7 +3412,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="2:10" ht="14.25">
+    <row r="69" spans="2:10" ht="13.8">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3370,7 +3423,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="2:10" ht="14.25">
+    <row r="70" spans="2:10" ht="13.8">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3381,7 +3434,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="2:10" ht="14.25">
+    <row r="71" spans="2:10" ht="13.8">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3392,7 +3445,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="2:10" ht="14.25">
+    <row r="72" spans="2:10" ht="13.8">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3403,7 +3456,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="2:10" ht="14.25">
+    <row r="73" spans="2:10" ht="13.8">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -3414,7 +3467,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="2:10" ht="14.25">
+    <row r="74" spans="2:10" ht="13.8">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3425,7 +3478,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="2:10" ht="14.25">
+    <row r="75" spans="2:10" ht="13.8">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -3436,7 +3489,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="2:10" ht="14.25">
+    <row r="76" spans="2:10" ht="13.8">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3447,7 +3500,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="2:10" ht="14.25">
+    <row r="77" spans="2:10" ht="13.8">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -3458,7 +3511,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="2:10" ht="14.25">
+    <row r="78" spans="2:10" ht="13.8">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3469,7 +3522,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="2:10" ht="14.25">
+    <row r="79" spans="2:10" ht="13.8">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -3480,7 +3533,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="2:10" ht="14.25">
+    <row r="80" spans="2:10" ht="13.8">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3491,7 +3544,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="2:10" ht="14.25">
+    <row r="81" spans="2:10" ht="13.8">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3502,7 +3555,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="2:10" ht="14.25">
+    <row r="82" spans="2:10" ht="13.8">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3513,7 +3566,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="2:10" ht="14.25">
+    <row r="83" spans="2:10" ht="13.8">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3524,7 +3577,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="2:10" ht="14.25">
+    <row r="84" spans="2:10" ht="13.8">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3535,7 +3588,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="2:10" ht="14.25">
+    <row r="85" spans="2:10" ht="13.8">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3546,7 +3599,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="2:10" ht="14.25">
+    <row r="86" spans="2:10" ht="13.8">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3557,7 +3610,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="2:10" ht="14.25">
+    <row r="87" spans="2:10" ht="13.8">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3568,7 +3621,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="2:10" ht="14.25">
+    <row r="88" spans="2:10" ht="13.8">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3579,7 +3632,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="2:10" ht="14.25">
+    <row r="89" spans="2:10" ht="13.8">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3590,7 +3643,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="2:10" ht="14.25">
+    <row r="90" spans="2:10" ht="13.8">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3601,7 +3654,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="2:10" ht="14.25">
+    <row r="91" spans="2:10" ht="13.8">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -3612,7 +3665,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="2:10" ht="14.25">
+    <row r="92" spans="2:10" ht="13.8">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -3623,7 +3676,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="2:10" ht="14.25">
+    <row r="93" spans="2:10" ht="13.8">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3634,7 +3687,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="2:10" ht="14.25">
+    <row r="94" spans="2:10" ht="13.8">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -3645,7 +3698,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="2:10" ht="14.25">
+    <row r="95" spans="2:10" ht="13.8">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -3656,7 +3709,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="2:10" ht="14.25">
+    <row r="96" spans="2:10" ht="13.8">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3667,7 +3720,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="2:10" ht="14.25">
+    <row r="97" spans="2:10" ht="13.8">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3678,7 +3731,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="2:10" ht="14.25">
+    <row r="98" spans="2:10" ht="13.8">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -3689,7 +3742,7 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="2:10" ht="14.25">
+    <row r="99" spans="2:10" ht="13.8">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -3700,7 +3753,7 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="2:10" ht="14.25">
+    <row r="100" spans="2:10" ht="13.8">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -3711,7 +3764,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="2:10" ht="14.25">
+    <row r="101" spans="2:10" ht="13.8">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -3722,7 +3775,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="2:10" ht="14.25">
+    <row r="102" spans="2:10" ht="13.8">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -3733,7 +3786,7 @@
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="2:10" ht="14.25">
+    <row r="103" spans="2:10" ht="13.8">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -3744,7 +3797,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="2:10" ht="14.25">
+    <row r="104" spans="2:10" ht="13.8">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -3755,7 +3808,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="2:10" ht="14.25">
+    <row r="105" spans="2:10" ht="13.8">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -3766,7 +3819,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="2:10" ht="14.25">
+    <row r="106" spans="2:10" ht="13.8">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -3777,7 +3830,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="2:10" ht="14.25">
+    <row r="107" spans="2:10" ht="13.8">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -3788,7 +3841,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="2:10" ht="14.25">
+    <row r="108" spans="2:10" ht="13.8">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -3799,7 +3852,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="2:10" ht="14.25">
+    <row r="109" spans="2:10" ht="13.8">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -3810,7 +3863,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="2:10" ht="14.25">
+    <row r="110" spans="2:10" ht="13.8">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -3821,7 +3874,7 @@
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="2:10" ht="14.25">
+    <row r="111" spans="2:10" ht="13.8">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -3832,7 +3885,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="2:10" ht="14.25">
+    <row r="112" spans="2:10" ht="13.8">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -3843,7 +3896,7 @@
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="2:10" ht="14.25">
+    <row r="113" spans="2:10" ht="13.8">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -3854,7 +3907,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="2:10" ht="14.25">
+    <row r="114" spans="2:10" ht="13.8">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -3865,7 +3918,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="2:10" ht="14.25">
+    <row r="115" spans="2:10" ht="13.8">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -3876,7 +3929,7 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="2:10" ht="14.25">
+    <row r="116" spans="2:10" ht="13.8">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -3887,7 +3940,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="2:10" ht="14.25">
+    <row r="117" spans="2:10" ht="13.8">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -3898,7 +3951,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="2:10" ht="14.25">
+    <row r="118" spans="2:10" ht="13.8">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -3909,7 +3962,7 @@
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="2:10" ht="14.25">
+    <row r="119" spans="2:10" ht="13.8">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -3920,7 +3973,7 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="2:10" ht="14.25">
+    <row r="120" spans="2:10" ht="13.8">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -3931,7 +3984,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="2:10" ht="14.25">
+    <row r="121" spans="2:10" ht="13.8">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -3942,7 +3995,7 @@
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="2:10" ht="14.25">
+    <row r="122" spans="2:10" ht="13.8">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -3953,7 +4006,7 @@
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
     </row>
-    <row r="123" spans="2:10" ht="14.25">
+    <row r="123" spans="2:10" ht="13.8">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -3964,7 +4017,7 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="2:10" ht="14.25">
+    <row r="124" spans="2:10" ht="13.8">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -3975,7 +4028,7 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="2:10" ht="14.25">
+    <row r="125" spans="2:10" ht="13.8">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -3986,7 +4039,7 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="2:10" ht="14.25">
+    <row r="126" spans="2:10" ht="13.8">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -3997,7 +4050,7 @@
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="2:10" ht="14.25">
+    <row r="127" spans="2:10" ht="13.8">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -4008,7 +4061,7 @@
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
     </row>
-    <row r="128" spans="2:10" ht="14.25">
+    <row r="128" spans="2:10" ht="13.8">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -4019,7 +4072,7 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="2:10" ht="14.25">
+    <row r="129" spans="2:10" ht="13.8">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -4030,7 +4083,7 @@
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="2:10" ht="14.25">
+    <row r="130" spans="2:10" ht="13.8">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -4041,7 +4094,7 @@
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="2:10" ht="14.25">
+    <row r="131" spans="2:10" ht="13.8">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -4052,7 +4105,7 @@
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="2:10" ht="14.25">
+    <row r="132" spans="2:10" ht="13.8">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -4063,7 +4116,7 @@
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="2:10" ht="14.25">
+    <row r="133" spans="2:10" ht="13.8">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -4074,7 +4127,7 @@
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="2:10" ht="14.25">
+    <row r="134" spans="2:10" ht="13.8">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -4085,7 +4138,7 @@
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="2:10" ht="14.25">
+    <row r="135" spans="2:10" ht="13.8">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -4096,7 +4149,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="2:10" ht="14.25">
+    <row r="136" spans="2:10" ht="13.8">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -4107,7 +4160,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="2:10" ht="14.25">
+    <row r="137" spans="2:10" ht="13.8">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -4118,7 +4171,7 @@
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="2:10" ht="14.25">
+    <row r="138" spans="2:10" ht="13.8">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -4129,7 +4182,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="2:10" ht="14.25">
+    <row r="139" spans="2:10" ht="13.8">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -4140,7 +4193,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="2:10" ht="14.25">
+    <row r="140" spans="2:10" ht="13.8">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -4151,7 +4204,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="2:10" ht="14.25">
+    <row r="141" spans="2:10" ht="13.8">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -4162,7 +4215,7 @@
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="2:10" ht="14.25">
+    <row r="142" spans="2:10" ht="13.8">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -4173,7 +4226,7 @@
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="2:10" ht="14.25">
+    <row r="143" spans="2:10" ht="13.8">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -4184,7 +4237,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="2:10" ht="14.25">
+    <row r="144" spans="2:10" ht="13.8">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -4195,7 +4248,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
     </row>
-    <row r="145" spans="2:10" ht="14.25">
+    <row r="145" spans="2:10" ht="13.8">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -4206,7 +4259,7 @@
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
-    <row r="146" spans="2:10" ht="14.25">
+    <row r="146" spans="2:10" ht="13.8">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4217,7 +4270,7 @@
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="2:10" ht="14.25">
+    <row r="147" spans="2:10" ht="13.8">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -4228,7 +4281,7 @@
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="2:10" ht="14.25">
+    <row r="148" spans="2:10" ht="13.8">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -4239,7 +4292,7 @@
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
     </row>
-    <row r="149" spans="2:10" ht="14.25">
+    <row r="149" spans="2:10" ht="13.8">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -4250,7 +4303,7 @@
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
     </row>
-    <row r="150" spans="2:10" ht="14.25">
+    <row r="150" spans="2:10" ht="13.8">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -4261,7 +4314,7 @@
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151" spans="2:10" ht="14.25">
+    <row r="151" spans="2:10" ht="13.8">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -4272,7 +4325,7 @@
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
     </row>
-    <row r="152" spans="2:10" ht="14.25">
+    <row r="152" spans="2:10" ht="13.8">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -4283,7 +4336,7 @@
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
     </row>
-    <row r="153" spans="2:10" ht="14.25">
+    <row r="153" spans="2:10" ht="13.8">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -4294,7 +4347,7 @@
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
     </row>
-    <row r="154" spans="2:10" ht="14.25">
+    <row r="154" spans="2:10" ht="13.8">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -4305,7 +4358,7 @@
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
     </row>
-    <row r="155" spans="2:10" ht="14.25">
+    <row r="155" spans="2:10" ht="13.8">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -4316,7 +4369,7 @@
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
     </row>
-    <row r="156" spans="2:10" ht="14.25">
+    <row r="156" spans="2:10" ht="13.8">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -4327,7 +4380,7 @@
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
     </row>
-    <row r="157" spans="2:10" ht="14.25">
+    <row r="157" spans="2:10" ht="13.8">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -4338,7 +4391,7 @@
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
-    <row r="158" spans="2:10" ht="14.25">
+    <row r="158" spans="2:10" ht="13.8">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -4349,7 +4402,7 @@
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
     </row>
-    <row r="159" spans="2:10" ht="14.25">
+    <row r="159" spans="2:10" ht="13.8">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -4360,7 +4413,7 @@
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
     </row>
-    <row r="160" spans="2:10" ht="14.25">
+    <row r="160" spans="2:10" ht="13.8">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -4371,7 +4424,7 @@
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
     </row>
-    <row r="161" spans="2:10" ht="14.25">
+    <row r="161" spans="2:10" ht="13.8">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -4382,7 +4435,7 @@
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
     </row>
-    <row r="162" spans="2:10" ht="14.25">
+    <row r="162" spans="2:10" ht="13.8">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -4393,7 +4446,7 @@
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="2:10" ht="14.25">
+    <row r="163" spans="2:10" ht="13.8">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -4404,7 +4457,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
     </row>
-    <row r="164" spans="2:10" ht="14.25">
+    <row r="164" spans="2:10" ht="13.8">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -4415,7 +4468,7 @@
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
     </row>
-    <row r="165" spans="2:10" ht="14.25">
+    <row r="165" spans="2:10" ht="13.8">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -4426,7 +4479,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166" spans="2:10" ht="14.25">
+    <row r="166" spans="2:10" ht="13.8">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -4437,7 +4490,7 @@
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="2:10" ht="14.25">
+    <row r="167" spans="2:10" ht="13.8">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -4448,7 +4501,7 @@
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="2:10" ht="14.25">
+    <row r="168" spans="2:10" ht="13.8">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -4459,7 +4512,7 @@
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="2:10" ht="14.25">
+    <row r="169" spans="2:10" ht="13.8">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -4470,7 +4523,7 @@
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="2:10" ht="14.25">
+    <row r="170" spans="2:10" ht="13.8">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -4481,7 +4534,7 @@
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
     </row>
-    <row r="171" spans="2:10" ht="14.25">
+    <row r="171" spans="2:10" ht="13.8">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -4492,7 +4545,7 @@
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="2:10" ht="14.25">
+    <row r="172" spans="2:10" ht="13.8">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -4503,7 +4556,7 @@
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
     </row>
-    <row r="173" spans="2:10" ht="14.25">
+    <row r="173" spans="2:10" ht="13.8">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -4514,7 +4567,7 @@
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
     </row>
-    <row r="174" spans="2:10" ht="14.25">
+    <row r="174" spans="2:10" ht="13.8">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -4525,7 +4578,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
     </row>
-    <row r="175" spans="2:10" ht="14.25">
+    <row r="175" spans="2:10" ht="13.8">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -4536,7 +4589,7 @@
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="2:10" ht="14.25">
+    <row r="176" spans="2:10" ht="13.8">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -4547,7 +4600,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="2:10" ht="14.25">
+    <row r="177" spans="2:10" ht="13.8">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -4558,7 +4611,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="2:10" ht="14.25">
+    <row r="178" spans="2:10" ht="13.8">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -4569,7 +4622,7 @@
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="2:10" ht="14.25">
+    <row r="179" spans="2:10" ht="13.8">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -4580,7 +4633,7 @@
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="2:10" ht="14.25">
+    <row r="180" spans="2:10" ht="13.8">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -4591,7 +4644,7 @@
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="2:10" ht="14.25">
+    <row r="181" spans="2:10" ht="13.8">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -4602,7 +4655,7 @@
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="2:10" ht="14.25">
+    <row r="182" spans="2:10" ht="13.8">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -4613,7 +4666,7 @@
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="2:10" ht="14.25">
+    <row r="183" spans="2:10" ht="13.8">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
@@ -4624,7 +4677,7 @@
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="2:10" ht="14.25">
+    <row r="184" spans="2:10" ht="13.8">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
@@ -4635,7 +4688,7 @@
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="2:10" ht="14.25">
+    <row r="185" spans="2:10" ht="13.8">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -4646,7 +4699,7 @@
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="2:10" ht="14.25">
+    <row r="186" spans="2:10" ht="13.8">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
@@ -4657,7 +4710,7 @@
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="2:10" ht="14.25">
+    <row r="187" spans="2:10" ht="13.8">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -4668,7 +4721,7 @@
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="2:10" ht="14.25">
+    <row r="188" spans="2:10" ht="13.8">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -4679,7 +4732,7 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="2:10" ht="14.25">
+    <row r="189" spans="2:10" ht="13.8">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -4690,7 +4743,7 @@
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
     </row>
-    <row r="190" spans="2:10" ht="14.25">
+    <row r="190" spans="2:10" ht="13.8">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -4701,7 +4754,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
     </row>
-    <row r="191" spans="2:10" ht="14.25">
+    <row r="191" spans="2:10" ht="13.8">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -4712,7 +4765,7 @@
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
     </row>
-    <row r="192" spans="2:10" ht="14.25">
+    <row r="192" spans="2:10" ht="13.8">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -4723,7 +4776,7 @@
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193" spans="2:10" ht="14.25">
+    <row r="193" spans="2:10" ht="13.8">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -4734,7 +4787,7 @@
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194" spans="2:10" ht="14.25">
+    <row r="194" spans="2:10" ht="13.8">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -4745,7 +4798,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="2:10" ht="14.25">
+    <row r="195" spans="2:10" ht="13.8">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -4756,7 +4809,7 @@
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
     </row>
-    <row r="196" spans="2:10" ht="14.25">
+    <row r="196" spans="2:10" ht="13.8">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
@@ -4767,7 +4820,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="2:10" ht="14.25">
+    <row r="197" spans="2:10" ht="13.8">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -4778,7 +4831,7 @@
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="2:10" ht="14.25">
+    <row r="198" spans="2:10" ht="13.8">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -4789,7 +4842,7 @@
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="2:10" ht="14.25">
+    <row r="199" spans="2:10" ht="13.8">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
@@ -4800,7 +4853,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="2:10" ht="14.25">
+    <row r="200" spans="2:10" ht="13.8">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -4811,7 +4864,7 @@
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="2:10" ht="14.25">
+    <row r="201" spans="2:10" ht="13.8">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -4822,7 +4875,7 @@
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="2:10" ht="14.25">
+    <row r="202" spans="2:10" ht="13.8">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -4833,7 +4886,7 @@
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203" spans="2:10" ht="14.25">
+    <row r="203" spans="2:10" ht="13.8">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -4844,7 +4897,7 @@
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="2:10" ht="14.25">
+    <row r="204" spans="2:10" ht="13.8">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -4855,7 +4908,7 @@
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="2:10" ht="14.25">
+    <row r="205" spans="2:10" ht="13.8">
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -4866,7 +4919,7 @@
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="2:10" ht="14.25">
+    <row r="206" spans="2:10" ht="13.8">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -4877,7 +4930,7 @@
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="2:10" ht="14.25">
+    <row r="207" spans="2:10" ht="13.8">
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -4888,7 +4941,7 @@
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="2:10" ht="14.25">
+    <row r="208" spans="2:10" ht="13.8">
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -4899,7 +4952,7 @@
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
     </row>
-    <row r="209" spans="2:10" ht="14.25">
+    <row r="209" spans="2:10" ht="13.8">
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -4910,7 +4963,7 @@
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
     </row>
-    <row r="210" spans="2:10" ht="14.25">
+    <row r="210" spans="2:10" ht="13.8">
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
@@ -4921,7 +4974,7 @@
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
     </row>
-    <row r="211" spans="2:10" ht="14.25">
+    <row r="211" spans="2:10" ht="13.8">
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -4932,7 +4985,7 @@
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
     </row>
-    <row r="212" spans="2:10" ht="14.25">
+    <row r="212" spans="2:10" ht="13.8">
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
@@ -4943,7 +4996,7 @@
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
     </row>
-    <row r="213" spans="2:10" ht="14.25">
+    <row r="213" spans="2:10" ht="13.8">
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
@@ -4954,7 +5007,7 @@
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
     </row>
-    <row r="214" spans="2:10" ht="14.25">
+    <row r="214" spans="2:10" ht="13.8">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -4965,7 +5018,7 @@
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="2:10" ht="14.25">
+    <row r="215" spans="2:10" ht="13.8">
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
@@ -4976,7 +5029,7 @@
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
     </row>
-    <row r="216" spans="2:10" ht="14.25">
+    <row r="216" spans="2:10" ht="13.8">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
@@ -4987,7 +5040,7 @@
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="2:10" ht="14.25">
+    <row r="217" spans="2:10" ht="13.8">
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
@@ -4998,7 +5051,7 @@
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
     </row>
-    <row r="218" spans="2:10" ht="14.25">
+    <row r="218" spans="2:10" ht="13.8">
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
@@ -5009,7 +5062,7 @@
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
     </row>
-    <row r="219" spans="2:10" ht="14.25">
+    <row r="219" spans="2:10" ht="13.8">
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
@@ -5020,7 +5073,7 @@
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
     </row>
-    <row r="220" spans="2:10" ht="14.25">
+    <row r="220" spans="2:10" ht="13.8">
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
@@ -5031,7 +5084,7 @@
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
     </row>
-    <row r="221" spans="2:10" ht="14.25">
+    <row r="221" spans="2:10" ht="13.8">
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
@@ -5042,7 +5095,7 @@
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
     </row>
-    <row r="222" spans="2:10" ht="14.25">
+    <row r="222" spans="2:10" ht="13.8">
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
@@ -5053,7 +5106,7 @@
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
     </row>
-    <row r="223" spans="2:10" ht="14.25">
+    <row r="223" spans="2:10" ht="13.8">
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
@@ -5064,7 +5117,7 @@
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
     </row>
-    <row r="224" spans="2:10" ht="14.25">
+    <row r="224" spans="2:10" ht="13.8">
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
@@ -5075,7 +5128,7 @@
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
     </row>
-    <row r="225" spans="2:10" ht="14.25">
+    <row r="225" spans="2:10" ht="13.8">
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
@@ -5086,7 +5139,7 @@
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
     </row>
-    <row r="226" spans="2:10" ht="14.25">
+    <row r="226" spans="2:10" ht="13.8">
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
@@ -5097,7 +5150,7 @@
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
     </row>
-    <row r="227" spans="2:10" ht="14.25">
+    <row r="227" spans="2:10" ht="13.8">
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -5108,7 +5161,7 @@
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
     </row>
-    <row r="228" spans="2:10" ht="14.25">
+    <row r="228" spans="2:10" ht="13.8">
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -5119,7 +5172,7 @@
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="2:10" ht="14.25">
+    <row r="229" spans="2:10" ht="13.8">
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -5130,7 +5183,7 @@
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
     </row>
-    <row r="230" spans="2:10" ht="14.25">
+    <row r="230" spans="2:10" ht="13.8">
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
@@ -5141,7 +5194,7 @@
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
     </row>
-    <row r="231" spans="2:10" ht="14.25">
+    <row r="231" spans="2:10" ht="13.8">
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -5152,7 +5205,7 @@
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
     </row>
-    <row r="232" spans="2:10" ht="14.25">
+    <row r="232" spans="2:10" ht="13.8">
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
@@ -5163,7 +5216,7 @@
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
     </row>
-    <row r="233" spans="2:10" ht="14.25">
+    <row r="233" spans="2:10" ht="13.8">
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -5174,7 +5227,7 @@
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234" spans="2:10" ht="14.25">
+    <row r="234" spans="2:10" ht="13.8">
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
@@ -5185,7 +5238,7 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
     </row>
-    <row r="235" spans="2:10" ht="14.25">
+    <row r="235" spans="2:10" ht="13.8">
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
@@ -5196,7 +5249,7 @@
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
     </row>
-    <row r="236" spans="2:10" ht="14.25">
+    <row r="236" spans="2:10" ht="13.8">
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
@@ -5207,7 +5260,7 @@
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
     </row>
-    <row r="237" spans="2:10" ht="14.25">
+    <row r="237" spans="2:10" ht="13.8">
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
@@ -5218,7 +5271,7 @@
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
     </row>
-    <row r="238" spans="2:10" ht="14.25">
+    <row r="238" spans="2:10" ht="13.8">
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
@@ -5229,7 +5282,7 @@
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
     </row>
-    <row r="239" spans="2:10" ht="14.25">
+    <row r="239" spans="2:10" ht="13.8">
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -5240,7 +5293,7 @@
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
     </row>
-    <row r="240" spans="2:10" ht="14.25">
+    <row r="240" spans="2:10" ht="13.8">
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
@@ -5251,7 +5304,7 @@
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
     </row>
-    <row r="241" spans="2:10" ht="14.25">
+    <row r="241" spans="2:10" ht="13.8">
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
@@ -5262,7 +5315,7 @@
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
     </row>
-    <row r="242" spans="2:10" ht="14.25">
+    <row r="242" spans="2:10" ht="13.8">
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
@@ -5273,7 +5326,7 @@
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
     </row>
-    <row r="243" spans="2:10" ht="14.25">
+    <row r="243" spans="2:10" ht="13.8">
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
@@ -5284,7 +5337,7 @@
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
     </row>
-    <row r="244" spans="2:10" ht="14.25">
+    <row r="244" spans="2:10" ht="13.8">
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -5295,7 +5348,7 @@
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
     </row>
-    <row r="245" spans="2:10" ht="14.25">
+    <row r="245" spans="2:10" ht="13.8">
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -5306,7 +5359,7 @@
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
     </row>
-    <row r="246" spans="2:10" ht="14.25">
+    <row r="246" spans="2:10" ht="13.8">
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
@@ -5317,7 +5370,7 @@
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
     </row>
-    <row r="247" spans="2:10" ht="14.25">
+    <row r="247" spans="2:10" ht="13.8">
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
@@ -5328,7 +5381,7 @@
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
     </row>
-    <row r="248" spans="2:10" ht="14.25">
+    <row r="248" spans="2:10" ht="13.8">
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
@@ -5339,7 +5392,7 @@
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
     </row>
-    <row r="249" spans="2:10" ht="14.25">
+    <row r="249" spans="2:10" ht="13.8">
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
@@ -5350,7 +5403,7 @@
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
     </row>
-    <row r="250" spans="2:10" ht="14.25">
+    <row r="250" spans="2:10" ht="13.8">
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
@@ -5361,7 +5414,7 @@
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
     </row>
-    <row r="251" spans="2:10" ht="14.25">
+    <row r="251" spans="2:10" ht="13.8">
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -5372,7 +5425,7 @@
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
     </row>
-    <row r="252" spans="2:10" ht="14.25">
+    <row r="252" spans="2:10" ht="13.8">
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
@@ -5383,7 +5436,7 @@
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
     </row>
-    <row r="253" spans="2:10" ht="14.25">
+    <row r="253" spans="2:10" ht="13.8">
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
@@ -5394,7 +5447,7 @@
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
     </row>
-    <row r="254" spans="2:10" ht="14.25">
+    <row r="254" spans="2:10" ht="13.8">
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
@@ -5405,7 +5458,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
     </row>
-    <row r="255" spans="2:10" ht="14.25">
+    <row r="255" spans="2:10" ht="13.8">
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
@@ -5416,7 +5469,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
     </row>
-    <row r="256" spans="2:10" ht="14.25">
+    <row r="256" spans="2:10" ht="13.8">
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
@@ -5427,7 +5480,7 @@
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
     </row>
-    <row r="257" spans="2:10" ht="14.25">
+    <row r="257" spans="2:10" ht="13.8">
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
@@ -5438,7 +5491,7 @@
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
     </row>
-    <row r="258" spans="2:10" ht="14.25">
+    <row r="258" spans="2:10" ht="13.8">
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
@@ -5449,7 +5502,7 @@
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
     </row>
-    <row r="259" spans="2:10" ht="14.25">
+    <row r="259" spans="2:10" ht="13.8">
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -5460,7 +5513,7 @@
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
     </row>
-    <row r="260" spans="2:10" ht="14.25">
+    <row r="260" spans="2:10" ht="13.8">
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -5471,7 +5524,7 @@
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
     </row>
-    <row r="261" spans="2:10" ht="14.25">
+    <row r="261" spans="2:10" ht="13.8">
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -5482,7 +5535,7 @@
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
     </row>
-    <row r="262" spans="2:10" ht="14.25">
+    <row r="262" spans="2:10" ht="13.8">
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -5493,7 +5546,7 @@
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
     </row>
-    <row r="263" spans="2:10" ht="14.25">
+    <row r="263" spans="2:10" ht="13.8">
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
@@ -5504,7 +5557,7 @@
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="2:10" ht="14.25">
+    <row r="264" spans="2:10" ht="13.8">
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
@@ -5515,7 +5568,7 @@
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
     </row>
-    <row r="265" spans="2:10" ht="14.25">
+    <row r="265" spans="2:10" ht="13.8">
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
@@ -5526,7 +5579,7 @@
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
     </row>
-    <row r="266" spans="2:10" ht="14.25">
+    <row r="266" spans="2:10" ht="13.8">
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
@@ -5537,7 +5590,7 @@
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
     </row>
-    <row r="267" spans="2:10" ht="14.25">
+    <row r="267" spans="2:10" ht="13.8">
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
@@ -5548,7 +5601,7 @@
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
     </row>
-    <row r="268" spans="2:10" ht="14.25">
+    <row r="268" spans="2:10" ht="13.8">
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
@@ -5559,7 +5612,7 @@
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="2:10" ht="14.25">
+    <row r="269" spans="2:10" ht="13.8">
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -5570,7 +5623,7 @@
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
     </row>
-    <row r="270" spans="2:10" ht="14.25">
+    <row r="270" spans="2:10" ht="13.8">
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
@@ -5581,7 +5634,7 @@
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
     </row>
-    <row r="271" spans="2:10" ht="14.25">
+    <row r="271" spans="2:10" ht="13.8">
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
@@ -5592,7 +5645,7 @@
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
     </row>
-    <row r="272" spans="2:10" ht="14.25">
+    <row r="272" spans="2:10" ht="13.8">
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
@@ -5603,7 +5656,7 @@
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
     </row>
-    <row r="273" spans="2:10" ht="14.25">
+    <row r="273" spans="2:10" ht="13.8">
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
@@ -5614,7 +5667,7 @@
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
     </row>
-    <row r="274" spans="2:10" ht="14.25">
+    <row r="274" spans="2:10" ht="13.8">
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
@@ -5625,7 +5678,7 @@
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
     </row>
-    <row r="275" spans="2:10" ht="14.25">
+    <row r="275" spans="2:10" ht="13.8">
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
@@ -5636,7 +5689,7 @@
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
     </row>
-    <row r="276" spans="2:10" ht="14.25">
+    <row r="276" spans="2:10" ht="13.8">
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
@@ -5647,7 +5700,7 @@
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
     </row>
-    <row r="277" spans="2:10" ht="14.25">
+    <row r="277" spans="2:10" ht="13.8">
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
@@ -5658,7 +5711,7 @@
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
     </row>
-    <row r="278" spans="2:10" ht="14.25">
+    <row r="278" spans="2:10" ht="13.8">
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
@@ -5669,7 +5722,7 @@
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
     </row>
-    <row r="279" spans="2:10" ht="14.25">
+    <row r="279" spans="2:10" ht="13.8">
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -5680,7 +5733,7 @@
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280" spans="2:10" ht="14.25">
+    <row r="280" spans="2:10" ht="13.8">
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -5691,7 +5744,7 @@
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281" spans="2:10" ht="14.25">
+    <row r="281" spans="2:10" ht="13.8">
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
@@ -5702,7 +5755,7 @@
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
     </row>
-    <row r="282" spans="2:10" ht="14.25">
+    <row r="282" spans="2:10" ht="13.8">
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -5713,7 +5766,7 @@
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283" spans="2:10" ht="14.25">
+    <row r="283" spans="2:10" ht="13.8">
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -5724,7 +5777,7 @@
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
     </row>
-    <row r="284" spans="2:10" ht="14.25">
+    <row r="284" spans="2:10" ht="13.8">
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
@@ -5735,7 +5788,7 @@
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285" spans="2:10" ht="14.25">
+    <row r="285" spans="2:10" ht="13.8">
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
@@ -5746,7 +5799,7 @@
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
     </row>
-    <row r="286" spans="2:10" ht="14.25">
+    <row r="286" spans="2:10" ht="13.8">
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
@@ -5757,7 +5810,7 @@
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287" spans="2:10" ht="14.25">
+    <row r="287" spans="2:10" ht="13.8">
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -5768,7 +5821,7 @@
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
     </row>
-    <row r="288" spans="2:10" ht="14.25">
+    <row r="288" spans="2:10" ht="13.8">
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -5779,7 +5832,7 @@
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
     </row>
-    <row r="289" spans="2:10" ht="14.25">
+    <row r="289" spans="2:10" ht="13.8">
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -5790,7 +5843,7 @@
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
     </row>
-    <row r="290" spans="2:10" ht="14.25">
+    <row r="290" spans="2:10" ht="13.8">
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
@@ -5801,7 +5854,7 @@
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
     </row>
-    <row r="291" spans="2:10" ht="14.25">
+    <row r="291" spans="2:10" ht="13.8">
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -5812,7 +5865,7 @@
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="2:10" ht="14.25">
+    <row r="292" spans="2:10" ht="13.8">
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
@@ -5823,7 +5876,7 @@
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293" spans="2:10" ht="14.25">
+    <row r="293" spans="2:10" ht="13.8">
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
@@ -5834,7 +5887,7 @@
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
     </row>
-    <row r="294" spans="2:10" ht="14.25">
+    <row r="294" spans="2:10" ht="13.8">
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
@@ -5845,7 +5898,7 @@
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
     </row>
-    <row r="295" spans="2:10" ht="14.25">
+    <row r="295" spans="2:10" ht="13.8">
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
@@ -5856,7 +5909,7 @@
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
     </row>
-    <row r="296" spans="2:10" ht="14.25">
+    <row r="296" spans="2:10" ht="13.8">
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
@@ -5867,7 +5920,7 @@
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
     </row>
-    <row r="297" spans="2:10" ht="14.25">
+    <row r="297" spans="2:10" ht="13.8">
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
@@ -5878,7 +5931,7 @@
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
     </row>
-    <row r="298" spans="2:10" ht="14.25">
+    <row r="298" spans="2:10" ht="13.8">
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
@@ -5889,7 +5942,7 @@
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
     </row>
-    <row r="299" spans="2:10" ht="14.25">
+    <row r="299" spans="2:10" ht="13.8">
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
@@ -5900,7 +5953,7 @@
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="2:10" ht="14.25">
+    <row r="300" spans="2:10" ht="13.8">
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
@@ -5911,7 +5964,7 @@
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
     </row>
-    <row r="301" spans="2:10" ht="14.25">
+    <row r="301" spans="2:10" ht="13.8">
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
@@ -5922,7 +5975,7 @@
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
     </row>
-    <row r="302" spans="2:10" ht="14.25">
+    <row r="302" spans="2:10" ht="13.8">
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
@@ -5933,7 +5986,7 @@
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
     </row>
-    <row r="303" spans="2:10" ht="14.25">
+    <row r="303" spans="2:10" ht="13.8">
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
@@ -5944,7 +5997,7 @@
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
     </row>
-    <row r="304" spans="2:10" ht="14.25">
+    <row r="304" spans="2:10" ht="13.8">
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
@@ -5955,7 +6008,7 @@
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
     </row>
-    <row r="305" spans="2:10" ht="14.25">
+    <row r="305" spans="2:10" ht="13.8">
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
@@ -5966,7 +6019,7 @@
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
     </row>
-    <row r="306" spans="2:10" ht="14.25">
+    <row r="306" spans="2:10" ht="13.8">
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
@@ -5977,7 +6030,7 @@
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
     </row>
-    <row r="307" spans="2:10" ht="14.25">
+    <row r="307" spans="2:10" ht="13.8">
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
@@ -5988,7 +6041,7 @@
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
     </row>
-    <row r="308" spans="2:10" ht="14.25">
+    <row r="308" spans="2:10" ht="13.8">
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
@@ -5999,7 +6052,7 @@
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
     </row>
-    <row r="309" spans="2:10" ht="14.25">
+    <row r="309" spans="2:10" ht="13.8">
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
@@ -6010,7 +6063,7 @@
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
     </row>
-    <row r="310" spans="2:10" ht="14.25">
+    <row r="310" spans="2:10" ht="13.8">
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
@@ -6021,7 +6074,7 @@
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
     </row>
-    <row r="311" spans="2:10" ht="14.25">
+    <row r="311" spans="2:10" ht="13.8">
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
@@ -6032,7 +6085,7 @@
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
     </row>
-    <row r="312" spans="2:10" ht="14.25">
+    <row r="312" spans="2:10" ht="13.8">
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
@@ -6043,7 +6096,7 @@
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
     </row>
-    <row r="313" spans="2:10" ht="14.25">
+    <row r="313" spans="2:10" ht="13.8">
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
@@ -6054,7 +6107,7 @@
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
     </row>
-    <row r="314" spans="2:10" ht="14.25">
+    <row r="314" spans="2:10" ht="13.8">
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
@@ -6065,7 +6118,7 @@
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="2:10" ht="14.25">
+    <row r="315" spans="2:10" ht="13.8">
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
@@ -6076,7 +6129,7 @@
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
     </row>
-    <row r="316" spans="2:10" ht="14.25">
+    <row r="316" spans="2:10" ht="13.8">
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
@@ -6087,7 +6140,7 @@
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
     </row>
-    <row r="317" spans="2:10" ht="14.25">
+    <row r="317" spans="2:10" ht="13.8">
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
@@ -6098,7 +6151,7 @@
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="2:10" ht="14.25">
+    <row r="318" spans="2:10" ht="13.8">
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
@@ -6109,7 +6162,7 @@
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
     </row>
-    <row r="319" spans="2:10" ht="14.25">
+    <row r="319" spans="2:10" ht="13.8">
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -6120,7 +6173,7 @@
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
     </row>
-    <row r="320" spans="2:10" ht="14.25">
+    <row r="320" spans="2:10" ht="13.8">
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -6131,7 +6184,7 @@
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
     </row>
-    <row r="321" spans="2:10" ht="14.25">
+    <row r="321" spans="2:10" ht="13.8">
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -6142,7 +6195,7 @@
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
     </row>
-    <row r="322" spans="2:10" ht="14.25">
+    <row r="322" spans="2:10" ht="13.8">
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
@@ -6153,7 +6206,7 @@
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
     </row>
-    <row r="323" spans="2:10" ht="14.25">
+    <row r="323" spans="2:10" ht="13.8">
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
@@ -6164,7 +6217,7 @@
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
     </row>
-    <row r="324" spans="2:10" ht="14.25">
+    <row r="324" spans="2:10" ht="13.8">
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -6175,7 +6228,7 @@
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
     </row>
-    <row r="325" spans="2:10" ht="14.25">
+    <row r="325" spans="2:10" ht="13.8">
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
@@ -6186,7 +6239,7 @@
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
     </row>
-    <row r="326" spans="2:10" ht="14.25">
+    <row r="326" spans="2:10" ht="13.8">
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
@@ -6197,7 +6250,7 @@
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
     </row>
-    <row r="327" spans="2:10" ht="14.25">
+    <row r="327" spans="2:10" ht="13.8">
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
@@ -6208,7 +6261,7 @@
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
     </row>
-    <row r="328" spans="2:10" ht="14.25">
+    <row r="328" spans="2:10" ht="13.8">
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
@@ -6219,7 +6272,7 @@
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
     </row>
-    <row r="329" spans="2:10" ht="14.25">
+    <row r="329" spans="2:10" ht="13.8">
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
@@ -6230,7 +6283,7 @@
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
     </row>
-    <row r="330" spans="2:10" ht="14.25">
+    <row r="330" spans="2:10" ht="13.8">
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
@@ -6241,7 +6294,7 @@
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
     </row>
-    <row r="331" spans="2:10" ht="14.25">
+    <row r="331" spans="2:10" ht="13.8">
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
@@ -6252,7 +6305,7 @@
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
     </row>
-    <row r="332" spans="2:10" ht="14.25">
+    <row r="332" spans="2:10" ht="13.8">
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
@@ -6263,7 +6316,7 @@
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
     </row>
-    <row r="333" spans="2:10" ht="14.25">
+    <row r="333" spans="2:10" ht="13.8">
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
@@ -6274,7 +6327,7 @@
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
     </row>
-    <row r="334" spans="2:10" ht="14.25">
+    <row r="334" spans="2:10" ht="13.8">
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
@@ -6285,7 +6338,7 @@
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
     </row>
-    <row r="335" spans="2:10" ht="14.25">
+    <row r="335" spans="2:10" ht="13.8">
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
@@ -6296,7 +6349,7 @@
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
     </row>
-    <row r="336" spans="2:10" ht="14.25">
+    <row r="336" spans="2:10" ht="13.8">
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
@@ -6307,7 +6360,7 @@
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
     </row>
-    <row r="337" spans="2:10" ht="14.25">
+    <row r="337" spans="2:10" ht="13.8">
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
@@ -6318,7 +6371,7 @@
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
     </row>
-    <row r="338" spans="2:10" ht="14.25">
+    <row r="338" spans="2:10" ht="13.8">
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
@@ -6329,7 +6382,7 @@
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
     </row>
-    <row r="339" spans="2:10" ht="14.25">
+    <row r="339" spans="2:10" ht="13.8">
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
@@ -6340,7 +6393,7 @@
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
     </row>
-    <row r="340" spans="2:10" ht="14.25">
+    <row r="340" spans="2:10" ht="13.8">
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -6351,7 +6404,7 @@
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
     </row>
-    <row r="341" spans="2:10" ht="14.25">
+    <row r="341" spans="2:10" ht="13.8">
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
@@ -6362,7 +6415,7 @@
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
     </row>
-    <row r="342" spans="2:10" ht="14.25">
+    <row r="342" spans="2:10" ht="13.8">
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
@@ -6373,7 +6426,7 @@
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
     </row>
-    <row r="343" spans="2:10" ht="14.25">
+    <row r="343" spans="2:10" ht="13.8">
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
@@ -6384,7 +6437,7 @@
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
     </row>
-    <row r="344" spans="2:10" ht="14.25">
+    <row r="344" spans="2:10" ht="13.8">
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
@@ -6395,7 +6448,7 @@
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
     </row>
-    <row r="345" spans="2:10" ht="14.25">
+    <row r="345" spans="2:10" ht="13.8">
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
@@ -6406,7 +6459,7 @@
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
     </row>
-    <row r="346" spans="2:10" ht="14.25">
+    <row r="346" spans="2:10" ht="13.8">
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
@@ -6417,7 +6470,7 @@
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
     </row>
-    <row r="347" spans="2:10" ht="14.25">
+    <row r="347" spans="2:10" ht="13.8">
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
@@ -6428,7 +6481,7 @@
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
     </row>
-    <row r="348" spans="2:10" ht="14.25">
+    <row r="348" spans="2:10" ht="13.8">
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
@@ -6439,7 +6492,7 @@
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
     </row>
-    <row r="349" spans="2:10" ht="14.25">
+    <row r="349" spans="2:10" ht="13.8">
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -6450,7 +6503,7 @@
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
     </row>
-    <row r="350" spans="2:10" ht="14.25">
+    <row r="350" spans="2:10" ht="13.8">
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
@@ -6461,7 +6514,7 @@
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
     </row>
-    <row r="351" spans="2:10" ht="14.25">
+    <row r="351" spans="2:10" ht="13.8">
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
@@ -6472,7 +6525,7 @@
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
     </row>
-    <row r="352" spans="2:10" ht="14.25">
+    <row r="352" spans="2:10" ht="13.8">
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
@@ -6483,7 +6536,7 @@
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
     </row>
-    <row r="353" spans="2:10" ht="14.25">
+    <row r="353" spans="2:10" ht="13.8">
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
@@ -6494,7 +6547,7 @@
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
     </row>
-    <row r="354" spans="2:10" ht="14.25">
+    <row r="354" spans="2:10" ht="13.8">
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
@@ -6505,7 +6558,7 @@
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="2:10" ht="14.25">
+    <row r="355" spans="2:10" ht="13.8">
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
@@ -6516,7 +6569,7 @@
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
     </row>
-    <row r="356" spans="2:10" ht="14.25">
+    <row r="356" spans="2:10" ht="13.8">
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
@@ -6527,7 +6580,7 @@
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
     </row>
-    <row r="357" spans="2:10" ht="14.25">
+    <row r="357" spans="2:10" ht="13.8">
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
@@ -6538,7 +6591,7 @@
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
     </row>
-    <row r="358" spans="2:10" ht="14.25">
+    <row r="358" spans="2:10" ht="13.8">
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
@@ -6549,7 +6602,7 @@
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
     </row>
-    <row r="359" spans="2:10" ht="14.25">
+    <row r="359" spans="2:10" ht="13.8">
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -6560,7 +6613,7 @@
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
     </row>
-    <row r="360" spans="2:10" ht="14.25">
+    <row r="360" spans="2:10" ht="13.8">
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -6571,7 +6624,7 @@
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
     </row>
-    <row r="361" spans="2:10" ht="14.25">
+    <row r="361" spans="2:10" ht="13.8">
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -6582,7 +6635,7 @@
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="2:10" ht="14.25">
+    <row r="362" spans="2:10" ht="13.8">
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -6593,7 +6646,7 @@
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="2:10" ht="14.25">
+    <row r="363" spans="2:10" ht="13.8">
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -6604,7 +6657,7 @@
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
     </row>
-    <row r="364" spans="2:10" ht="14.25">
+    <row r="364" spans="2:10" ht="13.8">
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -6615,7 +6668,7 @@
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
     </row>
-    <row r="365" spans="2:10" ht="14.25">
+    <row r="365" spans="2:10" ht="13.8">
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -6626,7 +6679,7 @@
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
     </row>
-    <row r="366" spans="2:10" ht="14.25">
+    <row r="366" spans="2:10" ht="13.8">
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
@@ -6637,7 +6690,7 @@
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
     </row>
-    <row r="367" spans="2:10" ht="14.25">
+    <row r="367" spans="2:10" ht="13.8">
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
@@ -6648,7 +6701,7 @@
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
     </row>
-    <row r="368" spans="2:10" ht="14.25">
+    <row r="368" spans="2:10" ht="13.8">
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
@@ -6659,7 +6712,7 @@
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
     </row>
-    <row r="369" spans="2:10" ht="14.25">
+    <row r="369" spans="2:10" ht="13.8">
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
@@ -6670,7 +6723,7 @@
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
     </row>
-    <row r="370" spans="2:10" ht="14.25">
+    <row r="370" spans="2:10" ht="13.8">
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
@@ -6681,7 +6734,7 @@
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
     </row>
-    <row r="371" spans="2:10" ht="14.25">
+    <row r="371" spans="2:10" ht="13.8">
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
@@ -6692,7 +6745,7 @@
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
     </row>
-    <row r="372" spans="2:10" ht="14.25">
+    <row r="372" spans="2:10" ht="13.8">
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
@@ -6703,7 +6756,7 @@
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
     </row>
-    <row r="373" spans="2:10" ht="14.25">
+    <row r="373" spans="2:10" ht="13.8">
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
@@ -6714,7 +6767,7 @@
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
     </row>
-    <row r="374" spans="2:10" ht="14.25">
+    <row r="374" spans="2:10" ht="13.8">
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
@@ -6725,7 +6778,7 @@
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
     </row>
-    <row r="375" spans="2:10" ht="14.25">
+    <row r="375" spans="2:10" ht="13.8">
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
@@ -6736,7 +6789,7 @@
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
     </row>
-    <row r="376" spans="2:10" ht="14.25">
+    <row r="376" spans="2:10" ht="13.8">
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
@@ -6747,7 +6800,7 @@
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
     </row>
-    <row r="377" spans="2:10" ht="14.25">
+    <row r="377" spans="2:10" ht="13.8">
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -6758,7 +6811,7 @@
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
     </row>
-    <row r="378" spans="2:10" ht="14.25">
+    <row r="378" spans="2:10" ht="13.8">
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
@@ -6769,7 +6822,7 @@
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
     </row>
-    <row r="379" spans="2:10" ht="14.25">
+    <row r="379" spans="2:10" ht="13.8">
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
@@ -6780,7 +6833,7 @@
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
     </row>
-    <row r="380" spans="2:10" ht="14.25">
+    <row r="380" spans="2:10" ht="13.8">
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
@@ -6791,7 +6844,7 @@
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
     </row>
-    <row r="381" spans="2:10" ht="14.25">
+    <row r="381" spans="2:10" ht="13.8">
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -6802,7 +6855,7 @@
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
     </row>
-    <row r="382" spans="2:10" ht="14.25">
+    <row r="382" spans="2:10" ht="13.8">
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
@@ -6813,7 +6866,7 @@
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
     </row>
-    <row r="383" spans="2:10" ht="14.25">
+    <row r="383" spans="2:10" ht="13.8">
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
@@ -6824,7 +6877,7 @@
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
     </row>
-    <row r="384" spans="2:10" ht="14.25">
+    <row r="384" spans="2:10" ht="13.8">
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
@@ -6835,7 +6888,7 @@
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
     </row>
-    <row r="385" spans="2:10" ht="14.25">
+    <row r="385" spans="2:10" ht="13.8">
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
@@ -6846,7 +6899,7 @@
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
     </row>
-    <row r="386" spans="2:10" ht="14.25">
+    <row r="386" spans="2:10" ht="13.8">
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
@@ -6857,7 +6910,7 @@
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
     </row>
-    <row r="387" spans="2:10" ht="14.25">
+    <row r="387" spans="2:10" ht="13.8">
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
@@ -6868,7 +6921,7 @@
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
     </row>
-    <row r="388" spans="2:10" ht="14.25">
+    <row r="388" spans="2:10" ht="13.8">
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
@@ -6879,7 +6932,7 @@
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
     </row>
-    <row r="389" spans="2:10" ht="14.25">
+    <row r="389" spans="2:10" ht="13.8">
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
@@ -6890,7 +6943,7 @@
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
     </row>
-    <row r="390" spans="2:10" ht="14.25">
+    <row r="390" spans="2:10" ht="13.8">
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
@@ -6901,7 +6954,7 @@
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
     </row>
-    <row r="391" spans="2:10" ht="14.25">
+    <row r="391" spans="2:10" ht="13.8">
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
@@ -6912,7 +6965,7 @@
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
     </row>
-    <row r="392" spans="2:10" ht="14.25">
+    <row r="392" spans="2:10" ht="13.8">
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
@@ -6923,7 +6976,7 @@
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
     </row>
-    <row r="393" spans="2:10" ht="14.25">
+    <row r="393" spans="2:10" ht="13.8">
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
@@ -6934,7 +6987,7 @@
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
     </row>
-    <row r="394" spans="2:10" ht="14.25">
+    <row r="394" spans="2:10" ht="13.8">
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
@@ -6945,7 +6998,7 @@
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
     </row>
-    <row r="395" spans="2:10" ht="14.25">
+    <row r="395" spans="2:10" ht="13.8">
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
@@ -6956,7 +7009,7 @@
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
     </row>
-    <row r="396" spans="2:10" ht="14.25">
+    <row r="396" spans="2:10" ht="13.8">
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -6967,7 +7020,7 @@
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
     </row>
-    <row r="397" spans="2:10" ht="14.25">
+    <row r="397" spans="2:10" ht="13.8">
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
@@ -6978,7 +7031,7 @@
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="2:10" ht="14.25">
+    <row r="398" spans="2:10" ht="13.8">
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
@@ -6989,7 +7042,7 @@
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
     </row>
-    <row r="399" spans="2:10" ht="14.25">
+    <row r="399" spans="2:10" ht="13.8">
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
@@ -7000,7 +7053,7 @@
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="2:10" ht="14.25">
+    <row r="400" spans="2:10" ht="13.8">
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
@@ -7011,7 +7064,7 @@
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="2:10" ht="14.25">
+    <row r="401" spans="2:10" ht="13.8">
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
@@ -7022,7 +7075,7 @@
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
     </row>
-    <row r="402" spans="2:10" ht="14.25">
+    <row r="402" spans="2:10" ht="13.8">
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
@@ -7033,7 +7086,7 @@
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
     </row>
-    <row r="403" spans="2:10" ht="14.25">
+    <row r="403" spans="2:10" ht="13.8">
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
@@ -7044,7 +7097,7 @@
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
     </row>
-    <row r="404" spans="2:10" ht="14.25">
+    <row r="404" spans="2:10" ht="13.8">
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
@@ -7055,7 +7108,7 @@
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
     </row>
-    <row r="405" spans="2:10" ht="14.25">
+    <row r="405" spans="2:10" ht="13.8">
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
@@ -7066,7 +7119,7 @@
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
     </row>
-    <row r="406" spans="2:10" ht="14.25">
+    <row r="406" spans="2:10" ht="13.8">
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
@@ -7077,7 +7130,7 @@
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
     </row>
-    <row r="407" spans="2:10" ht="14.25">
+    <row r="407" spans="2:10" ht="13.8">
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
@@ -7088,7 +7141,7 @@
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
     </row>
-    <row r="408" spans="2:10" ht="14.25">
+    <row r="408" spans="2:10" ht="13.8">
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
@@ -7099,7 +7152,7 @@
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
     </row>
-    <row r="409" spans="2:10" ht="14.25">
+    <row r="409" spans="2:10" ht="13.8">
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -7110,7 +7163,7 @@
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
     </row>
-    <row r="410" spans="2:10" ht="14.25">
+    <row r="410" spans="2:10" ht="13.8">
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
@@ -7121,7 +7174,7 @@
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
     </row>
-    <row r="411" spans="2:10" ht="14.25">
+    <row r="411" spans="2:10" ht="13.8">
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
@@ -7132,7 +7185,7 @@
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
     </row>
-    <row r="412" spans="2:10" ht="14.25">
+    <row r="412" spans="2:10" ht="13.8">
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
@@ -7143,7 +7196,7 @@
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="2:10" ht="14.25">
+    <row r="413" spans="2:10" ht="13.8">
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
@@ -7154,7 +7207,7 @@
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
     </row>
-    <row r="414" spans="2:10" ht="14.25">
+    <row r="414" spans="2:10" ht="13.8">
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
@@ -7165,7 +7218,7 @@
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
     </row>
-    <row r="415" spans="2:10" ht="14.25">
+    <row r="415" spans="2:10" ht="13.8">
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
@@ -7176,7 +7229,7 @@
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
     </row>
-    <row r="416" spans="2:10" ht="14.25">
+    <row r="416" spans="2:10" ht="13.8">
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
@@ -7187,7 +7240,7 @@
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
     </row>
-    <row r="417" spans="2:10" ht="14.25">
+    <row r="417" spans="2:10" ht="13.8">
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
@@ -7198,7 +7251,7 @@
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
     </row>
-    <row r="418" spans="2:10" ht="14.25">
+    <row r="418" spans="2:10" ht="13.8">
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
@@ -7209,7 +7262,7 @@
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
     </row>
-    <row r="419" spans="2:10" ht="14.25">
+    <row r="419" spans="2:10" ht="13.8">
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
@@ -7220,7 +7273,7 @@
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
     </row>
-    <row r="420" spans="2:10" ht="14.25">
+    <row r="420" spans="2:10" ht="13.8">
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
@@ -7231,7 +7284,7 @@
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
     </row>
-    <row r="421" spans="2:10" ht="14.25">
+    <row r="421" spans="2:10" ht="13.8">
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
@@ -7242,7 +7295,7 @@
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
     </row>
-    <row r="422" spans="2:10" ht="14.25">
+    <row r="422" spans="2:10" ht="13.8">
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
@@ -7253,7 +7306,7 @@
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
     </row>
-    <row r="423" spans="2:10" ht="14.25">
+    <row r="423" spans="2:10" ht="13.8">
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
@@ -7264,7 +7317,7 @@
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
     </row>
-    <row r="424" spans="2:10" ht="14.25">
+    <row r="424" spans="2:10" ht="13.8">
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
@@ -7275,7 +7328,7 @@
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
     </row>
-    <row r="425" spans="2:10" ht="14.25">
+    <row r="425" spans="2:10" ht="13.8">
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
@@ -7286,7 +7339,7 @@
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
     </row>
-    <row r="426" spans="2:10" ht="14.25">
+    <row r="426" spans="2:10" ht="13.8">
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
@@ -7297,7 +7350,7 @@
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
     </row>
-    <row r="427" spans="2:10" ht="14.25">
+    <row r="427" spans="2:10" ht="13.8">
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
@@ -7308,7 +7361,7 @@
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
     </row>
-    <row r="428" spans="2:10" ht="14.25">
+    <row r="428" spans="2:10" ht="13.8">
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
@@ -7319,7 +7372,7 @@
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
     </row>
-    <row r="429" spans="2:10" ht="14.25">
+    <row r="429" spans="2:10" ht="13.8">
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
@@ -7330,7 +7383,7 @@
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
     </row>
-    <row r="430" spans="2:10" ht="14.25">
+    <row r="430" spans="2:10" ht="13.8">
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
@@ -7341,7 +7394,7 @@
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="2:10" ht="14.25">
+    <row r="431" spans="2:10" ht="13.8">
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -7352,7 +7405,7 @@
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
     </row>
-    <row r="432" spans="2:10" ht="14.25">
+    <row r="432" spans="2:10" ht="13.8">
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
@@ -7363,7 +7416,7 @@
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
     </row>
-    <row r="433" spans="2:10" ht="14.25">
+    <row r="433" spans="2:10" ht="13.8">
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
@@ -7374,7 +7427,7 @@
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
     </row>
-    <row r="434" spans="2:10" ht="14.25">
+    <row r="434" spans="2:10" ht="13.8">
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
@@ -7385,7 +7438,7 @@
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="2:10" ht="14.25">
+    <row r="435" spans="2:10" ht="13.8">
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
@@ -7396,7 +7449,7 @@
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
     </row>
-    <row r="436" spans="2:10" ht="14.25">
+    <row r="436" spans="2:10" ht="13.8">
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
@@ -7407,7 +7460,7 @@
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
     </row>
-    <row r="437" spans="2:10" ht="14.25">
+    <row r="437" spans="2:10" ht="13.8">
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
@@ -7418,7 +7471,7 @@
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
     </row>
-    <row r="438" spans="2:10" ht="14.25">
+    <row r="438" spans="2:10" ht="13.8">
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
@@ -7429,7 +7482,7 @@
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
     </row>
-    <row r="439" spans="2:10" ht="14.25">
+    <row r="439" spans="2:10" ht="13.8">
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
@@ -7440,7 +7493,7 @@
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
     </row>
-    <row r="440" spans="2:10" ht="14.25">
+    <row r="440" spans="2:10" ht="13.8">
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
@@ -7451,7 +7504,7 @@
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
     </row>
-    <row r="441" spans="2:10" ht="14.25">
+    <row r="441" spans="2:10" ht="13.8">
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
@@ -7462,7 +7515,7 @@
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
     </row>
-    <row r="442" spans="2:10" ht="14.25">
+    <row r="442" spans="2:10" ht="13.8">
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
@@ -7473,7 +7526,7 @@
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="2:10" ht="14.25">
+    <row r="443" spans="2:10" ht="13.8">
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
@@ -7484,7 +7537,7 @@
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
     </row>
-    <row r="444" spans="2:10" ht="14.25">
+    <row r="444" spans="2:10" ht="13.8">
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
@@ -7495,7 +7548,7 @@
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
     </row>
-    <row r="445" spans="2:10" ht="14.25">
+    <row r="445" spans="2:10" ht="13.8">
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
@@ -7506,7 +7559,7 @@
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
     </row>
-    <row r="446" spans="2:10" ht="14.25">
+    <row r="446" spans="2:10" ht="13.8">
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
@@ -7517,7 +7570,7 @@
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="2:10" ht="14.25">
+    <row r="447" spans="2:10" ht="13.8">
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
@@ -7528,7 +7581,7 @@
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
     </row>
-    <row r="448" spans="2:10" ht="14.25">
+    <row r="448" spans="2:10" ht="13.8">
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
@@ -7539,7 +7592,7 @@
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
     </row>
-    <row r="449" spans="2:10" ht="14.25">
+    <row r="449" spans="2:10" ht="13.8">
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
@@ -7550,7 +7603,7 @@
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
     </row>
-    <row r="450" spans="2:10" ht="14.25">
+    <row r="450" spans="2:10" ht="13.8">
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
@@ -7561,7 +7614,7 @@
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
     </row>
-    <row r="451" spans="2:10" ht="14.25">
+    <row r="451" spans="2:10" ht="13.8">
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
@@ -7572,7 +7625,7 @@
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
     </row>
-    <row r="452" spans="2:10" ht="14.25">
+    <row r="452" spans="2:10" ht="13.8">
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
@@ -7583,7 +7636,7 @@
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
     </row>
-    <row r="453" spans="2:10" ht="14.25">
+    <row r="453" spans="2:10" ht="13.8">
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
@@ -7594,7 +7647,7 @@
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
     </row>
-    <row r="454" spans="2:10" ht="14.25">
+    <row r="454" spans="2:10" ht="13.8">
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
@@ -7605,7 +7658,7 @@
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="2:10" ht="14.25">
+    <row r="455" spans="2:10" ht="13.8">
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
@@ -7616,7 +7669,7 @@
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
     </row>
-    <row r="456" spans="2:10" ht="14.25">
+    <row r="456" spans="2:10" ht="13.8">
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
@@ -7627,7 +7680,7 @@
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
     </row>
-    <row r="457" spans="2:10" ht="14.25">
+    <row r="457" spans="2:10" ht="13.8">
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
@@ -7638,7 +7691,7 @@
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
     </row>
-    <row r="458" spans="2:10" ht="14.25">
+    <row r="458" spans="2:10" ht="13.8">
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
@@ -7649,7 +7702,7 @@
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
     </row>
-    <row r="459" spans="2:10" ht="14.25">
+    <row r="459" spans="2:10" ht="13.8">
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
@@ -7660,7 +7713,7 @@
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
     </row>
-    <row r="460" spans="2:10" ht="14.25">
+    <row r="460" spans="2:10" ht="13.8">
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
@@ -7671,7 +7724,7 @@
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
     </row>
-    <row r="461" spans="2:10" ht="14.25">
+    <row r="461" spans="2:10" ht="13.8">
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
@@ -7682,7 +7735,7 @@
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
     </row>
-    <row r="462" spans="2:10" ht="14.25">
+    <row r="462" spans="2:10" ht="13.8">
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
@@ -7693,7 +7746,7 @@
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
     </row>
-    <row r="463" spans="2:10" ht="14.25">
+    <row r="463" spans="2:10" ht="13.8">
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
@@ -7704,7 +7757,7 @@
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
     </row>
-    <row r="464" spans="2:10" ht="14.25">
+    <row r="464" spans="2:10" ht="13.8">
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
@@ -7715,7 +7768,7 @@
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
     </row>
-    <row r="465" spans="2:10" ht="14.25">
+    <row r="465" spans="2:10" ht="13.8">
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
@@ -7726,7 +7779,7 @@
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
     </row>
-    <row r="466" spans="2:10" ht="14.25">
+    <row r="466" spans="2:10" ht="13.8">
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
@@ -7737,7 +7790,7 @@
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
     </row>
-    <row r="467" spans="2:10" ht="14.25">
+    <row r="467" spans="2:10" ht="13.8">
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
@@ -7748,7 +7801,7 @@
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
     </row>
-    <row r="468" spans="2:10" ht="14.25">
+    <row r="468" spans="2:10" ht="13.8">
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
@@ -7759,7 +7812,7 @@
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
     </row>
-    <row r="469" spans="2:10" ht="14.25">
+    <row r="469" spans="2:10" ht="13.8">
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
@@ -7770,7 +7823,7 @@
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
     </row>
-    <row r="470" spans="2:10" ht="14.25">
+    <row r="470" spans="2:10" ht="13.8">
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
@@ -7781,7 +7834,7 @@
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
     </row>
-    <row r="471" spans="2:10" ht="14.25">
+    <row r="471" spans="2:10" ht="13.8">
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
@@ -7792,7 +7845,7 @@
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
     </row>
-    <row r="472" spans="2:10" ht="14.25">
+    <row r="472" spans="2:10" ht="13.8">
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
@@ -7803,7 +7856,7 @@
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
     </row>
-    <row r="473" spans="2:10" ht="14.25">
+    <row r="473" spans="2:10" ht="13.8">
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
@@ -7814,7 +7867,7 @@
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
     </row>
-    <row r="474" spans="2:10" ht="14.25">
+    <row r="474" spans="2:10" ht="13.8">
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
@@ -7825,7 +7878,7 @@
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
     </row>
-    <row r="475" spans="2:10" ht="14.25">
+    <row r="475" spans="2:10" ht="13.8">
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
@@ -7836,7 +7889,7 @@
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
     </row>
-    <row r="476" spans="2:10" ht="14.25">
+    <row r="476" spans="2:10" ht="13.8">
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
@@ -7847,7 +7900,7 @@
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
     </row>
-    <row r="477" spans="2:10" ht="14.25">
+    <row r="477" spans="2:10" ht="13.8">
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
@@ -7858,7 +7911,7 @@
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
     </row>
-    <row r="478" spans="2:10" ht="14.25">
+    <row r="478" spans="2:10" ht="13.8">
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
@@ -7869,7 +7922,7 @@
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
     </row>
-    <row r="479" spans="2:10" ht="14.25">
+    <row r="479" spans="2:10" ht="13.8">
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
@@ -7880,7 +7933,7 @@
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
     </row>
-    <row r="480" spans="2:10" ht="14.25">
+    <row r="480" spans="2:10" ht="13.8">
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
@@ -7891,7 +7944,7 @@
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
     </row>
-    <row r="481" spans="2:10" ht="14.25">
+    <row r="481" spans="2:10" ht="13.8">
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
@@ -7902,7 +7955,7 @@
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
     </row>
-    <row r="482" spans="2:10" ht="14.25">
+    <row r="482" spans="2:10" ht="13.8">
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
@@ -7913,7 +7966,7 @@
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
     </row>
-    <row r="483" spans="2:10" ht="14.25">
+    <row r="483" spans="2:10" ht="13.8">
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
@@ -7924,7 +7977,7 @@
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
     </row>
-    <row r="484" spans="2:10" ht="14.25">
+    <row r="484" spans="2:10" ht="13.8">
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
@@ -7935,7 +7988,7 @@
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
     </row>
-    <row r="485" spans="2:10" ht="14.25">
+    <row r="485" spans="2:10" ht="13.8">
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
@@ -7946,7 +7999,7 @@
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
     </row>
-    <row r="486" spans="2:10" ht="14.25">
+    <row r="486" spans="2:10" ht="13.8">
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
@@ -7957,7 +8010,7 @@
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
     </row>
-    <row r="487" spans="2:10" ht="14.25">
+    <row r="487" spans="2:10" ht="13.8">
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
@@ -7968,7 +8021,7 @@
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
     </row>
-    <row r="488" spans="2:10" ht="14.25">
+    <row r="488" spans="2:10" ht="13.8">
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
@@ -7979,7 +8032,7 @@
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
     </row>
-    <row r="489" spans="2:10" ht="14.25">
+    <row r="489" spans="2:10" ht="13.8">
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
@@ -7990,7 +8043,7 @@
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
     </row>
-    <row r="490" spans="2:10" ht="14.25">
+    <row r="490" spans="2:10" ht="13.8">
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
@@ -8001,7 +8054,7 @@
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
     </row>
-    <row r="491" spans="2:10" ht="14.25">
+    <row r="491" spans="2:10" ht="13.8">
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
@@ -8012,7 +8065,7 @@
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
     </row>
-    <row r="492" spans="2:10" ht="14.25">
+    <row r="492" spans="2:10" ht="13.8">
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
@@ -8023,7 +8076,7 @@
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
     </row>
-    <row r="493" spans="2:10" ht="14.25">
+    <row r="493" spans="2:10" ht="13.8">
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
@@ -8034,7 +8087,7 @@
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
     </row>
-    <row r="494" spans="2:10" ht="14.25">
+    <row r="494" spans="2:10" ht="13.8">
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
@@ -8045,7 +8098,7 @@
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="2:10" ht="14.25">
+    <row r="495" spans="2:10" ht="13.8">
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
@@ -8056,7 +8109,7 @@
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="2:10" ht="14.25">
+    <row r="496" spans="2:10" ht="13.8">
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
@@ -8067,7 +8120,7 @@
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
     </row>
-    <row r="497" spans="2:10" ht="14.25">
+    <row r="497" spans="2:10" ht="13.8">
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
@@ -8078,7 +8131,7 @@
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
     </row>
-    <row r="498" spans="2:10" ht="14.25">
+    <row r="498" spans="2:10" ht="13.8">
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
@@ -8089,7 +8142,7 @@
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
     </row>
-    <row r="499" spans="2:10" ht="14.25">
+    <row r="499" spans="2:10" ht="13.8">
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
@@ -8100,7 +8153,7 @@
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
     </row>
-    <row r="500" spans="2:10" ht="14.25">
+    <row r="500" spans="2:10" ht="13.8">
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
@@ -8111,7 +8164,7 @@
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
     </row>
-    <row r="501" spans="2:10" ht="14.25">
+    <row r="501" spans="2:10" ht="13.8">
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
@@ -8122,7 +8175,7 @@
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
     </row>
-    <row r="502" spans="2:10" ht="14.25">
+    <row r="502" spans="2:10" ht="13.8">
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
@@ -8133,7 +8186,7 @@
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="2:10" ht="14.25">
+    <row r="503" spans="2:10" ht="13.8">
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
@@ -8144,7 +8197,7 @@
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="2:10" ht="14.25">
+    <row r="504" spans="2:10" ht="13.8">
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
@@ -8155,7 +8208,7 @@
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="2:10" ht="14.25">
+    <row r="505" spans="2:10" ht="13.8">
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
@@ -8166,7 +8219,7 @@
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="2:10" ht="14.25">
+    <row r="506" spans="2:10" ht="13.8">
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
       <c r="D506" s="8"/>
@@ -8177,7 +8230,7 @@
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="2:10" ht="14.25">
+    <row r="507" spans="2:10" ht="13.8">
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
       <c r="D507" s="8"/>
@@ -8188,7 +8241,7 @@
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
     </row>
-    <row r="508" spans="2:10" ht="14.25">
+    <row r="508" spans="2:10" ht="13.8">
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
       <c r="D508" s="8"/>
@@ -8199,7 +8252,7 @@
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="2:10" ht="14.25">
+    <row r="509" spans="2:10" ht="13.8">
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
       <c r="D509" s="8"/>
@@ -8210,7 +8263,7 @@
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
     </row>
-    <row r="510" spans="2:10" ht="14.25">
+    <row r="510" spans="2:10" ht="13.8">
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
@@ -8221,7 +8274,7 @@
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
     </row>
-    <row r="511" spans="2:10" ht="14.25">
+    <row r="511" spans="2:10" ht="13.8">
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
       <c r="D511" s="8"/>
@@ -8232,7 +8285,7 @@
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
     </row>
-    <row r="512" spans="2:10" ht="14.25">
+    <row r="512" spans="2:10" ht="13.8">
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
       <c r="D512" s="8"/>
@@ -8243,7 +8296,7 @@
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
     </row>
-    <row r="513" spans="2:10" ht="14.25">
+    <row r="513" spans="2:10" ht="13.8">
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
       <c r="D513" s="8"/>
@@ -8254,7 +8307,7 @@
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
     </row>
-    <row r="514" spans="2:10" ht="14.25">
+    <row r="514" spans="2:10" ht="13.8">
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
       <c r="D514" s="8"/>
@@ -8265,7 +8318,7 @@
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
     </row>
-    <row r="515" spans="2:10" ht="14.25">
+    <row r="515" spans="2:10" ht="13.8">
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
       <c r="D515" s="8"/>
@@ -8276,7 +8329,7 @@
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
     </row>
-    <row r="516" spans="2:10" ht="14.25">
+    <row r="516" spans="2:10" ht="13.8">
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
       <c r="D516" s="8"/>
@@ -8287,7 +8340,7 @@
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
     </row>
-    <row r="517" spans="2:10" ht="14.25">
+    <row r="517" spans="2:10" ht="13.8">
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
       <c r="D517" s="8"/>
@@ -8298,7 +8351,7 @@
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
     </row>
-    <row r="518" spans="2:10" ht="14.25">
+    <row r="518" spans="2:10" ht="13.8">
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
       <c r="D518" s="8"/>
@@ -8309,7 +8362,7 @@
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
     </row>
-    <row r="519" spans="2:10" ht="14.25">
+    <row r="519" spans="2:10" ht="13.8">
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
@@ -8320,7 +8373,7 @@
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
     </row>
-    <row r="520" spans="2:10" ht="14.25">
+    <row r="520" spans="2:10" ht="13.8">
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
       <c r="D520" s="8"/>
@@ -8331,7 +8384,7 @@
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
     </row>
-    <row r="521" spans="2:10" ht="14.25">
+    <row r="521" spans="2:10" ht="13.8">
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
       <c r="D521" s="8"/>
@@ -8342,7 +8395,7 @@
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
     </row>
-    <row r="522" spans="2:10" ht="14.25">
+    <row r="522" spans="2:10" ht="13.8">
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
       <c r="D522" s="8"/>
@@ -8353,7 +8406,7 @@
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
     </row>
-    <row r="523" spans="2:10" ht="14.25">
+    <row r="523" spans="2:10" ht="13.8">
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
       <c r="D523" s="8"/>
@@ -8364,7 +8417,7 @@
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
     </row>
-    <row r="524" spans="2:10" ht="14.25">
+    <row r="524" spans="2:10" ht="13.8">
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
       <c r="D524" s="8"/>
@@ -8375,7 +8428,7 @@
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
     </row>
-    <row r="525" spans="2:10" ht="14.25">
+    <row r="525" spans="2:10" ht="13.8">
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
       <c r="D525" s="8"/>
@@ -8386,7 +8439,7 @@
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
     </row>
-    <row r="526" spans="2:10" ht="14.25">
+    <row r="526" spans="2:10" ht="13.8">
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
       <c r="D526" s="8"/>
@@ -8397,7 +8450,7 @@
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
     </row>
-    <row r="527" spans="2:10" ht="14.25">
+    <row r="527" spans="2:10" ht="13.8">
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
       <c r="D527" s="8"/>
@@ -8408,7 +8461,7 @@
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="2:10" ht="14.25">
+    <row r="528" spans="2:10" ht="13.8">
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
       <c r="D528" s="8"/>
@@ -8419,7 +8472,7 @@
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
     </row>
-    <row r="529" spans="2:10" ht="14.25">
+    <row r="529" spans="2:10" ht="13.8">
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
       <c r="D529" s="8"/>
@@ -8430,7 +8483,7 @@
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
     </row>
-    <row r="530" spans="2:10" ht="14.25">
+    <row r="530" spans="2:10" ht="13.8">
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
@@ -8441,7 +8494,7 @@
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
     </row>
-    <row r="531" spans="2:10" ht="14.25">
+    <row r="531" spans="2:10" ht="13.8">
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
@@ -8452,7 +8505,7 @@
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
     </row>
-    <row r="532" spans="2:10" ht="14.25">
+    <row r="532" spans="2:10" ht="13.8">
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
@@ -8463,7 +8516,7 @@
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
     </row>
-    <row r="533" spans="2:10" ht="14.25">
+    <row r="533" spans="2:10" ht="13.8">
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
       <c r="D533" s="8"/>
@@ -8474,7 +8527,7 @@
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
     </row>
-    <row r="534" spans="2:10" ht="14.25">
+    <row r="534" spans="2:10" ht="13.8">
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
       <c r="D534" s="8"/>
@@ -8485,7 +8538,7 @@
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
     </row>
-    <row r="535" spans="2:10" ht="14.25">
+    <row r="535" spans="2:10" ht="13.8">
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
       <c r="D535" s="8"/>
@@ -8496,7 +8549,7 @@
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
     </row>
-    <row r="536" spans="2:10" ht="14.25">
+    <row r="536" spans="2:10" ht="13.8">
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
       <c r="D536" s="8"/>
@@ -8507,7 +8560,7 @@
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
     </row>
-    <row r="537" spans="2:10" ht="14.25">
+    <row r="537" spans="2:10" ht="13.8">
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
       <c r="D537" s="8"/>
@@ -8518,7 +8571,7 @@
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
     </row>
-    <row r="538" spans="2:10" ht="14.25">
+    <row r="538" spans="2:10" ht="13.8">
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
       <c r="D538" s="8"/>
@@ -8529,7 +8582,7 @@
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
     </row>
-    <row r="539" spans="2:10" ht="14.25">
+    <row r="539" spans="2:10" ht="13.8">
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
@@ -8540,7 +8593,7 @@
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
     </row>
-    <row r="540" spans="2:10" ht="14.25">
+    <row r="540" spans="2:10" ht="13.8">
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
       <c r="D540" s="8"/>
@@ -8551,7 +8604,7 @@
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
     </row>
-    <row r="541" spans="2:10" ht="14.25">
+    <row r="541" spans="2:10" ht="13.8">
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
       <c r="D541" s="8"/>
@@ -8562,7 +8615,7 @@
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
     </row>
-    <row r="542" spans="2:10" ht="14.25">
+    <row r="542" spans="2:10" ht="13.8">
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
       <c r="D542" s="8"/>
@@ -8573,7 +8626,7 @@
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
     </row>
-    <row r="543" spans="2:10" ht="14.25">
+    <row r="543" spans="2:10" ht="13.8">
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
       <c r="D543" s="8"/>
@@ -8584,7 +8637,7 @@
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
     </row>
-    <row r="544" spans="2:10" ht="14.25">
+    <row r="544" spans="2:10" ht="13.8">
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
       <c r="D544" s="8"/>
@@ -8595,7 +8648,7 @@
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
     </row>
-    <row r="545" spans="2:10" ht="14.25">
+    <row r="545" spans="2:10" ht="13.8">
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
       <c r="D545" s="8"/>
@@ -8606,7 +8659,7 @@
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
     </row>
-    <row r="546" spans="2:10" ht="14.25">
+    <row r="546" spans="2:10" ht="13.8">
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
       <c r="D546" s="8"/>
@@ -8617,7 +8670,7 @@
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
     </row>
-    <row r="547" spans="2:10" ht="14.25">
+    <row r="547" spans="2:10" ht="13.8">
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
@@ -8628,7 +8681,7 @@
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
     </row>
-    <row r="548" spans="2:10" ht="14.25">
+    <row r="548" spans="2:10" ht="13.8">
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
@@ -8639,7 +8692,7 @@
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
     </row>
-    <row r="549" spans="2:10" ht="14.25">
+    <row r="549" spans="2:10" ht="13.8">
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
@@ -8650,7 +8703,7 @@
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
     </row>
-    <row r="550" spans="2:10" ht="14.25">
+    <row r="550" spans="2:10" ht="13.8">
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
@@ -8661,7 +8714,7 @@
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
     </row>
-    <row r="551" spans="2:10" ht="14.25">
+    <row r="551" spans="2:10" ht="13.8">
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
@@ -8672,7 +8725,7 @@
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
     </row>
-    <row r="552" spans="2:10" ht="14.25">
+    <row r="552" spans="2:10" ht="13.8">
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
@@ -8683,7 +8736,7 @@
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
     </row>
-    <row r="553" spans="2:10" ht="14.25">
+    <row r="553" spans="2:10" ht="13.8">
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
@@ -8694,7 +8747,7 @@
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
     </row>
-    <row r="554" spans="2:10" ht="14.25">
+    <row r="554" spans="2:10" ht="13.8">
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
@@ -8705,7 +8758,7 @@
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
     </row>
-    <row r="555" spans="2:10" ht="14.25">
+    <row r="555" spans="2:10" ht="13.8">
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
@@ -8716,7 +8769,7 @@
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
     </row>
-    <row r="556" spans="2:10" ht="14.25">
+    <row r="556" spans="2:10" ht="13.8">
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
@@ -8727,7 +8780,7 @@
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
     </row>
-    <row r="557" spans="2:10" ht="14.25">
+    <row r="557" spans="2:10" ht="13.8">
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
@@ -8738,7 +8791,7 @@
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
     </row>
-    <row r="558" spans="2:10" ht="14.25">
+    <row r="558" spans="2:10" ht="13.8">
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
@@ -8749,7 +8802,7 @@
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
     </row>
-    <row r="559" spans="2:10" ht="14.25">
+    <row r="559" spans="2:10" ht="13.8">
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
@@ -8760,7 +8813,7 @@
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
     </row>
-    <row r="560" spans="2:10" ht="14.25">
+    <row r="560" spans="2:10" ht="13.8">
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
@@ -8771,7 +8824,7 @@
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
     </row>
-    <row r="561" spans="2:10" ht="14.25">
+    <row r="561" spans="2:10" ht="13.8">
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
@@ -8782,7 +8835,7 @@
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
     </row>
-    <row r="562" spans="2:10" ht="14.25">
+    <row r="562" spans="2:10" ht="13.8">
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -8793,7 +8846,7 @@
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
     </row>
-    <row r="563" spans="2:10" ht="14.25">
+    <row r="563" spans="2:10" ht="13.8">
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
@@ -8804,7 +8857,7 @@
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
     </row>
-    <row r="564" spans="2:10" ht="14.25">
+    <row r="564" spans="2:10" ht="13.8">
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
@@ -8815,7 +8868,7 @@
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
     </row>
-    <row r="565" spans="2:10" ht="14.25">
+    <row r="565" spans="2:10" ht="13.8">
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
@@ -8826,7 +8879,7 @@
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
     </row>
-    <row r="566" spans="2:10" ht="14.25">
+    <row r="566" spans="2:10" ht="13.8">
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
@@ -8837,7 +8890,7 @@
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
     </row>
-    <row r="567" spans="2:10" ht="14.25">
+    <row r="567" spans="2:10" ht="13.8">
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
@@ -8848,7 +8901,7 @@
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568" spans="2:10" ht="14.25">
+    <row r="568" spans="2:10" ht="13.8">
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -8859,7 +8912,7 @@
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
     </row>
-    <row r="569" spans="2:10" ht="14.25">
+    <row r="569" spans="2:10" ht="13.8">
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
@@ -8870,7 +8923,7 @@
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
     </row>
-    <row r="570" spans="2:10" ht="14.25">
+    <row r="570" spans="2:10" ht="13.8">
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
@@ -8881,7 +8934,7 @@
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
     </row>
-    <row r="571" spans="2:10" ht="14.25">
+    <row r="571" spans="2:10" ht="13.8">
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
@@ -8892,7 +8945,7 @@
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
     </row>
-    <row r="572" spans="2:10" ht="14.25">
+    <row r="572" spans="2:10" ht="13.8">
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -8903,7 +8956,7 @@
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
     </row>
-    <row r="573" spans="2:10" ht="14.25">
+    <row r="573" spans="2:10" ht="13.8">
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
@@ -8914,7 +8967,7 @@
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
     </row>
-    <row r="574" spans="2:10" ht="14.25">
+    <row r="574" spans="2:10" ht="13.8">
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
@@ -8925,7 +8978,7 @@
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
     </row>
-    <row r="575" spans="2:10" ht="14.25">
+    <row r="575" spans="2:10" ht="13.8">
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
@@ -8936,7 +8989,7 @@
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
     </row>
-    <row r="576" spans="2:10" ht="14.25">
+    <row r="576" spans="2:10" ht="13.8">
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
@@ -8947,7 +9000,7 @@
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
     </row>
-    <row r="577" spans="2:10" ht="14.25">
+    <row r="577" spans="2:10" ht="13.8">
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
@@ -8958,7 +9011,7 @@
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
     </row>
-    <row r="578" spans="2:10" ht="14.25">
+    <row r="578" spans="2:10" ht="13.8">
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
@@ -8969,7 +9022,7 @@
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
     </row>
-    <row r="579" spans="2:10" ht="14.25">
+    <row r="579" spans="2:10" ht="13.8">
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
@@ -8980,7 +9033,7 @@
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
     </row>
-    <row r="580" spans="2:10" ht="14.25">
+    <row r="580" spans="2:10" ht="13.8">
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
@@ -8991,7 +9044,7 @@
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
     </row>
-    <row r="581" spans="2:10" ht="14.25">
+    <row r="581" spans="2:10" ht="13.8">
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
@@ -9002,7 +9055,7 @@
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
     </row>
-    <row r="582" spans="2:10" ht="14.25">
+    <row r="582" spans="2:10" ht="13.8">
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
@@ -9013,7 +9066,7 @@
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
     </row>
-    <row r="583" spans="2:10" ht="14.25">
+    <row r="583" spans="2:10" ht="13.8">
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
@@ -9024,7 +9077,7 @@
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
     </row>
-    <row r="584" spans="2:10" ht="14.25">
+    <row r="584" spans="2:10" ht="13.8">
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
@@ -9035,7 +9088,7 @@
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
     </row>
-    <row r="585" spans="2:10" ht="14.25">
+    <row r="585" spans="2:10" ht="13.8">
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
@@ -9046,7 +9099,7 @@
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
     </row>
-    <row r="586" spans="2:10" ht="14.25">
+    <row r="586" spans="2:10" ht="13.8">
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
@@ -9057,7 +9110,7 @@
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587" spans="2:10" ht="14.25">
+    <row r="587" spans="2:10" ht="13.8">
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
@@ -9068,7 +9121,7 @@
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
     </row>
-    <row r="588" spans="2:10" ht="14.25">
+    <row r="588" spans="2:10" ht="13.8">
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
@@ -9079,7 +9132,7 @@
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
     </row>
-    <row r="589" spans="2:10" ht="14.25">
+    <row r="589" spans="2:10" ht="13.8">
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
@@ -9090,7 +9143,7 @@
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
     </row>
-    <row r="590" spans="2:10" ht="14.25">
+    <row r="590" spans="2:10" ht="13.8">
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
@@ -9101,7 +9154,7 @@
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
     </row>
-    <row r="591" spans="2:10" ht="14.25">
+    <row r="591" spans="2:10" ht="13.8">
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
@@ -9112,7 +9165,7 @@
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
     </row>
-    <row r="592" spans="2:10" ht="14.25">
+    <row r="592" spans="2:10" ht="13.8">
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
@@ -9123,7 +9176,7 @@
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
     </row>
-    <row r="593" spans="2:10" ht="14.25">
+    <row r="593" spans="2:10" ht="13.8">
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
@@ -9134,7 +9187,7 @@
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
     </row>
-    <row r="594" spans="2:10" ht="14.25">
+    <row r="594" spans="2:10" ht="13.8">
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
@@ -9145,7 +9198,7 @@
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
     </row>
-    <row r="595" spans="2:10" ht="14.25">
+    <row r="595" spans="2:10" ht="13.8">
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
@@ -9156,7 +9209,7 @@
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
     </row>
-    <row r="596" spans="2:10" ht="14.25">
+    <row r="596" spans="2:10" ht="13.8">
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
@@ -9167,7 +9220,7 @@
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
     </row>
-    <row r="597" spans="2:10" ht="14.25">
+    <row r="597" spans="2:10" ht="13.8">
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
@@ -9178,7 +9231,7 @@
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
     </row>
-    <row r="598" spans="2:10" ht="14.25">
+    <row r="598" spans="2:10" ht="13.8">
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
@@ -9189,7 +9242,7 @@
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
     </row>
-    <row r="599" spans="2:10" ht="14.25">
+    <row r="599" spans="2:10" ht="13.8">
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
@@ -9200,7 +9253,7 @@
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
     </row>
-    <row r="600" spans="2:10" ht="14.25">
+    <row r="600" spans="2:10" ht="13.8">
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
@@ -9211,7 +9264,7 @@
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
     </row>
-    <row r="601" spans="2:10" ht="14.25">
+    <row r="601" spans="2:10" ht="13.8">
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
@@ -9222,7 +9275,7 @@
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
     </row>
-    <row r="602" spans="2:10" ht="14.25">
+    <row r="602" spans="2:10" ht="13.8">
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
@@ -9233,7 +9286,7 @@
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
     </row>
-    <row r="603" spans="2:10" ht="14.25">
+    <row r="603" spans="2:10" ht="13.8">
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
@@ -9244,7 +9297,7 @@
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
     </row>
-    <row r="604" spans="2:10" ht="14.25">
+    <row r="604" spans="2:10" ht="13.8">
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
@@ -9255,7 +9308,7 @@
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
     </row>
-    <row r="605" spans="2:10" ht="14.25">
+    <row r="605" spans="2:10" ht="13.8">
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
@@ -9266,7 +9319,7 @@
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
     </row>
-    <row r="606" spans="2:10" ht="14.25">
+    <row r="606" spans="2:10" ht="13.8">
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
@@ -9277,7 +9330,7 @@
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
     </row>
-    <row r="607" spans="2:10" ht="14.25">
+    <row r="607" spans="2:10" ht="13.8">
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
@@ -9288,7 +9341,7 @@
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
     </row>
-    <row r="608" spans="2:10" ht="14.25">
+    <row r="608" spans="2:10" ht="13.8">
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -9299,7 +9352,7 @@
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
     </row>
-    <row r="609" spans="2:10" ht="14.25">
+    <row r="609" spans="2:10" ht="13.8">
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
@@ -9310,7 +9363,7 @@
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
     </row>
-    <row r="610" spans="2:10" ht="14.25">
+    <row r="610" spans="2:10" ht="13.8">
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
@@ -9321,7 +9374,7 @@
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
     </row>
-    <row r="611" spans="2:10" ht="14.25">
+    <row r="611" spans="2:10" ht="13.8">
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
@@ -9332,7 +9385,7 @@
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
     </row>
-    <row r="612" spans="2:10" ht="14.25">
+    <row r="612" spans="2:10" ht="13.8">
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
@@ -9343,7 +9396,7 @@
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
     </row>
-    <row r="613" spans="2:10" ht="14.25">
+    <row r="613" spans="2:10" ht="13.8">
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
@@ -9354,7 +9407,7 @@
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
     </row>
-    <row r="614" spans="2:10" ht="14.25">
+    <row r="614" spans="2:10" ht="13.8">
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
@@ -9365,7 +9418,7 @@
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
     </row>
-    <row r="615" spans="2:10" ht="14.25">
+    <row r="615" spans="2:10" ht="13.8">
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
@@ -9376,7 +9429,7 @@
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
     </row>
-    <row r="616" spans="2:10" ht="14.25">
+    <row r="616" spans="2:10" ht="13.8">
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
@@ -9387,7 +9440,7 @@
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
     </row>
-    <row r="617" spans="2:10" ht="14.25">
+    <row r="617" spans="2:10" ht="13.8">
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
@@ -9398,7 +9451,7 @@
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
     </row>
-    <row r="618" spans="2:10" ht="14.25">
+    <row r="618" spans="2:10" ht="13.8">
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
@@ -9409,7 +9462,7 @@
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
     </row>
-    <row r="619" spans="2:10" ht="14.25">
+    <row r="619" spans="2:10" ht="13.8">
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
@@ -9420,7 +9473,7 @@
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
     </row>
-    <row r="620" spans="2:10" ht="14.25">
+    <row r="620" spans="2:10" ht="13.8">
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
@@ -9431,7 +9484,7 @@
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
     </row>
-    <row r="621" spans="2:10" ht="14.25">
+    <row r="621" spans="2:10" ht="13.8">
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
@@ -9442,7 +9495,7 @@
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
     </row>
-    <row r="622" spans="2:10" ht="14.25">
+    <row r="622" spans="2:10" ht="13.8">
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
@@ -9453,7 +9506,7 @@
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
     </row>
-    <row r="623" spans="2:10" ht="14.25">
+    <row r="623" spans="2:10" ht="13.8">
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
@@ -9464,7 +9517,7 @@
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
     </row>
-    <row r="624" spans="2:10" ht="14.25">
+    <row r="624" spans="2:10" ht="13.8">
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
@@ -9475,7 +9528,7 @@
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
     </row>
-    <row r="625" spans="2:10" ht="14.25">
+    <row r="625" spans="2:10" ht="13.8">
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
@@ -9486,7 +9539,7 @@
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
     </row>
-    <row r="626" spans="2:10" ht="14.25">
+    <row r="626" spans="2:10" ht="13.8">
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
@@ -9497,7 +9550,7 @@
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
     </row>
-    <row r="627" spans="2:10" ht="14.25">
+    <row r="627" spans="2:10" ht="13.8">
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
@@ -9508,7 +9561,7 @@
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
     </row>
-    <row r="628" spans="2:10" ht="14.25">
+    <row r="628" spans="2:10" ht="13.8">
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
@@ -9519,7 +9572,7 @@
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
     </row>
-    <row r="629" spans="2:10" ht="14.25">
+    <row r="629" spans="2:10" ht="13.8">
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
@@ -9530,7 +9583,7 @@
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
     </row>
-    <row r="630" spans="2:10" ht="14.25">
+    <row r="630" spans="2:10" ht="13.8">
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
@@ -9541,7 +9594,7 @@
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
     </row>
-    <row r="631" spans="2:10" ht="14.25">
+    <row r="631" spans="2:10" ht="13.8">
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -9552,7 +9605,7 @@
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
     </row>
-    <row r="632" spans="2:10" ht="14.25">
+    <row r="632" spans="2:10" ht="13.8">
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
@@ -9563,7 +9616,7 @@
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
     </row>
-    <row r="633" spans="2:10" ht="14.25">
+    <row r="633" spans="2:10" ht="13.8">
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
@@ -9574,7 +9627,7 @@
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
     </row>
-    <row r="634" spans="2:10" ht="14.25">
+    <row r="634" spans="2:10" ht="13.8">
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
@@ -9585,7 +9638,7 @@
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
     </row>
-    <row r="635" spans="2:10" ht="14.25">
+    <row r="635" spans="2:10" ht="13.8">
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
@@ -9596,7 +9649,7 @@
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
     </row>
-    <row r="636" spans="2:10" ht="14.25">
+    <row r="636" spans="2:10" ht="13.8">
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
@@ -9607,7 +9660,7 @@
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
     </row>
-    <row r="637" spans="2:10" ht="14.25">
+    <row r="637" spans="2:10" ht="13.8">
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
@@ -9618,7 +9671,7 @@
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
     </row>
-    <row r="638" spans="2:10" ht="14.25">
+    <row r="638" spans="2:10" ht="13.8">
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
@@ -9629,7 +9682,7 @@
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
     </row>
-    <row r="639" spans="2:10" ht="14.25">
+    <row r="639" spans="2:10" ht="13.8">
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
@@ -9640,7 +9693,7 @@
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
     </row>
-    <row r="640" spans="2:10" ht="14.25">
+    <row r="640" spans="2:10" ht="13.8">
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
@@ -9651,7 +9704,7 @@
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
     </row>
-    <row r="641" spans="2:10" ht="14.25">
+    <row r="641" spans="2:10" ht="13.8">
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
@@ -9662,7 +9715,7 @@
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
     </row>
-    <row r="642" spans="2:10" ht="14.25">
+    <row r="642" spans="2:10" ht="13.8">
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -9673,7 +9726,7 @@
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
     </row>
-    <row r="643" spans="2:10" ht="14.25">
+    <row r="643" spans="2:10" ht="13.8">
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
@@ -9684,7 +9737,7 @@
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
     </row>
-    <row r="644" spans="2:10" ht="14.25">
+    <row r="644" spans="2:10" ht="13.8">
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
@@ -9695,7 +9748,7 @@
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
     </row>
-    <row r="645" spans="2:10" ht="14.25">
+    <row r="645" spans="2:10" ht="13.8">
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
@@ -9706,7 +9759,7 @@
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
     </row>
-    <row r="646" spans="2:10" ht="14.25">
+    <row r="646" spans="2:10" ht="13.8">
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
@@ -9717,7 +9770,7 @@
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
     </row>
-    <row r="647" spans="2:10" ht="14.25">
+    <row r="647" spans="2:10" ht="13.8">
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
@@ -9728,7 +9781,7 @@
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
     </row>
-    <row r="648" spans="2:10" ht="14.25">
+    <row r="648" spans="2:10" ht="13.8">
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
@@ -9739,7 +9792,7 @@
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
     </row>
-    <row r="649" spans="2:10" ht="14.25">
+    <row r="649" spans="2:10" ht="13.8">
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
@@ -9750,7 +9803,7 @@
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
     </row>
-    <row r="650" spans="2:10" ht="14.25">
+    <row r="650" spans="2:10" ht="13.8">
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
@@ -9761,7 +9814,7 @@
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
     </row>
-    <row r="651" spans="2:10" ht="14.25">
+    <row r="651" spans="2:10" ht="13.8">
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
@@ -9772,7 +9825,7 @@
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
     </row>
-    <row r="652" spans="2:10" ht="14.25">
+    <row r="652" spans="2:10" ht="13.8">
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
@@ -9783,7 +9836,7 @@
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
     </row>
-    <row r="653" spans="2:10" ht="14.25">
+    <row r="653" spans="2:10" ht="13.8">
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
@@ -9794,7 +9847,7 @@
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
     </row>
-    <row r="654" spans="2:10" ht="14.25">
+    <row r="654" spans="2:10" ht="13.8">
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
@@ -9805,7 +9858,7 @@
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
     </row>
-    <row r="655" spans="2:10" ht="14.25">
+    <row r="655" spans="2:10" ht="13.8">
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
@@ -9816,7 +9869,7 @@
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
     </row>
-    <row r="656" spans="2:10" ht="14.25">
+    <row r="656" spans="2:10" ht="13.8">
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
@@ -9827,7 +9880,7 @@
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
     </row>
-    <row r="657" spans="2:10" ht="14.25">
+    <row r="657" spans="2:10" ht="13.8">
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
@@ -9838,7 +9891,7 @@
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
     </row>
-    <row r="658" spans="2:10" ht="14.25">
+    <row r="658" spans="2:10" ht="13.8">
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
@@ -9849,7 +9902,7 @@
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
     </row>
-    <row r="659" spans="2:10" ht="14.25">
+    <row r="659" spans="2:10" ht="13.8">
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
@@ -9860,7 +9913,7 @@
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
     </row>
-    <row r="660" spans="2:10" ht="14.25">
+    <row r="660" spans="2:10" ht="13.8">
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
@@ -9871,7 +9924,7 @@
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
     </row>
-    <row r="661" spans="2:10" ht="14.25">
+    <row r="661" spans="2:10" ht="13.8">
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
@@ -9882,7 +9935,7 @@
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
     </row>
-    <row r="662" spans="2:10" ht="14.25">
+    <row r="662" spans="2:10" ht="13.8">
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
@@ -9893,7 +9946,7 @@
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
     </row>
-    <row r="663" spans="2:10" ht="14.25">
+    <row r="663" spans="2:10" ht="13.8">
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
@@ -9904,7 +9957,7 @@
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
     </row>
-    <row r="664" spans="2:10" ht="14.25">
+    <row r="664" spans="2:10" ht="13.8">
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
@@ -9915,7 +9968,7 @@
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
     </row>
-    <row r="665" spans="2:10" ht="14.25">
+    <row r="665" spans="2:10" ht="13.8">
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
@@ -9926,7 +9979,7 @@
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
     </row>
-    <row r="666" spans="2:10" ht="14.25">
+    <row r="666" spans="2:10" ht="13.8">
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
@@ -9937,7 +9990,7 @@
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
     </row>
-    <row r="667" spans="2:10" ht="14.25">
+    <row r="667" spans="2:10" ht="13.8">
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
@@ -9948,7 +10001,7 @@
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
     </row>
-    <row r="668" spans="2:10" ht="14.25">
+    <row r="668" spans="2:10" ht="13.8">
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
@@ -9959,7 +10012,7 @@
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
     </row>
-    <row r="669" spans="2:10" ht="14.25">
+    <row r="669" spans="2:10" ht="13.8">
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
@@ -9970,7 +10023,7 @@
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
     </row>
-    <row r="670" spans="2:10" ht="14.25">
+    <row r="670" spans="2:10" ht="13.8">
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
@@ -9981,7 +10034,7 @@
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
     </row>
-    <row r="671" spans="2:10" ht="14.25">
+    <row r="671" spans="2:10" ht="13.8">
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
@@ -9992,7 +10045,7 @@
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
     </row>
-    <row r="672" spans="2:10" ht="14.25">
+    <row r="672" spans="2:10" ht="13.8">
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
@@ -10003,7 +10056,7 @@
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
     </row>
-    <row r="673" spans="2:10" ht="14.25">
+    <row r="673" spans="2:10" ht="13.8">
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
@@ -10014,7 +10067,7 @@
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
     </row>
-    <row r="674" spans="2:10" ht="14.25">
+    <row r="674" spans="2:10" ht="13.8">
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
@@ -10025,7 +10078,7 @@
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
     </row>
-    <row r="675" spans="2:10" ht="14.25">
+    <row r="675" spans="2:10" ht="13.8">
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
@@ -10036,7 +10089,7 @@
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
     </row>
-    <row r="676" spans="2:10" ht="14.25">
+    <row r="676" spans="2:10" ht="13.8">
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
@@ -10047,7 +10100,7 @@
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
     </row>
-    <row r="677" spans="2:10" ht="14.25">
+    <row r="677" spans="2:10" ht="13.8">
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
@@ -10058,7 +10111,7 @@
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
     </row>
-    <row r="678" spans="2:10" ht="14.25">
+    <row r="678" spans="2:10" ht="13.8">
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
@@ -10069,7 +10122,7 @@
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
     </row>
-    <row r="679" spans="2:10" ht="14.25">
+    <row r="679" spans="2:10" ht="13.8">
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
@@ -10080,7 +10133,7 @@
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
     </row>
-    <row r="680" spans="2:10" ht="14.25">
+    <row r="680" spans="2:10" ht="13.8">
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
@@ -10091,7 +10144,7 @@
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
     </row>
-    <row r="681" spans="2:10" ht="14.25">
+    <row r="681" spans="2:10" ht="13.8">
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
@@ -10102,7 +10155,7 @@
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
     </row>
-    <row r="682" spans="2:10" ht="14.25">
+    <row r="682" spans="2:10" ht="13.8">
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
@@ -10113,7 +10166,7 @@
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
     </row>
-    <row r="683" spans="2:10" ht="14.25">
+    <row r="683" spans="2:10" ht="13.8">
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
@@ -10124,7 +10177,7 @@
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
     </row>
-    <row r="684" spans="2:10" ht="14.25">
+    <row r="684" spans="2:10" ht="13.8">
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
@@ -10135,7 +10188,7 @@
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
     </row>
-    <row r="685" spans="2:10" ht="14.25">
+    <row r="685" spans="2:10" ht="13.8">
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
@@ -10146,7 +10199,7 @@
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
     </row>
-    <row r="686" spans="2:10" ht="14.25">
+    <row r="686" spans="2:10" ht="13.8">
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
@@ -10157,7 +10210,7 @@
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
     </row>
-    <row r="687" spans="2:10" ht="14.25">
+    <row r="687" spans="2:10" ht="13.8">
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
@@ -10168,7 +10221,7 @@
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
     </row>
-    <row r="688" spans="2:10" ht="14.25">
+    <row r="688" spans="2:10" ht="13.8">
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
@@ -10179,7 +10232,7 @@
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
     </row>
-    <row r="689" spans="2:10" ht="14.25">
+    <row r="689" spans="2:10" ht="13.8">
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
@@ -10190,7 +10243,7 @@
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
     </row>
-    <row r="690" spans="2:10" ht="14.25">
+    <row r="690" spans="2:10" ht="13.8">
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
@@ -10201,7 +10254,7 @@
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
     </row>
-    <row r="691" spans="2:10" ht="14.25">
+    <row r="691" spans="2:10" ht="13.8">
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
@@ -10212,7 +10265,7 @@
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
     </row>
-    <row r="692" spans="2:10" ht="14.25">
+    <row r="692" spans="2:10" ht="13.8">
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
@@ -10223,7 +10276,7 @@
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
     </row>
-    <row r="693" spans="2:10" ht="14.25">
+    <row r="693" spans="2:10" ht="13.8">
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
@@ -10234,7 +10287,7 @@
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
     </row>
-    <row r="694" spans="2:10" ht="14.25">
+    <row r="694" spans="2:10" ht="13.8">
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
@@ -10245,7 +10298,7 @@
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
     </row>
-    <row r="695" spans="2:10" ht="14.25">
+    <row r="695" spans="2:10" ht="13.8">
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
@@ -10256,7 +10309,7 @@
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
     </row>
-    <row r="696" spans="2:10" ht="14.25">
+    <row r="696" spans="2:10" ht="13.8">
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
@@ -10267,7 +10320,7 @@
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
     </row>
-    <row r="697" spans="2:10" ht="14.25">
+    <row r="697" spans="2:10" ht="13.8">
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
@@ -10278,7 +10331,7 @@
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
     </row>
-    <row r="698" spans="2:10" ht="14.25">
+    <row r="698" spans="2:10" ht="13.8">
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
@@ -10289,7 +10342,7 @@
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
     </row>
-    <row r="699" spans="2:10" ht="14.25">
+    <row r="699" spans="2:10" ht="13.8">
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
@@ -10300,7 +10353,7 @@
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
     </row>
-    <row r="700" spans="2:10" ht="14.25">
+    <row r="700" spans="2:10" ht="13.8">
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -10311,7 +10364,7 @@
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
     </row>
-    <row r="701" spans="2:10" ht="14.25">
+    <row r="701" spans="2:10" ht="13.8">
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
@@ -10322,7 +10375,7 @@
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
     </row>
-    <row r="702" spans="2:10" ht="14.25">
+    <row r="702" spans="2:10" ht="13.8">
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
@@ -10333,7 +10386,7 @@
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
     </row>
-    <row r="703" spans="2:10" ht="14.25">
+    <row r="703" spans="2:10" ht="13.8">
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
@@ -10344,7 +10397,7 @@
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
     </row>
-    <row r="704" spans="2:10" ht="14.25">
+    <row r="704" spans="2:10" ht="13.8">
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
@@ -10355,7 +10408,7 @@
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
     </row>
-    <row r="705" spans="2:10" ht="14.25">
+    <row r="705" spans="2:10" ht="13.8">
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
@@ -10366,7 +10419,7 @@
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
     </row>
-    <row r="706" spans="2:10" ht="14.25">
+    <row r="706" spans="2:10" ht="13.8">
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -10377,7 +10430,7 @@
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
     </row>
-    <row r="707" spans="2:10" ht="14.25">
+    <row r="707" spans="2:10" ht="13.8">
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -10388,7 +10441,7 @@
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
     </row>
-    <row r="708" spans="2:10" ht="14.25">
+    <row r="708" spans="2:10" ht="13.8">
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -10399,7 +10452,7 @@
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
     </row>
-    <row r="709" spans="2:10" ht="14.25">
+    <row r="709" spans="2:10" ht="13.8">
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
@@ -10410,7 +10463,7 @@
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
     </row>
-    <row r="710" spans="2:10" ht="14.25">
+    <row r="710" spans="2:10" ht="13.8">
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -10421,7 +10474,7 @@
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
     </row>
-    <row r="711" spans="2:10" ht="14.25">
+    <row r="711" spans="2:10" ht="13.8">
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -10432,7 +10485,7 @@
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
     </row>
-    <row r="712" spans="2:10" ht="14.25">
+    <row r="712" spans="2:10" ht="13.8">
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -10443,7 +10496,7 @@
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
     </row>
-    <row r="713" spans="2:10" ht="14.25">
+    <row r="713" spans="2:10" ht="13.8">
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
@@ -10454,7 +10507,7 @@
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
     </row>
-    <row r="714" spans="2:10" ht="14.25">
+    <row r="714" spans="2:10" ht="13.8">
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
@@ -10465,7 +10518,7 @@
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
     </row>
-    <row r="715" spans="2:10" ht="14.25">
+    <row r="715" spans="2:10" ht="13.8">
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
@@ -10476,7 +10529,7 @@
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
     </row>
-    <row r="716" spans="2:10" ht="14.25">
+    <row r="716" spans="2:10" ht="13.8">
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
@@ -10487,7 +10540,7 @@
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
     </row>
-    <row r="717" spans="2:10" ht="14.25">
+    <row r="717" spans="2:10" ht="13.8">
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
@@ -10498,7 +10551,7 @@
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
     </row>
-    <row r="718" spans="2:10" ht="14.25">
+    <row r="718" spans="2:10" ht="13.8">
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
@@ -10509,7 +10562,7 @@
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
     </row>
-    <row r="719" spans="2:10" ht="14.25">
+    <row r="719" spans="2:10" ht="13.8">
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
@@ -10520,7 +10573,7 @@
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
     </row>
-    <row r="720" spans="2:10" ht="14.25">
+    <row r="720" spans="2:10" ht="13.8">
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
@@ -10531,7 +10584,7 @@
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
     </row>
-    <row r="721" spans="2:10" ht="14.25">
+    <row r="721" spans="2:10" ht="13.8">
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
@@ -10542,7 +10595,7 @@
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
     </row>
-    <row r="722" spans="2:10" ht="14.25">
+    <row r="722" spans="2:10" ht="13.8">
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
@@ -10553,7 +10606,7 @@
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
     </row>
-    <row r="723" spans="2:10" ht="14.25">
+    <row r="723" spans="2:10" ht="13.8">
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
@@ -10564,7 +10617,7 @@
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
     </row>
-    <row r="724" spans="2:10" ht="14.25">
+    <row r="724" spans="2:10" ht="13.8">
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
@@ -10575,7 +10628,7 @@
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
     </row>
-    <row r="725" spans="2:10" ht="14.25">
+    <row r="725" spans="2:10" ht="13.8">
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
@@ -10586,7 +10639,7 @@
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
     </row>
-    <row r="726" spans="2:10" ht="14.25">
+    <row r="726" spans="2:10" ht="13.8">
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
@@ -10597,7 +10650,7 @@
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
     </row>
-    <row r="727" spans="2:10" ht="14.25">
+    <row r="727" spans="2:10" ht="13.8">
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
@@ -10608,7 +10661,7 @@
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
     </row>
-    <row r="728" spans="2:10" ht="14.25">
+    <row r="728" spans="2:10" ht="13.8">
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
@@ -10619,7 +10672,7 @@
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
     </row>
-    <row r="729" spans="2:10" ht="14.25">
+    <row r="729" spans="2:10" ht="13.8">
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
@@ -10630,7 +10683,7 @@
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
     </row>
-    <row r="730" spans="2:10" ht="14.25">
+    <row r="730" spans="2:10" ht="13.8">
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
@@ -10641,7 +10694,7 @@
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
     </row>
-    <row r="731" spans="2:10" ht="14.25">
+    <row r="731" spans="2:10" ht="13.8">
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
@@ -10652,7 +10705,7 @@
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
     </row>
-    <row r="732" spans="2:10" ht="14.25">
+    <row r="732" spans="2:10" ht="13.8">
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
@@ -10663,7 +10716,7 @@
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
     </row>
-    <row r="733" spans="2:10" ht="14.25">
+    <row r="733" spans="2:10" ht="13.8">
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
@@ -10674,7 +10727,7 @@
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
     </row>
-    <row r="734" spans="2:10" ht="14.25">
+    <row r="734" spans="2:10" ht="13.8">
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
@@ -10685,7 +10738,7 @@
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
     </row>
-    <row r="735" spans="2:10" ht="14.25">
+    <row r="735" spans="2:10" ht="13.8">
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
@@ -10696,7 +10749,7 @@
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
     </row>
-    <row r="736" spans="2:10" ht="14.25">
+    <row r="736" spans="2:10" ht="13.8">
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
@@ -10707,7 +10760,7 @@
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
     </row>
-    <row r="737" spans="2:10" ht="14.25">
+    <row r="737" spans="2:10" ht="13.8">
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
@@ -10718,7 +10771,7 @@
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
     </row>
-    <row r="738" spans="2:10" ht="14.25">
+    <row r="738" spans="2:10" ht="13.8">
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
@@ -10729,7 +10782,7 @@
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
     </row>
-    <row r="739" spans="2:10" ht="14.25">
+    <row r="739" spans="2:10" ht="13.8">
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
@@ -10740,7 +10793,7 @@
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
     </row>
-    <row r="740" spans="2:10" ht="14.25">
+    <row r="740" spans="2:10" ht="13.8">
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
@@ -10751,7 +10804,7 @@
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
     </row>
-    <row r="741" spans="2:10" ht="14.25">
+    <row r="741" spans="2:10" ht="13.8">
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
@@ -10762,7 +10815,7 @@
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742" spans="2:10" ht="14.25">
+    <row r="742" spans="2:10" ht="13.8">
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
@@ -10773,7 +10826,7 @@
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
     </row>
-    <row r="743" spans="2:10" ht="14.25">
+    <row r="743" spans="2:10" ht="13.8">
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
@@ -10784,7 +10837,7 @@
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
     </row>
-    <row r="744" spans="2:10" ht="14.25">
+    <row r="744" spans="2:10" ht="13.8">
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
@@ -10795,7 +10848,7 @@
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
     </row>
-    <row r="745" spans="2:10" ht="14.25">
+    <row r="745" spans="2:10" ht="13.8">
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
@@ -10806,7 +10859,7 @@
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
     </row>
-    <row r="746" spans="2:10" ht="14.25">
+    <row r="746" spans="2:10" ht="13.8">
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
@@ -10817,7 +10870,7 @@
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
     </row>
-    <row r="747" spans="2:10" ht="14.25">
+    <row r="747" spans="2:10" ht="13.8">
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
@@ -10828,7 +10881,7 @@
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
     </row>
-    <row r="748" spans="2:10" ht="14.25">
+    <row r="748" spans="2:10" ht="13.8">
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
@@ -10839,7 +10892,7 @@
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
     </row>
-    <row r="749" spans="2:10" ht="14.25">
+    <row r="749" spans="2:10" ht="13.8">
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
@@ -10850,7 +10903,7 @@
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
     </row>
-    <row r="750" spans="2:10" ht="14.25">
+    <row r="750" spans="2:10" ht="13.8">
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
@@ -10861,7 +10914,7 @@
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
     </row>
-    <row r="751" spans="2:10" ht="14.25">
+    <row r="751" spans="2:10" ht="13.8">
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
@@ -10872,7 +10925,7 @@
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
     </row>
-    <row r="752" spans="2:10" ht="14.25">
+    <row r="752" spans="2:10" ht="13.8">
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
@@ -10883,7 +10936,7 @@
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
     </row>
-    <row r="753" spans="2:10" ht="14.25">
+    <row r="753" spans="2:10" ht="13.8">
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
@@ -10894,7 +10947,7 @@
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
     </row>
-    <row r="754" spans="2:10" ht="14.25">
+    <row r="754" spans="2:10" ht="13.8">
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
@@ -10905,7 +10958,7 @@
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
     </row>
-    <row r="755" spans="2:10" ht="14.25">
+    <row r="755" spans="2:10" ht="13.8">
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
@@ -10916,7 +10969,7 @@
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
     </row>
-    <row r="756" spans="2:10" ht="14.25">
+    <row r="756" spans="2:10" ht="13.8">
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
       <c r="D756" s="8"/>
@@ -10927,7 +10980,7 @@
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
     </row>
-    <row r="757" spans="2:10" ht="14.25">
+    <row r="757" spans="2:10" ht="13.8">
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
       <c r="D757" s="8"/>
@@ -10938,7 +10991,7 @@
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
     </row>
-    <row r="758" spans="2:10" ht="14.25">
+    <row r="758" spans="2:10" ht="13.8">
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
       <c r="D758" s="8"/>
@@ -10949,7 +11002,7 @@
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
     </row>
-    <row r="759" spans="2:10" ht="14.25">
+    <row r="759" spans="2:10" ht="13.8">
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
@@ -10960,7 +11013,7 @@
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
     </row>
-    <row r="760" spans="2:10" ht="14.25">
+    <row r="760" spans="2:10" ht="13.8">
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
@@ -10971,7 +11024,7 @@
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
     </row>
-    <row r="761" spans="2:10" ht="14.25">
+    <row r="761" spans="2:10" ht="13.8">
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
@@ -10982,7 +11035,7 @@
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
     </row>
-    <row r="762" spans="2:10" ht="14.25">
+    <row r="762" spans="2:10" ht="13.8">
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
@@ -10993,7 +11046,7 @@
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
     </row>
-    <row r="763" spans="2:10" ht="14.25">
+    <row r="763" spans="2:10" ht="13.8">
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
@@ -11004,7 +11057,7 @@
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
     </row>
-    <row r="764" spans="2:10" ht="14.25">
+    <row r="764" spans="2:10" ht="13.8">
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
@@ -11015,7 +11068,7 @@
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
     </row>
-    <row r="765" spans="2:10" ht="14.25">
+    <row r="765" spans="2:10" ht="13.8">
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
@@ -11026,7 +11079,7 @@
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
     </row>
-    <row r="766" spans="2:10" ht="14.25">
+    <row r="766" spans="2:10" ht="13.8">
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
@@ -11037,7 +11090,7 @@
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
     </row>
-    <row r="767" spans="2:10" ht="14.25">
+    <row r="767" spans="2:10" ht="13.8">
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
@@ -11048,7 +11101,7 @@
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
     </row>
-    <row r="768" spans="2:10" ht="14.25">
+    <row r="768" spans="2:10" ht="13.8">
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
@@ -11059,7 +11112,7 @@
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
     </row>
-    <row r="769" spans="2:10" ht="14.25">
+    <row r="769" spans="2:10" ht="13.8">
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
@@ -11070,7 +11123,7 @@
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
     </row>
-    <row r="770" spans="2:10" ht="14.25">
+    <row r="770" spans="2:10" ht="13.8">
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
@@ -11081,7 +11134,7 @@
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
     </row>
-    <row r="771" spans="2:10" ht="14.25">
+    <row r="771" spans="2:10" ht="13.8">
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
@@ -11092,7 +11145,7 @@
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
     </row>
-    <row r="772" spans="2:10" ht="14.25">
+    <row r="772" spans="2:10" ht="13.8">
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
@@ -11103,7 +11156,7 @@
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
     </row>
-    <row r="773" spans="2:10" ht="14.25">
+    <row r="773" spans="2:10" ht="13.8">
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
@@ -11114,7 +11167,7 @@
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
     </row>
-    <row r="774" spans="2:10" ht="14.25">
+    <row r="774" spans="2:10" ht="13.8">
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
@@ -11125,7 +11178,7 @@
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
     </row>
-    <row r="775" spans="2:10" ht="14.25">
+    <row r="775" spans="2:10" ht="13.8">
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
@@ -11136,7 +11189,7 @@
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
     </row>
-    <row r="776" spans="2:10" ht="14.25">
+    <row r="776" spans="2:10" ht="13.8">
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
@@ -11147,7 +11200,7 @@
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
     </row>
-    <row r="777" spans="2:10" ht="14.25">
+    <row r="777" spans="2:10" ht="13.8">
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8"/>
@@ -11158,7 +11211,7 @@
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
     </row>
-    <row r="778" spans="2:10" ht="14.25">
+    <row r="778" spans="2:10" ht="13.8">
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8"/>
@@ -11169,7 +11222,7 @@
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
     </row>
-    <row r="779" spans="2:10" ht="14.25">
+    <row r="779" spans="2:10" ht="13.8">
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
       <c r="D779" s="8"/>
@@ -11180,7 +11233,7 @@
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
     </row>
-    <row r="780" spans="2:10" ht="14.25">
+    <row r="780" spans="2:10" ht="13.8">
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
       <c r="D780" s="8"/>
@@ -11191,7 +11244,7 @@
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
     </row>
-    <row r="781" spans="2:10" ht="14.25">
+    <row r="781" spans="2:10" ht="13.8">
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8"/>
@@ -11202,7 +11255,7 @@
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
     </row>
-    <row r="782" spans="2:10" ht="14.25">
+    <row r="782" spans="2:10" ht="13.8">
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8"/>
@@ -11213,7 +11266,7 @@
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
     </row>
-    <row r="783" spans="2:10" ht="14.25">
+    <row r="783" spans="2:10" ht="13.8">
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
       <c r="D783" s="8"/>
@@ -11224,7 +11277,7 @@
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
     </row>
-    <row r="784" spans="2:10" ht="14.25">
+    <row r="784" spans="2:10" ht="13.8">
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
       <c r="D784" s="8"/>
@@ -11235,7 +11288,7 @@
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
     </row>
-    <row r="785" spans="2:10" ht="14.25">
+    <row r="785" spans="2:10" ht="13.8">
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
       <c r="D785" s="8"/>
@@ -11246,7 +11299,7 @@
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
     </row>
-    <row r="786" spans="2:10" ht="14.25">
+    <row r="786" spans="2:10" ht="13.8">
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
       <c r="D786" s="8"/>
@@ -11257,7 +11310,7 @@
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
     </row>
-    <row r="787" spans="2:10" ht="14.25">
+    <row r="787" spans="2:10" ht="13.8">
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
       <c r="D787" s="8"/>
@@ -11268,7 +11321,7 @@
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
     </row>
-    <row r="788" spans="2:10" ht="14.25">
+    <row r="788" spans="2:10" ht="13.8">
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
       <c r="D788" s="8"/>
@@ -11279,7 +11332,7 @@
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
     </row>
-    <row r="789" spans="2:10" ht="14.25">
+    <row r="789" spans="2:10" ht="13.8">
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
       <c r="D789" s="8"/>
@@ -11290,7 +11343,7 @@
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
     </row>
-    <row r="790" spans="2:10" ht="14.25">
+    <row r="790" spans="2:10" ht="13.8">
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
       <c r="D790" s="8"/>
@@ -11301,7 +11354,7 @@
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
     </row>
-    <row r="791" spans="2:10" ht="14.25">
+    <row r="791" spans="2:10" ht="13.8">
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
       <c r="D791" s="8"/>
@@ -11312,7 +11365,7 @@
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
     </row>
-    <row r="792" spans="2:10" ht="14.25">
+    <row r="792" spans="2:10" ht="13.8">
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
       <c r="D792" s="8"/>
@@ -11323,7 +11376,7 @@
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
     </row>
-    <row r="793" spans="2:10" ht="14.25">
+    <row r="793" spans="2:10" ht="13.8">
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
       <c r="D793" s="8"/>
@@ -11334,7 +11387,7 @@
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
     </row>
-    <row r="794" spans="2:10" ht="14.25">
+    <row r="794" spans="2:10" ht="13.8">
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
       <c r="D794" s="8"/>
@@ -11345,7 +11398,7 @@
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
     </row>
-    <row r="795" spans="2:10" ht="14.25">
+    <row r="795" spans="2:10" ht="13.8">
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
       <c r="D795" s="8"/>
@@ -11356,7 +11409,7 @@
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
     </row>
-    <row r="796" spans="2:10" ht="14.25">
+    <row r="796" spans="2:10" ht="13.8">
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
       <c r="D796" s="8"/>
@@ -11367,7 +11420,7 @@
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
     </row>
-    <row r="797" spans="2:10" ht="14.25">
+    <row r="797" spans="2:10" ht="13.8">
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
       <c r="D797" s="8"/>
@@ -11378,7 +11431,7 @@
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
     </row>
-    <row r="798" spans="2:10" ht="14.25">
+    <row r="798" spans="2:10" ht="13.8">
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
       <c r="D798" s="8"/>
@@ -11389,7 +11442,7 @@
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
     </row>
-    <row r="799" spans="2:10" ht="14.25">
+    <row r="799" spans="2:10" ht="13.8">
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
       <c r="D799" s="8"/>
@@ -11400,7 +11453,7 @@
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
     </row>
-    <row r="800" spans="2:10" ht="14.25">
+    <row r="800" spans="2:10" ht="13.8">
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
       <c r="D800" s="8"/>
@@ -11411,7 +11464,7 @@
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
     </row>
-    <row r="801" spans="2:10" ht="14.25">
+    <row r="801" spans="2:10" ht="13.8">
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
       <c r="D801" s="8"/>
@@ -11422,7 +11475,7 @@
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
     </row>
-    <row r="802" spans="2:10" ht="14.25">
+    <row r="802" spans="2:10" ht="13.8">
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
       <c r="D802" s="8"/>
@@ -11433,7 +11486,7 @@
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
     </row>
-    <row r="803" spans="2:10" ht="14.25">
+    <row r="803" spans="2:10" ht="13.8">
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
       <c r="D803" s="8"/>
@@ -11444,7 +11497,7 @@
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
     </row>
-    <row r="804" spans="2:10" ht="14.25">
+    <row r="804" spans="2:10" ht="13.8">
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
       <c r="D804" s="8"/>
@@ -11455,7 +11508,7 @@
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
     </row>
-    <row r="805" spans="2:10" ht="14.25">
+    <row r="805" spans="2:10" ht="13.8">
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
       <c r="D805" s="8"/>
@@ -11466,7 +11519,7 @@
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
     </row>
-    <row r="806" spans="2:10" ht="14.25">
+    <row r="806" spans="2:10" ht="13.8">
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
       <c r="D806" s="8"/>
@@ -11477,7 +11530,7 @@
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
     </row>
-    <row r="807" spans="2:10" ht="14.25">
+    <row r="807" spans="2:10" ht="13.8">
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
       <c r="D807" s="8"/>
@@ -11488,7 +11541,7 @@
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
     </row>
-    <row r="808" spans="2:10" ht="14.25">
+    <row r="808" spans="2:10" ht="13.8">
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
       <c r="D808" s="8"/>
@@ -11499,7 +11552,7 @@
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
     </row>
-    <row r="809" spans="2:10" ht="14.25">
+    <row r="809" spans="2:10" ht="13.8">
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
       <c r="D809" s="8"/>
@@ -11510,7 +11563,7 @@
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
     </row>
-    <row r="810" spans="2:10" ht="14.25">
+    <row r="810" spans="2:10" ht="13.8">
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
       <c r="D810" s="8"/>
@@ -11521,7 +11574,7 @@
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
     </row>
-    <row r="811" spans="2:10" ht="14.25">
+    <row r="811" spans="2:10" ht="13.8">
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
       <c r="D811" s="8"/>
@@ -11532,7 +11585,7 @@
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
     </row>
-    <row r="812" spans="2:10" ht="14.25">
+    <row r="812" spans="2:10" ht="13.8">
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
       <c r="D812" s="8"/>
@@ -11543,7 +11596,7 @@
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
     </row>
-    <row r="813" spans="2:10" ht="14.25">
+    <row r="813" spans="2:10" ht="13.8">
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
       <c r="D813" s="8"/>
@@ -11554,7 +11607,7 @@
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
     </row>
-    <row r="814" spans="2:10" ht="14.25">
+    <row r="814" spans="2:10" ht="13.8">
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
       <c r="D814" s="8"/>
@@ -11565,7 +11618,7 @@
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
     </row>
-    <row r="815" spans="2:10" ht="14.25">
+    <row r="815" spans="2:10" ht="13.8">
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
       <c r="D815" s="8"/>
@@ -11576,7 +11629,7 @@
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
     </row>
-    <row r="816" spans="2:10" ht="14.25">
+    <row r="816" spans="2:10" ht="13.8">
       <c r="B816" s="8"/>
       <c r="C816" s="8"/>
       <c r="D816" s="8"/>
@@ -11587,7 +11640,7 @@
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
     </row>
-    <row r="817" spans="2:10" ht="14.25">
+    <row r="817" spans="2:10" ht="13.8">
       <c r="B817" s="8"/>
       <c r="C817" s="8"/>
       <c r="D817" s="8"/>
@@ -11598,7 +11651,7 @@
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
     </row>
-    <row r="818" spans="2:10" ht="14.25">
+    <row r="818" spans="2:10" ht="13.8">
       <c r="B818" s="8"/>
       <c r="C818" s="8"/>
       <c r="D818" s="8"/>
@@ -11609,7 +11662,7 @@
       <c r="I818" s="8"/>
       <c r="J818" s="8"/>
     </row>
-    <row r="819" spans="2:10" ht="14.25">
+    <row r="819" spans="2:10" ht="13.8">
       <c r="B819" s="8"/>
       <c r="C819" s="8"/>
       <c r="D819" s="8"/>
@@ -11620,7 +11673,7 @@
       <c r="I819" s="8"/>
       <c r="J819" s="8"/>
     </row>
-    <row r="820" spans="2:10" ht="14.25">
+    <row r="820" spans="2:10" ht="13.8">
       <c r="B820" s="8"/>
       <c r="C820" s="8"/>
       <c r="D820" s="8"/>
@@ -11631,7 +11684,7 @@
       <c r="I820" s="8"/>
       <c r="J820" s="8"/>
     </row>
-    <row r="821" spans="2:10" ht="14.25">
+    <row r="821" spans="2:10" ht="13.8">
       <c r="B821" s="8"/>
       <c r="C821" s="8"/>
       <c r="D821" s="8"/>
@@ -11642,7 +11695,7 @@
       <c r="I821" s="8"/>
       <c r="J821" s="8"/>
     </row>
-    <row r="822" spans="2:10" ht="14.25">
+    <row r="822" spans="2:10" ht="13.8">
       <c r="B822" s="8"/>
       <c r="C822" s="8"/>
       <c r="D822" s="8"/>
@@ -11653,7 +11706,7 @@
       <c r="I822" s="8"/>
       <c r="J822" s="8"/>
     </row>
-    <row r="823" spans="2:10" ht="14.25">
+    <row r="823" spans="2:10" ht="13.8">
       <c r="B823" s="8"/>
       <c r="C823" s="8"/>
       <c r="D823" s="8"/>
@@ -11664,7 +11717,7 @@
       <c r="I823" s="8"/>
       <c r="J823" s="8"/>
     </row>
-    <row r="824" spans="2:10" ht="14.25">
+    <row r="824" spans="2:10" ht="13.8">
       <c r="B824" s="8"/>
       <c r="C824" s="8"/>
       <c r="D824" s="8"/>
@@ -11675,7 +11728,7 @@
       <c r="I824" s="8"/>
       <c r="J824" s="8"/>
     </row>
-    <row r="825" spans="2:10" ht="14.25">
+    <row r="825" spans="2:10" ht="13.8">
       <c r="B825" s="8"/>
       <c r="C825" s="8"/>
       <c r="D825" s="8"/>
@@ -11686,7 +11739,7 @@
       <c r="I825" s="8"/>
       <c r="J825" s="8"/>
     </row>
-    <row r="826" spans="2:10" ht="14.25">
+    <row r="826" spans="2:10" ht="13.8">
       <c r="B826" s="8"/>
       <c r="C826" s="8"/>
       <c r="D826" s="8"/>
@@ -11697,7 +11750,7 @@
       <c r="I826" s="8"/>
       <c r="J826" s="8"/>
     </row>
-    <row r="827" spans="2:10" ht="14.25">
+    <row r="827" spans="2:10" ht="13.8">
       <c r="B827" s="8"/>
       <c r="C827" s="8"/>
       <c r="D827" s="8"/>
@@ -11708,7 +11761,7 @@
       <c r="I827" s="8"/>
       <c r="J827" s="8"/>
     </row>
-    <row r="828" spans="2:10" ht="14.25">
+    <row r="828" spans="2:10" ht="13.8">
       <c r="B828" s="8"/>
       <c r="C828" s="8"/>
       <c r="D828" s="8"/>
@@ -11719,7 +11772,7 @@
       <c r="I828" s="8"/>
       <c r="J828" s="8"/>
     </row>
-    <row r="829" spans="2:10" ht="14.25">
+    <row r="829" spans="2:10" ht="13.8">
       <c r="B829" s="8"/>
       <c r="C829" s="8"/>
       <c r="D829" s="8"/>
@@ -11730,7 +11783,7 @@
       <c r="I829" s="8"/>
       <c r="J829" s="8"/>
     </row>
-    <row r="830" spans="2:10" ht="14.25">
+    <row r="830" spans="2:10" ht="13.8">
       <c r="B830" s="8"/>
       <c r="C830" s="8"/>
       <c r="D830" s="8"/>
@@ -11741,7 +11794,7 @@
       <c r="I830" s="8"/>
       <c r="J830" s="8"/>
     </row>
-    <row r="831" spans="2:10" ht="14.25">
+    <row r="831" spans="2:10" ht="13.8">
       <c r="B831" s="8"/>
       <c r="C831" s="8"/>
       <c r="D831" s="8"/>
@@ -11752,7 +11805,7 @@
       <c r="I831" s="8"/>
       <c r="J831" s="8"/>
     </row>
-    <row r="832" spans="2:10" ht="14.25">
+    <row r="832" spans="2:10" ht="13.8">
       <c r="B832" s="8"/>
       <c r="C832" s="8"/>
       <c r="D832" s="8"/>
@@ -11763,7 +11816,7 @@
       <c r="I832" s="8"/>
       <c r="J832" s="8"/>
     </row>
-    <row r="833" spans="2:10" ht="14.25">
+    <row r="833" spans="2:10" ht="13.8">
       <c r="B833" s="8"/>
       <c r="C833" s="8"/>
       <c r="D833" s="8"/>
@@ -11774,7 +11827,7 @@
       <c r="I833" s="8"/>
       <c r="J833" s="8"/>
     </row>
-    <row r="834" spans="2:10" ht="14.25">
+    <row r="834" spans="2:10" ht="13.8">
       <c r="B834" s="8"/>
       <c r="C834" s="8"/>
       <c r="D834" s="8"/>
@@ -11785,7 +11838,7 @@
       <c r="I834" s="8"/>
       <c r="J834" s="8"/>
     </row>
-    <row r="835" spans="2:10" ht="14.25">
+    <row r="835" spans="2:10" ht="13.8">
       <c r="B835" s="8"/>
       <c r="C835" s="8"/>
       <c r="D835" s="8"/>
@@ -11796,7 +11849,7 @@
       <c r="I835" s="8"/>
       <c r="J835" s="8"/>
     </row>
-    <row r="836" spans="2:10" ht="14.25">
+    <row r="836" spans="2:10" ht="13.8">
       <c r="B836" s="8"/>
       <c r="C836" s="8"/>
       <c r="D836" s="8"/>
@@ -11807,7 +11860,7 @@
       <c r="I836" s="8"/>
       <c r="J836" s="8"/>
     </row>
-    <row r="837" spans="2:10" ht="14.25">
+    <row r="837" spans="2:10" ht="13.8">
       <c r="B837" s="8"/>
       <c r="C837" s="8"/>
       <c r="D837" s="8"/>
@@ -11818,7 +11871,7 @@
       <c r="I837" s="8"/>
       <c r="J837" s="8"/>
     </row>
-    <row r="838" spans="2:10" ht="14.25">
+    <row r="838" spans="2:10" ht="13.8">
       <c r="B838" s="8"/>
       <c r="C838" s="8"/>
       <c r="D838" s="8"/>
@@ -11829,7 +11882,7 @@
       <c r="I838" s="8"/>
       <c r="J838" s="8"/>
     </row>
-    <row r="839" spans="2:10" ht="14.25">
+    <row r="839" spans="2:10" ht="13.8">
       <c r="B839" s="8"/>
       <c r="C839" s="8"/>
       <c r="D839" s="8"/>
@@ -11840,7 +11893,7 @@
       <c r="I839" s="8"/>
       <c r="J839" s="8"/>
     </row>
-    <row r="840" spans="2:10" ht="14.25">
+    <row r="840" spans="2:10" ht="13.8">
       <c r="B840" s="8"/>
       <c r="C840" s="8"/>
       <c r="D840" s="8"/>
@@ -11851,7 +11904,7 @@
       <c r="I840" s="8"/>
       <c r="J840" s="8"/>
     </row>
-    <row r="841" spans="2:10" ht="14.25">
+    <row r="841" spans="2:10" ht="13.8">
       <c r="B841" s="8"/>
       <c r="C841" s="8"/>
       <c r="D841" s="8"/>
@@ -11862,7 +11915,7 @@
       <c r="I841" s="8"/>
       <c r="J841" s="8"/>
     </row>
-    <row r="842" spans="2:10" ht="14.25">
+    <row r="842" spans="2:10" ht="13.8">
       <c r="B842" s="8"/>
       <c r="C842" s="8"/>
       <c r="D842" s="8"/>
@@ -11873,7 +11926,7 @@
       <c r="I842" s="8"/>
       <c r="J842" s="8"/>
     </row>
-    <row r="843" spans="2:10" ht="14.25">
+    <row r="843" spans="2:10" ht="13.8">
       <c r="B843" s="8"/>
       <c r="C843" s="8"/>
       <c r="D843" s="8"/>
@@ -11884,7 +11937,7 @@
       <c r="I843" s="8"/>
       <c r="J843" s="8"/>
     </row>
-    <row r="844" spans="2:10" ht="14.25">
+    <row r="844" spans="2:10" ht="13.8">
       <c r="B844" s="8"/>
       <c r="C844" s="8"/>
       <c r="D844" s="8"/>
@@ -11895,7 +11948,7 @@
       <c r="I844" s="8"/>
       <c r="J844" s="8"/>
     </row>
-    <row r="845" spans="2:10" ht="14.25">
+    <row r="845" spans="2:10" ht="13.8">
       <c r="B845" s="8"/>
       <c r="C845" s="8"/>
       <c r="D845" s="8"/>
@@ -11906,7 +11959,7 @@
       <c r="I845" s="8"/>
       <c r="J845" s="8"/>
     </row>
-    <row r="846" spans="2:10" ht="14.25">
+    <row r="846" spans="2:10" ht="13.8">
       <c r="B846" s="8"/>
       <c r="C846" s="8"/>
       <c r="D846" s="8"/>
@@ -11917,7 +11970,7 @@
       <c r="I846" s="8"/>
       <c r="J846" s="8"/>
     </row>
-    <row r="847" spans="2:10" ht="14.25">
+    <row r="847" spans="2:10" ht="13.8">
       <c r="B847" s="8"/>
       <c r="C847" s="8"/>
       <c r="D847" s="8"/>
@@ -11928,7 +11981,7 @@
       <c r="I847" s="8"/>
       <c r="J847" s="8"/>
     </row>
-    <row r="848" spans="2:10" ht="14.25">
+    <row r="848" spans="2:10" ht="13.8">
       <c r="B848" s="8"/>
       <c r="C848" s="8"/>
       <c r="D848" s="8"/>
@@ -11939,7 +11992,7 @@
       <c r="I848" s="8"/>
       <c r="J848" s="8"/>
     </row>
-    <row r="849" spans="2:10" ht="14.25">
+    <row r="849" spans="2:10" ht="13.8">
       <c r="B849" s="8"/>
       <c r="C849" s="8"/>
       <c r="D849" s="8"/>
@@ -11950,7 +12003,7 @@
       <c r="I849" s="8"/>
       <c r="J849" s="8"/>
     </row>
-    <row r="850" spans="2:10" ht="14.25">
+    <row r="850" spans="2:10" ht="13.8">
       <c r="B850" s="8"/>
       <c r="C850" s="8"/>
       <c r="D850" s="8"/>
@@ -11961,7 +12014,7 @@
       <c r="I850" s="8"/>
       <c r="J850" s="8"/>
     </row>
-    <row r="851" spans="2:10" ht="14.25">
+    <row r="851" spans="2:10" ht="13.8">
       <c r="B851" s="8"/>
       <c r="C851" s="8"/>
       <c r="D851" s="8"/>
@@ -11972,7 +12025,7 @@
       <c r="I851" s="8"/>
       <c r="J851" s="8"/>
     </row>
-    <row r="852" spans="2:10" ht="14.25">
+    <row r="852" spans="2:10" ht="13.8">
       <c r="B852" s="8"/>
       <c r="C852" s="8"/>
       <c r="D852" s="8"/>
@@ -11983,7 +12036,7 @@
       <c r="I852" s="8"/>
       <c r="J852" s="8"/>
     </row>
-    <row r="853" spans="2:10" ht="14.25">
+    <row r="853" spans="2:10" ht="13.8">
       <c r="B853" s="8"/>
       <c r="C853" s="8"/>
       <c r="D853" s="8"/>
@@ -11994,7 +12047,7 @@
       <c r="I853" s="8"/>
       <c r="J853" s="8"/>
     </row>
-    <row r="854" spans="2:10" ht="14.25">
+    <row r="854" spans="2:10" ht="13.8">
       <c r="B854" s="8"/>
       <c r="C854" s="8"/>
       <c r="D854" s="8"/>
@@ -12005,7 +12058,7 @@
       <c r="I854" s="8"/>
       <c r="J854" s="8"/>
     </row>
-    <row r="855" spans="2:10" ht="14.25">
+    <row r="855" spans="2:10" ht="13.8">
       <c r="B855" s="8"/>
       <c r="C855" s="8"/>
       <c r="D855" s="8"/>
@@ -12016,7 +12069,7 @@
       <c r="I855" s="8"/>
       <c r="J855" s="8"/>
     </row>
-    <row r="856" spans="2:10" ht="14.25">
+    <row r="856" spans="2:10" ht="13.8">
       <c r="B856" s="8"/>
       <c r="C856" s="8"/>
       <c r="D856" s="8"/>
@@ -12027,7 +12080,7 @@
       <c r="I856" s="8"/>
       <c r="J856" s="8"/>
     </row>
-    <row r="857" spans="2:10" ht="14.25">
+    <row r="857" spans="2:10" ht="13.8">
       <c r="B857" s="8"/>
       <c r="C857" s="8"/>
       <c r="D857" s="8"/>
@@ -12038,7 +12091,7 @@
       <c r="I857" s="8"/>
       <c r="J857" s="8"/>
     </row>
-    <row r="858" spans="2:10" ht="14.25">
+    <row r="858" spans="2:10" ht="13.8">
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
       <c r="D858" s="8"/>
@@ -12049,7 +12102,7 @@
       <c r="I858" s="8"/>
       <c r="J858" s="8"/>
     </row>
-    <row r="859" spans="2:10" ht="14.25">
+    <row r="859" spans="2:10" ht="13.8">
       <c r="B859" s="8"/>
       <c r="C859" s="8"/>
       <c r="D859" s="8"/>
@@ -12060,7 +12113,7 @@
       <c r="I859" s="8"/>
       <c r="J859" s="8"/>
     </row>
-    <row r="860" spans="2:10" ht="14.25">
+    <row r="860" spans="2:10" ht="13.8">
       <c r="B860" s="8"/>
       <c r="C860" s="8"/>
       <c r="D860" s="8"/>
@@ -12071,7 +12124,7 @@
       <c r="I860" s="8"/>
       <c r="J860" s="8"/>
     </row>
-    <row r="861" spans="2:10" ht="14.25">
+    <row r="861" spans="2:10" ht="13.8">
       <c r="B861" s="8"/>
       <c r="C861" s="8"/>
       <c r="D861" s="8"/>
@@ -12082,7 +12135,7 @@
       <c r="I861" s="8"/>
       <c r="J861" s="8"/>
     </row>
-    <row r="862" spans="2:10" ht="14.25">
+    <row r="862" spans="2:10" ht="13.8">
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
       <c r="D862" s="8"/>
@@ -12093,7 +12146,7 @@
       <c r="I862" s="8"/>
       <c r="J862" s="8"/>
     </row>
-    <row r="863" spans="2:10" ht="14.25">
+    <row r="863" spans="2:10" ht="13.8">
       <c r="B863" s="8"/>
       <c r="C863" s="8"/>
       <c r="D863" s="8"/>
@@ -12104,7 +12157,7 @@
       <c r="I863" s="8"/>
       <c r="J863" s="8"/>
     </row>
-    <row r="864" spans="2:10" ht="14.25">
+    <row r="864" spans="2:10" ht="13.8">
       <c r="B864" s="8"/>
       <c r="C864" s="8"/>
       <c r="D864" s="8"/>
@@ -12115,7 +12168,7 @@
       <c r="I864" s="8"/>
       <c r="J864" s="8"/>
     </row>
-    <row r="865" spans="2:10" ht="14.25">
+    <row r="865" spans="2:10" ht="13.8">
       <c r="B865" s="8"/>
       <c r="C865" s="8"/>
       <c r="D865" s="8"/>
@@ -12126,7 +12179,7 @@
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
     </row>
-    <row r="866" spans="2:10" ht="14.25">
+    <row r="866" spans="2:10" ht="13.8">
       <c r="B866" s="8"/>
       <c r="C866" s="8"/>
       <c r="D866" s="8"/>
@@ -12137,7 +12190,7 @@
       <c r="I866" s="8"/>
       <c r="J866" s="8"/>
     </row>
-    <row r="867" spans="2:10" ht="14.25">
+    <row r="867" spans="2:10" ht="13.8">
       <c r="B867" s="8"/>
       <c r="C867" s="8"/>
       <c r="D867" s="8"/>
@@ -12148,7 +12201,7 @@
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
     </row>
-    <row r="868" spans="2:10" ht="14.25">
+    <row r="868" spans="2:10" ht="13.8">
       <c r="B868" s="8"/>
       <c r="C868" s="8"/>
       <c r="D868" s="8"/>
@@ -12159,7 +12212,7 @@
       <c r="I868" s="8"/>
       <c r="J868" s="8"/>
     </row>
-    <row r="869" spans="2:10" ht="14.25">
+    <row r="869" spans="2:10" ht="13.8">
       <c r="B869" s="8"/>
       <c r="C869" s="8"/>
       <c r="D869" s="8"/>
@@ -12170,7 +12223,7 @@
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
     </row>
-    <row r="870" spans="2:10" ht="14.25">
+    <row r="870" spans="2:10" ht="13.8">
       <c r="B870" s="8"/>
       <c r="C870" s="8"/>
       <c r="D870" s="8"/>
@@ -12181,7 +12234,7 @@
       <c r="I870" s="8"/>
       <c r="J870" s="8"/>
     </row>
-    <row r="871" spans="2:10" ht="14.25">
+    <row r="871" spans="2:10" ht="13.8">
       <c r="B871" s="8"/>
       <c r="C871" s="8"/>
       <c r="D871" s="8"/>
@@ -12192,7 +12245,7 @@
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
     </row>
-    <row r="872" spans="2:10" ht="14.25">
+    <row r="872" spans="2:10" ht="13.8">
       <c r="B872" s="8"/>
       <c r="C872" s="8"/>
       <c r="D872" s="8"/>
@@ -12203,7 +12256,7 @@
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
     </row>
-    <row r="873" spans="2:10" ht="14.25">
+    <row r="873" spans="2:10" ht="13.8">
       <c r="B873" s="8"/>
       <c r="C873" s="8"/>
       <c r="D873" s="8"/>
@@ -12214,7 +12267,7 @@
       <c r="I873" s="8"/>
       <c r="J873" s="8"/>
     </row>
-    <row r="874" spans="2:10" ht="14.25">
+    <row r="874" spans="2:10" ht="13.8">
       <c r="B874" s="8"/>
       <c r="C874" s="8"/>
       <c r="D874" s="8"/>
@@ -12225,7 +12278,7 @@
       <c r="I874" s="8"/>
       <c r="J874" s="8"/>
     </row>
-    <row r="875" spans="2:10" ht="14.25">
+    <row r="875" spans="2:10" ht="13.8">
       <c r="B875" s="8"/>
       <c r="C875" s="8"/>
       <c r="D875" s="8"/>
@@ -12236,7 +12289,7 @@
       <c r="I875" s="8"/>
       <c r="J875" s="8"/>
     </row>
-    <row r="876" spans="2:10" ht="14.25">
+    <row r="876" spans="2:10" ht="13.8">
       <c r="B876" s="8"/>
       <c r="C876" s="8"/>
       <c r="D876" s="8"/>
@@ -12247,7 +12300,7 @@
       <c r="I876" s="8"/>
       <c r="J876" s="8"/>
     </row>
-    <row r="877" spans="2:10" ht="14.25">
+    <row r="877" spans="2:10" ht="13.8">
       <c r="B877" s="8"/>
       <c r="C877" s="8"/>
       <c r="D877" s="8"/>
@@ -12258,7 +12311,7 @@
       <c r="I877" s="8"/>
       <c r="J877" s="8"/>
     </row>
-    <row r="878" spans="2:10" ht="14.25">
+    <row r="878" spans="2:10" ht="13.8">
       <c r="B878" s="8"/>
       <c r="C878" s="8"/>
       <c r="D878" s="8"/>
@@ -12269,7 +12322,7 @@
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
     </row>
-    <row r="879" spans="2:10" ht="14.25">
+    <row r="879" spans="2:10" ht="13.8">
       <c r="B879" s="8"/>
       <c r="C879" s="8"/>
       <c r="D879" s="8"/>
@@ -12280,7 +12333,7 @@
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
     </row>
-    <row r="880" spans="2:10" ht="14.25">
+    <row r="880" spans="2:10" ht="13.8">
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
       <c r="D880" s="8"/>
@@ -12291,7 +12344,7 @@
       <c r="I880" s="8"/>
       <c r="J880" s="8"/>
     </row>
-    <row r="881" spans="2:10" ht="14.25">
+    <row r="881" spans="2:10" ht="13.8">
       <c r="B881" s="8"/>
       <c r="C881" s="8"/>
       <c r="D881" s="8"/>
@@ -12302,7 +12355,7 @@
       <c r="I881" s="8"/>
       <c r="J881" s="8"/>
     </row>
-    <row r="882" spans="2:10" ht="14.25">
+    <row r="882" spans="2:10" ht="13.8">
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
       <c r="D882" s="8"/>
@@ -12313,7 +12366,7 @@
       <c r="I882" s="8"/>
       <c r="J882" s="8"/>
     </row>
-    <row r="883" spans="2:10" ht="14.25">
+    <row r="883" spans="2:10" ht="13.8">
       <c r="B883" s="8"/>
       <c r="C883" s="8"/>
       <c r="D883" s="8"/>
@@ -12324,7 +12377,7 @@
       <c r="I883" s="8"/>
       <c r="J883" s="8"/>
     </row>
-    <row r="884" spans="2:10" ht="14.25">
+    <row r="884" spans="2:10" ht="13.8">
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
       <c r="D884" s="8"/>
@@ -12335,7 +12388,7 @@
       <c r="I884" s="8"/>
       <c r="J884" s="8"/>
     </row>
-    <row r="885" spans="2:10" ht="14.25">
+    <row r="885" spans="2:10" ht="13.8">
       <c r="B885" s="8"/>
       <c r="C885" s="8"/>
       <c r="D885" s="8"/>
@@ -12346,7 +12399,7 @@
       <c r="I885" s="8"/>
       <c r="J885" s="8"/>
     </row>
-    <row r="886" spans="2:10" ht="14.25">
+    <row r="886" spans="2:10" ht="13.8">
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
       <c r="D886" s="8"/>
@@ -12357,7 +12410,7 @@
       <c r="I886" s="8"/>
       <c r="J886" s="8"/>
     </row>
-    <row r="887" spans="2:10" ht="14.25">
+    <row r="887" spans="2:10" ht="13.8">
       <c r="B887" s="8"/>
       <c r="C887" s="8"/>
       <c r="D887" s="8"/>
@@ -12368,7 +12421,7 @@
       <c r="I887" s="8"/>
       <c r="J887" s="8"/>
     </row>
-    <row r="888" spans="2:10" ht="14.25">
+    <row r="888" spans="2:10" ht="13.8">
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
       <c r="D888" s="8"/>
@@ -12379,7 +12432,7 @@
       <c r="I888" s="8"/>
       <c r="J888" s="8"/>
     </row>
-    <row r="889" spans="2:10" ht="14.25">
+    <row r="889" spans="2:10" ht="13.8">
       <c r="B889" s="8"/>
       <c r="C889" s="8"/>
       <c r="D889" s="8"/>
@@ -12390,7 +12443,7 @@
       <c r="I889" s="8"/>
       <c r="J889" s="8"/>
     </row>
-    <row r="890" spans="2:10" ht="14.25">
+    <row r="890" spans="2:10" ht="13.8">
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
       <c r="D890" s="8"/>
@@ -12401,7 +12454,7 @@
       <c r="I890" s="8"/>
       <c r="J890" s="8"/>
     </row>
-    <row r="891" spans="2:10" ht="14.25">
+    <row r="891" spans="2:10" ht="13.8">
       <c r="B891" s="8"/>
       <c r="C891" s="8"/>
       <c r="D891" s="8"/>
@@ -12412,7 +12465,7 @@
       <c r="I891" s="8"/>
       <c r="J891" s="8"/>
     </row>
-    <row r="892" spans="2:10" ht="14.25">
+    <row r="892" spans="2:10" ht="13.8">
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
       <c r="D892" s="8"/>
@@ -12423,7 +12476,7 @@
       <c r="I892" s="8"/>
       <c r="J892" s="8"/>
     </row>
-    <row r="893" spans="2:10" ht="14.25">
+    <row r="893" spans="2:10" ht="13.8">
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
       <c r="D893" s="8"/>
@@ -12434,7 +12487,7 @@
       <c r="I893" s="8"/>
       <c r="J893" s="8"/>
     </row>
-    <row r="894" spans="2:10" ht="14.25">
+    <row r="894" spans="2:10" ht="13.8">
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
       <c r="D894" s="8"/>
@@ -12445,7 +12498,7 @@
       <c r="I894" s="8"/>
       <c r="J894" s="8"/>
     </row>
-    <row r="895" spans="2:10" ht="14.25">
+    <row r="895" spans="2:10" ht="13.8">
       <c r="B895" s="8"/>
       <c r="C895" s="8"/>
       <c r="D895" s="8"/>
@@ -12456,7 +12509,7 @@
       <c r="I895" s="8"/>
       <c r="J895" s="8"/>
     </row>
-    <row r="896" spans="2:10" ht="14.25">
+    <row r="896" spans="2:10" ht="13.8">
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
       <c r="D896" s="8"/>
@@ -12467,7 +12520,7 @@
       <c r="I896" s="8"/>
       <c r="J896" s="8"/>
     </row>
-    <row r="897" spans="2:10" ht="14.25">
+    <row r="897" spans="2:10" ht="13.8">
       <c r="B897" s="8"/>
       <c r="C897" s="8"/>
       <c r="D897" s="8"/>
@@ -12478,7 +12531,7 @@
       <c r="I897" s="8"/>
       <c r="J897" s="8"/>
     </row>
-    <row r="898" spans="2:10" ht="14.25">
+    <row r="898" spans="2:10" ht="13.8">
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
       <c r="D898" s="8"/>
@@ -12489,7 +12542,7 @@
       <c r="I898" s="8"/>
       <c r="J898" s="8"/>
     </row>
-    <row r="899" spans="2:10" ht="14.25">
+    <row r="899" spans="2:10" ht="13.8">
       <c r="B899" s="8"/>
       <c r="C899" s="8"/>
       <c r="D899" s="8"/>
@@ -12500,7 +12553,7 @@
       <c r="I899" s="8"/>
       <c r="J899" s="8"/>
     </row>
-    <row r="900" spans="2:10" ht="14.25">
+    <row r="900" spans="2:10" ht="13.8">
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
       <c r="D900" s="8"/>
@@ -12511,7 +12564,7 @@
       <c r="I900" s="8"/>
       <c r="J900" s="8"/>
     </row>
-    <row r="901" spans="2:10" ht="14.25">
+    <row r="901" spans="2:10" ht="13.8">
       <c r="B901" s="8"/>
       <c r="C901" s="8"/>
       <c r="D901" s="8"/>
@@ -12522,7 +12575,7 @@
       <c r="I901" s="8"/>
       <c r="J901" s="8"/>
     </row>
-    <row r="902" spans="2:10" ht="14.25">
+    <row r="902" spans="2:10" ht="13.8">
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
       <c r="D902" s="8"/>
@@ -12533,7 +12586,7 @@
       <c r="I902" s="8"/>
       <c r="J902" s="8"/>
     </row>
-    <row r="903" spans="2:10" ht="14.25">
+    <row r="903" spans="2:10" ht="13.8">
       <c r="B903" s="8"/>
       <c r="C903" s="8"/>
       <c r="D903" s="8"/>
@@ -12544,7 +12597,7 @@
       <c r="I903" s="8"/>
       <c r="J903" s="8"/>
     </row>
-    <row r="904" spans="2:10" ht="14.25">
+    <row r="904" spans="2:10" ht="13.8">
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
       <c r="D904" s="8"/>
@@ -12555,7 +12608,7 @@
       <c r="I904" s="8"/>
       <c r="J904" s="8"/>
     </row>
-    <row r="905" spans="2:10" ht="14.25">
+    <row r="905" spans="2:10" ht="13.8">
       <c r="B905" s="8"/>
       <c r="C905" s="8"/>
       <c r="D905" s="8"/>
@@ -12566,7 +12619,7 @@
       <c r="I905" s="8"/>
       <c r="J905" s="8"/>
     </row>
-    <row r="906" spans="2:10" ht="14.25">
+    <row r="906" spans="2:10" ht="13.8">
       <c r="B906" s="8"/>
       <c r="C906" s="8"/>
       <c r="D906" s="8"/>
@@ -12577,7 +12630,7 @@
       <c r="I906" s="8"/>
       <c r="J906" s="8"/>
     </row>
-    <row r="907" spans="2:10" ht="14.25">
+    <row r="907" spans="2:10" ht="13.8">
       <c r="B907" s="8"/>
       <c r="C907" s="8"/>
       <c r="D907" s="8"/>
@@ -12588,7 +12641,7 @@
       <c r="I907" s="8"/>
       <c r="J907" s="8"/>
     </row>
-    <row r="908" spans="2:10" ht="14.25">
+    <row r="908" spans="2:10" ht="13.8">
       <c r="B908" s="8"/>
       <c r="C908" s="8"/>
       <c r="D908" s="8"/>
@@ -12599,7 +12652,7 @@
       <c r="I908" s="8"/>
       <c r="J908" s="8"/>
     </row>
-    <row r="909" spans="2:10" ht="14.25">
+    <row r="909" spans="2:10" ht="13.8">
       <c r="B909" s="8"/>
       <c r="C909" s="8"/>
       <c r="D909" s="8"/>
@@ -12610,7 +12663,7 @@
       <c r="I909" s="8"/>
       <c r="J909" s="8"/>
     </row>
-    <row r="910" spans="2:10" ht="14.25">
+    <row r="910" spans="2:10" ht="13.8">
       <c r="B910" s="8"/>
       <c r="C910" s="8"/>
       <c r="D910" s="8"/>
@@ -12621,7 +12674,7 @@
       <c r="I910" s="8"/>
       <c r="J910" s="8"/>
     </row>
-    <row r="911" spans="2:10" ht="14.25">
+    <row r="911" spans="2:10" ht="13.8">
       <c r="B911" s="8"/>
       <c r="C911" s="8"/>
       <c r="D911" s="8"/>
@@ -12632,7 +12685,7 @@
       <c r="I911" s="8"/>
       <c r="J911" s="8"/>
     </row>
-    <row r="912" spans="2:10" ht="14.25">
+    <row r="912" spans="2:10" ht="13.8">
       <c r="B912" s="8"/>
       <c r="C912" s="8"/>
       <c r="D912" s="8"/>
@@ -12643,7 +12696,7 @@
       <c r="I912" s="8"/>
       <c r="J912" s="8"/>
     </row>
-    <row r="913" spans="2:10" ht="14.25">
+    <row r="913" spans="2:10" ht="13.8">
       <c r="B913" s="8"/>
       <c r="C913" s="8"/>
       <c r="D913" s="8"/>
@@ -12654,7 +12707,7 @@
       <c r="I913" s="8"/>
       <c r="J913" s="8"/>
     </row>
-    <row r="914" spans="2:10" ht="14.25">
+    <row r="914" spans="2:10" ht="13.8">
       <c r="B914" s="8"/>
       <c r="C914" s="8"/>
       <c r="D914" s="8"/>
@@ -12665,7 +12718,7 @@
       <c r="I914" s="8"/>
       <c r="J914" s="8"/>
     </row>
-    <row r="915" spans="2:10" ht="14.25">
+    <row r="915" spans="2:10" ht="13.8">
       <c r="B915" s="8"/>
       <c r="C915" s="8"/>
       <c r="D915" s="8"/>
@@ -12676,7 +12729,7 @@
       <c r="I915" s="8"/>
       <c r="J915" s="8"/>
     </row>
-    <row r="916" spans="2:10" ht="14.25">
+    <row r="916" spans="2:10" ht="13.8">
       <c r="B916" s="8"/>
       <c r="C916" s="8"/>
       <c r="D916" s="8"/>
@@ -12687,7 +12740,7 @@
       <c r="I916" s="8"/>
       <c r="J916" s="8"/>
     </row>
-    <row r="917" spans="2:10" ht="14.25">
+    <row r="917" spans="2:10" ht="13.8">
       <c r="B917" s="8"/>
       <c r="C917" s="8"/>
       <c r="D917" s="8"/>
@@ -12698,7 +12751,7 @@
       <c r="I917" s="8"/>
       <c r="J917" s="8"/>
     </row>
-    <row r="918" spans="2:10" ht="14.25">
+    <row r="918" spans="2:10" ht="13.8">
       <c r="B918" s="8"/>
       <c r="C918" s="8"/>
       <c r="D918" s="8"/>
@@ -12709,7 +12762,7 @@
       <c r="I918" s="8"/>
       <c r="J918" s="8"/>
     </row>
-    <row r="919" spans="2:10" ht="14.25">
+    <row r="919" spans="2:10" ht="13.8">
       <c r="B919" s="8"/>
       <c r="C919" s="8"/>
       <c r="D919" s="8"/>
@@ -12720,7 +12773,7 @@
       <c r="I919" s="8"/>
       <c r="J919" s="8"/>
     </row>
-    <row r="920" spans="2:10" ht="14.25">
+    <row r="920" spans="2:10" ht="13.8">
       <c r="B920" s="8"/>
       <c r="C920" s="8"/>
       <c r="D920" s="8"/>
@@ -12731,7 +12784,7 @@
       <c r="I920" s="8"/>
       <c r="J920" s="8"/>
     </row>
-    <row r="921" spans="2:10" ht="14.25">
+    <row r="921" spans="2:10" ht="13.8">
       <c r="B921" s="8"/>
       <c r="C921" s="8"/>
       <c r="D921" s="8"/>
@@ -12742,7 +12795,7 @@
       <c r="I921" s="8"/>
       <c r="J921" s="8"/>
     </row>
-    <row r="922" spans="2:10" ht="14.25">
+    <row r="922" spans="2:10" ht="13.8">
       <c r="B922" s="8"/>
       <c r="C922" s="8"/>
       <c r="D922" s="8"/>
@@ -12753,7 +12806,7 @@
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
     </row>
-    <row r="923" spans="2:10" ht="14.25">
+    <row r="923" spans="2:10" ht="13.8">
       <c r="B923" s="8"/>
       <c r="C923" s="8"/>
       <c r="D923" s="8"/>
@@ -12764,7 +12817,7 @@
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
     </row>
-    <row r="924" spans="2:10" ht="14.25">
+    <row r="924" spans="2:10" ht="13.8">
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
       <c r="D924" s="8"/>
@@ -12775,7 +12828,7 @@
       <c r="I924" s="8"/>
       <c r="J924" s="8"/>
     </row>
-    <row r="925" spans="2:10" ht="14.25">
+    <row r="925" spans="2:10" ht="13.8">
       <c r="B925" s="8"/>
       <c r="C925" s="8"/>
       <c r="D925" s="8"/>
@@ -12786,7 +12839,7 @@
       <c r="I925" s="8"/>
       <c r="J925" s="8"/>
     </row>
-    <row r="926" spans="2:10" ht="14.25">
+    <row r="926" spans="2:10" ht="13.8">
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
       <c r="D926" s="8"/>
@@ -12797,7 +12850,7 @@
       <c r="I926" s="8"/>
       <c r="J926" s="8"/>
     </row>
-    <row r="927" spans="2:10" ht="14.25">
+    <row r="927" spans="2:10" ht="13.8">
       <c r="B927" s="8"/>
       <c r="C927" s="8"/>
       <c r="D927" s="8"/>
@@ -12808,7 +12861,7 @@
       <c r="I927" s="8"/>
       <c r="J927" s="8"/>
     </row>
-    <row r="928" spans="2:10" ht="14.25">
+    <row r="928" spans="2:10" ht="13.8">
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
       <c r="D928" s="8"/>
@@ -12819,7 +12872,7 @@
       <c r="I928" s="8"/>
       <c r="J928" s="8"/>
     </row>
-    <row r="929" spans="2:10" ht="14.25">
+    <row r="929" spans="2:10" ht="13.8">
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
       <c r="D929" s="8"/>
@@ -12830,7 +12883,7 @@
       <c r="I929" s="8"/>
       <c r="J929" s="8"/>
     </row>
-    <row r="930" spans="2:10" ht="14.25">
+    <row r="930" spans="2:10" ht="13.8">
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
       <c r="D930" s="8"/>
@@ -12841,7 +12894,7 @@
       <c r="I930" s="8"/>
       <c r="J930" s="8"/>
     </row>
-    <row r="931" spans="2:10" ht="14.25">
+    <row r="931" spans="2:10" ht="13.8">
       <c r="B931" s="8"/>
       <c r="C931" s="8"/>
       <c r="D931" s="8"/>
@@ -12852,7 +12905,7 @@
       <c r="I931" s="8"/>
       <c r="J931" s="8"/>
     </row>
-    <row r="932" spans="2:10" ht="14.25">
+    <row r="932" spans="2:10" ht="13.8">
       <c r="B932" s="8"/>
       <c r="C932" s="8"/>
       <c r="D932" s="8"/>
@@ -12863,7 +12916,7 @@
       <c r="I932" s="8"/>
       <c r="J932" s="8"/>
     </row>
-    <row r="933" spans="2:10" ht="14.25">
+    <row r="933" spans="2:10" ht="13.8">
       <c r="B933" s="8"/>
       <c r="C933" s="8"/>
       <c r="D933" s="8"/>
@@ -12874,7 +12927,7 @@
       <c r="I933" s="8"/>
       <c r="J933" s="8"/>
     </row>
-    <row r="934" spans="2:10" ht="14.25">
+    <row r="934" spans="2:10" ht="13.8">
       <c r="B934" s="8"/>
       <c r="C934" s="8"/>
       <c r="D934" s="8"/>
@@ -12885,7 +12938,7 @@
       <c r="I934" s="8"/>
       <c r="J934" s="8"/>
     </row>
-    <row r="935" spans="2:10" ht="14.25">
+    <row r="935" spans="2:10" ht="13.8">
       <c r="B935" s="8"/>
       <c r="C935" s="8"/>
       <c r="D935" s="8"/>
@@ -12896,7 +12949,7 @@
       <c r="I935" s="8"/>
       <c r="J935" s="8"/>
     </row>
-    <row r="936" spans="2:10" ht="14.25">
+    <row r="936" spans="2:10" ht="13.8">
       <c r="B936" s="8"/>
       <c r="C936" s="8"/>
       <c r="D936" s="8"/>
@@ -12907,7 +12960,7 @@
       <c r="I936" s="8"/>
       <c r="J936" s="8"/>
     </row>
-    <row r="937" spans="2:10" ht="14.25">
+    <row r="937" spans="2:10" ht="13.8">
       <c r="B937" s="8"/>
       <c r="C937" s="8"/>
       <c r="D937" s="8"/>
@@ -12918,7 +12971,7 @@
       <c r="I937" s="8"/>
       <c r="J937" s="8"/>
     </row>
-    <row r="938" spans="2:10" ht="14.25">
+    <row r="938" spans="2:10" ht="13.8">
       <c r="B938" s="8"/>
       <c r="C938" s="8"/>
       <c r="D938" s="8"/>
@@ -12929,7 +12982,7 @@
       <c r="I938" s="8"/>
       <c r="J938" s="8"/>
     </row>
-    <row r="939" spans="2:10" ht="14.25">
+    <row r="939" spans="2:10" ht="13.8">
       <c r="B939" s="8"/>
       <c r="C939" s="8"/>
       <c r="D939" s="8"/>
@@ -12940,7 +12993,7 @@
       <c r="I939" s="8"/>
       <c r="J939" s="8"/>
     </row>
-    <row r="940" spans="2:10" ht="14.25">
+    <row r="940" spans="2:10" ht="13.8">
       <c r="B940" s="8"/>
       <c r="C940" s="8"/>
       <c r="D940" s="8"/>
@@ -12951,7 +13004,7 @@
       <c r="I940" s="8"/>
       <c r="J940" s="8"/>
     </row>
-    <row r="941" spans="2:10" ht="14.25">
+    <row r="941" spans="2:10" ht="13.8">
       <c r="B941" s="8"/>
       <c r="C941" s="8"/>
       <c r="D941" s="8"/>
@@ -12962,7 +13015,7 @@
       <c r="I941" s="8"/>
       <c r="J941" s="8"/>
     </row>
-    <row r="942" spans="2:10" ht="14.25">
+    <row r="942" spans="2:10" ht="13.8">
       <c r="B942" s="8"/>
       <c r="C942" s="8"/>
       <c r="D942" s="8"/>
@@ -12973,7 +13026,7 @@
       <c r="I942" s="8"/>
       <c r="J942" s="8"/>
     </row>
-    <row r="943" spans="2:10" ht="14.25">
+    <row r="943" spans="2:10" ht="13.8">
       <c r="B943" s="8"/>
       <c r="C943" s="8"/>
       <c r="D943" s="8"/>
@@ -12984,7 +13037,7 @@
       <c r="I943" s="8"/>
       <c r="J943" s="8"/>
     </row>
-    <row r="944" spans="2:10" ht="14.25">
+    <row r="944" spans="2:10" ht="13.8">
       <c r="B944" s="8"/>
       <c r="C944" s="8"/>
       <c r="D944" s="8"/>
@@ -12995,7 +13048,7 @@
       <c r="I944" s="8"/>
       <c r="J944" s="8"/>
     </row>
-    <row r="945" spans="2:10" ht="14.25">
+    <row r="945" spans="2:10" ht="13.8">
       <c r="B945" s="8"/>
       <c r="C945" s="8"/>
       <c r="D945" s="8"/>
@@ -13006,7 +13059,7 @@
       <c r="I945" s="8"/>
       <c r="J945" s="8"/>
     </row>
-    <row r="946" spans="2:10" ht="14.25">
+    <row r="946" spans="2:10" ht="13.8">
       <c r="B946" s="8"/>
       <c r="C946" s="8"/>
       <c r="D946" s="8"/>
@@ -13017,7 +13070,7 @@
       <c r="I946" s="8"/>
       <c r="J946" s="8"/>
     </row>
-    <row r="947" spans="2:10" ht="14.25">
+    <row r="947" spans="2:10" ht="13.8">
       <c r="B947" s="8"/>
       <c r="C947" s="8"/>
       <c r="D947" s="8"/>
@@ -13028,7 +13081,7 @@
       <c r="I947" s="8"/>
       <c r="J947" s="8"/>
     </row>
-    <row r="948" spans="2:10" ht="14.25">
+    <row r="948" spans="2:10" ht="13.8">
       <c r="B948" s="8"/>
       <c r="C948" s="8"/>
       <c r="D948" s="8"/>
@@ -13039,7 +13092,7 @@
       <c r="I948" s="8"/>
       <c r="J948" s="8"/>
     </row>
-    <row r="949" spans="2:10" ht="14.25">
+    <row r="949" spans="2:10" ht="13.8">
       <c r="B949" s="8"/>
       <c r="C949" s="8"/>
       <c r="D949" s="8"/>
@@ -13050,7 +13103,7 @@
       <c r="I949" s="8"/>
       <c r="J949" s="8"/>
     </row>
-    <row r="950" spans="2:10" ht="14.25">
+    <row r="950" spans="2:10" ht="13.8">
       <c r="B950" s="8"/>
       <c r="C950" s="8"/>
       <c r="D950" s="8"/>
@@ -13061,7 +13114,7 @@
       <c r="I950" s="8"/>
       <c r="J950" s="8"/>
     </row>
-    <row r="951" spans="2:10" ht="14.25">
+    <row r="951" spans="2:10" ht="13.8">
       <c r="B951" s="8"/>
       <c r="C951" s="8"/>
       <c r="D951" s="8"/>
@@ -13072,7 +13125,7 @@
       <c r="I951" s="8"/>
       <c r="J951" s="8"/>
     </row>
-    <row r="952" spans="2:10" ht="14.25">
+    <row r="952" spans="2:10" ht="13.8">
       <c r="B952" s="8"/>
       <c r="C952" s="8"/>
       <c r="D952" s="8"/>
@@ -13083,7 +13136,7 @@
       <c r="I952" s="8"/>
       <c r="J952" s="8"/>
     </row>
-    <row r="953" spans="2:10" ht="14.25">
+    <row r="953" spans="2:10" ht="13.8">
       <c r="B953" s="8"/>
       <c r="C953" s="8"/>
       <c r="D953" s="8"/>
@@ -13094,7 +13147,7 @@
       <c r="I953" s="8"/>
       <c r="J953" s="8"/>
     </row>
-    <row r="954" spans="2:10" ht="14.25">
+    <row r="954" spans="2:10" ht="13.8">
       <c r="B954" s="8"/>
       <c r="C954" s="8"/>
       <c r="D954" s="8"/>
@@ -13105,7 +13158,7 @@
       <c r="I954" s="8"/>
       <c r="J954" s="8"/>
     </row>
-    <row r="955" spans="2:10" ht="14.25">
+    <row r="955" spans="2:10" ht="13.8">
       <c r="B955" s="8"/>
       <c r="C955" s="8"/>
       <c r="D955" s="8"/>
@@ -13116,7 +13169,7 @@
       <c r="I955" s="8"/>
       <c r="J955" s="8"/>
     </row>
-    <row r="956" spans="2:10" ht="14.25">
+    <row r="956" spans="2:10" ht="13.8">
       <c r="B956" s="8"/>
       <c r="C956" s="8"/>
       <c r="D956" s="8"/>
@@ -13127,7 +13180,7 @@
       <c r="I956" s="8"/>
       <c r="J956" s="8"/>
     </row>
-    <row r="957" spans="2:10" ht="14.25">
+    <row r="957" spans="2:10" ht="13.8">
       <c r="B957" s="8"/>
       <c r="C957" s="8"/>
       <c r="D957" s="8"/>
@@ -13138,7 +13191,7 @@
       <c r="I957" s="8"/>
       <c r="J957" s="8"/>
     </row>
-    <row r="958" spans="2:10" ht="14.25">
+    <row r="958" spans="2:10" ht="13.8">
       <c r="B958" s="8"/>
       <c r="C958" s="8"/>
       <c r="D958" s="8"/>
@@ -13149,7 +13202,7 @@
       <c r="I958" s="8"/>
       <c r="J958" s="8"/>
     </row>
-    <row r="959" spans="2:10" ht="14.25">
+    <row r="959" spans="2:10" ht="13.8">
       <c r="B959" s="8"/>
       <c r="C959" s="8"/>
       <c r="D959" s="8"/>
@@ -13160,7 +13213,7 @@
       <c r="I959" s="8"/>
       <c r="J959" s="8"/>
     </row>
-    <row r="960" spans="2:10" ht="14.25">
+    <row r="960" spans="2:10" ht="13.8">
       <c r="B960" s="8"/>
       <c r="C960" s="8"/>
       <c r="D960" s="8"/>
@@ -13171,7 +13224,7 @@
       <c r="I960" s="8"/>
       <c r="J960" s="8"/>
     </row>
-    <row r="961" spans="2:10" ht="14.25">
+    <row r="961" spans="2:10" ht="13.8">
       <c r="B961" s="8"/>
       <c r="C961" s="8"/>
       <c r="D961" s="8"/>
@@ -13182,7 +13235,7 @@
       <c r="I961" s="8"/>
       <c r="J961" s="8"/>
     </row>
-    <row r="962" spans="2:10" ht="14.25">
+    <row r="962" spans="2:10" ht="13.8">
       <c r="B962" s="8"/>
       <c r="C962" s="8"/>
       <c r="D962" s="8"/>
@@ -13193,7 +13246,7 @@
       <c r="I962" s="8"/>
       <c r="J962" s="8"/>
     </row>
-    <row r="963" spans="2:10" ht="14.25">
+    <row r="963" spans="2:10" ht="13.8">
       <c r="B963" s="8"/>
       <c r="C963" s="8"/>
       <c r="D963" s="8"/>
@@ -13204,7 +13257,7 @@
       <c r="I963" s="8"/>
       <c r="J963" s="8"/>
     </row>
-    <row r="964" spans="2:10" ht="14.25">
+    <row r="964" spans="2:10" ht="13.8">
       <c r="B964" s="8"/>
       <c r="C964" s="8"/>
       <c r="D964" s="8"/>
@@ -13215,7 +13268,7 @@
       <c r="I964" s="8"/>
       <c r="J964" s="8"/>
     </row>
-    <row r="965" spans="2:10" ht="14.25">
+    <row r="965" spans="2:10" ht="13.8">
       <c r="B965" s="8"/>
       <c r="C965" s="8"/>
       <c r="D965" s="8"/>
@@ -13226,7 +13279,7 @@
       <c r="I965" s="8"/>
       <c r="J965" s="8"/>
     </row>
-    <row r="966" spans="2:10" ht="14.25">
+    <row r="966" spans="2:10" ht="13.8">
       <c r="B966" s="8"/>
       <c r="C966" s="8"/>
       <c r="D966" s="8"/>
@@ -13237,7 +13290,7 @@
       <c r="I966" s="8"/>
       <c r="J966" s="8"/>
     </row>
-    <row r="967" spans="2:10" ht="14.25">
+    <row r="967" spans="2:10" ht="13.8">
       <c r="B967" s="8"/>
       <c r="C967" s="8"/>
       <c r="D967" s="8"/>
@@ -13248,7 +13301,7 @@
       <c r="I967" s="8"/>
       <c r="J967" s="8"/>
     </row>
-    <row r="968" spans="2:10" ht="14.25">
+    <row r="968" spans="2:10" ht="13.8">
       <c r="B968" s="8"/>
       <c r="C968" s="8"/>
       <c r="D968" s="8"/>
@@ -13259,7 +13312,7 @@
       <c r="I968" s="8"/>
       <c r="J968" s="8"/>
     </row>
-    <row r="969" spans="2:10" ht="14.25">
+    <row r="969" spans="2:10" ht="13.8">
       <c r="B969" s="8"/>
       <c r="C969" s="8"/>
       <c r="D969" s="8"/>
@@ -13270,7 +13323,7 @@
       <c r="I969" s="8"/>
       <c r="J969" s="8"/>
     </row>
-    <row r="970" spans="2:10" ht="14.25">
+    <row r="970" spans="2:10" ht="13.8">
       <c r="B970" s="8"/>
       <c r="C970" s="8"/>
       <c r="D970" s="8"/>
@@ -13281,7 +13334,7 @@
       <c r="I970" s="8"/>
       <c r="J970" s="8"/>
     </row>
-    <row r="971" spans="2:10" ht="14.25">
+    <row r="971" spans="2:10" ht="13.8">
       <c r="B971" s="8"/>
       <c r="C971" s="8"/>
       <c r="D971" s="8"/>
@@ -13292,7 +13345,7 @@
       <c r="I971" s="8"/>
       <c r="J971" s="8"/>
     </row>
-    <row r="972" spans="2:10" ht="14.25">
+    <row r="972" spans="2:10" ht="13.8">
       <c r="B972" s="8"/>
       <c r="C972" s="8"/>
       <c r="D972" s="8"/>
@@ -13303,7 +13356,7 @@
       <c r="I972" s="8"/>
       <c r="J972" s="8"/>
     </row>
-    <row r="973" spans="2:10" ht="14.25">
+    <row r="973" spans="2:10" ht="13.8">
       <c r="B973" s="8"/>
       <c r="C973" s="8"/>
       <c r="D973" s="8"/>
@@ -13314,7 +13367,7 @@
       <c r="I973" s="8"/>
       <c r="J973" s="8"/>
     </row>
-    <row r="974" spans="2:10" ht="14.25">
+    <row r="974" spans="2:10" ht="13.8">
       <c r="B974" s="8"/>
       <c r="C974" s="8"/>
       <c r="D974" s="8"/>
@@ -13325,7 +13378,7 @@
       <c r="I974" s="8"/>
       <c r="J974" s="8"/>
     </row>
-    <row r="975" spans="2:10" ht="14.25">
+    <row r="975" spans="2:10" ht="13.8">
       <c r="B975" s="8"/>
       <c r="C975" s="8"/>
       <c r="D975" s="8"/>
@@ -13336,7 +13389,7 @@
       <c r="I975" s="8"/>
       <c r="J975" s="8"/>
     </row>
-    <row r="976" spans="2:10" ht="14.25">
+    <row r="976" spans="2:10" ht="13.8">
       <c r="B976" s="8"/>
       <c r="C976" s="8"/>
       <c r="D976" s="8"/>
@@ -13347,7 +13400,7 @@
       <c r="I976" s="8"/>
       <c r="J976" s="8"/>
     </row>
-    <row r="977" spans="2:10" ht="14.25">
+    <row r="977" spans="2:10" ht="13.8">
       <c r="B977" s="8"/>
       <c r="C977" s="8"/>
       <c r="D977" s="8"/>
@@ -13358,7 +13411,7 @@
       <c r="I977" s="8"/>
       <c r="J977" s="8"/>
     </row>
-    <row r="978" spans="2:10" ht="14.25">
+    <row r="978" spans="2:10" ht="13.8">
       <c r="B978" s="8"/>
       <c r="C978" s="8"/>
       <c r="D978" s="8"/>
@@ -13369,7 +13422,7 @@
       <c r="I978" s="8"/>
       <c r="J978" s="8"/>
     </row>
-    <row r="979" spans="2:10" ht="14.25">
+    <row r="979" spans="2:10" ht="13.8">
       <c r="B979" s="8"/>
       <c r="C979" s="8"/>
       <c r="D979" s="8"/>
@@ -13380,7 +13433,7 @@
       <c r="I979" s="8"/>
       <c r="J979" s="8"/>
     </row>
-    <row r="980" spans="2:10" ht="14.25">
+    <row r="980" spans="2:10" ht="13.8">
       <c r="B980" s="8"/>
       <c r="C980" s="8"/>
       <c r="D980" s="8"/>
@@ -13391,7 +13444,7 @@
       <c r="I980" s="8"/>
       <c r="J980" s="8"/>
     </row>
-    <row r="981" spans="2:10" ht="14.25">
+    <row r="981" spans="2:10" ht="13.8">
       <c r="B981" s="8"/>
       <c r="C981" s="8"/>
       <c r="D981" s="8"/>
@@ -13402,7 +13455,7 @@
       <c r="I981" s="8"/>
       <c r="J981" s="8"/>
     </row>
-    <row r="982" spans="2:10" ht="14.25">
+    <row r="982" spans="2:10" ht="13.8">
       <c r="B982" s="8"/>
       <c r="C982" s="8"/>
       <c r="D982" s="8"/>
@@ -13413,7 +13466,7 @@
       <c r="I982" s="8"/>
       <c r="J982" s="8"/>
     </row>
-    <row r="983" spans="2:10" ht="14.25">
+    <row r="983" spans="2:10" ht="13.8">
       <c r="B983" s="8"/>
       <c r="C983" s="8"/>
       <c r="D983" s="8"/>
@@ -13424,7 +13477,7 @@
       <c r="I983" s="8"/>
       <c r="J983" s="8"/>
     </row>
-    <row r="984" spans="2:10" ht="14.25">
+    <row r="984" spans="2:10" ht="13.8">
       <c r="B984" s="8"/>
       <c r="C984" s="8"/>
       <c r="D984" s="8"/>
@@ -13435,7 +13488,7 @@
       <c r="I984" s="8"/>
       <c r="J984" s="8"/>
     </row>
-    <row r="985" spans="2:10" ht="14.25">
+    <row r="985" spans="2:10" ht="13.8">
       <c r="B985" s="8"/>
       <c r="C985" s="8"/>
       <c r="D985" s="8"/>
@@ -13446,7 +13499,7 @@
       <c r="I985" s="8"/>
       <c r="J985" s="8"/>
     </row>
-    <row r="986" spans="2:10" ht="14.25">
+    <row r="986" spans="2:10" ht="13.8">
       <c r="B986" s="8"/>
       <c r="C986" s="8"/>
       <c r="D986" s="8"/>
@@ -13457,7 +13510,7 @@
       <c r="I986" s="8"/>
       <c r="J986" s="8"/>
     </row>
-    <row r="987" spans="2:10" ht="14.25">
+    <row r="987" spans="2:10" ht="13.8">
       <c r="B987" s="8"/>
       <c r="C987" s="8"/>
       <c r="D987" s="8"/>
@@ -13468,7 +13521,7 @@
       <c r="I987" s="8"/>
       <c r="J987" s="8"/>
     </row>
-    <row r="988" spans="2:10" ht="14.25">
+    <row r="988" spans="2:10" ht="13.8">
       <c r="B988" s="8"/>
       <c r="C988" s="8"/>
       <c r="D988" s="8"/>
@@ -13479,7 +13532,7 @@
       <c r="I988" s="8"/>
       <c r="J988" s="8"/>
     </row>
-    <row r="989" spans="2:10" ht="14.25">
+    <row r="989" spans="2:10" ht="13.8">
       <c r="B989" s="8"/>
       <c r="C989" s="8"/>
       <c r="D989" s="8"/>
@@ -13490,7 +13543,7 @@
       <c r="I989" s="8"/>
       <c r="J989" s="8"/>
     </row>
-    <row r="990" spans="2:10" ht="14.25">
+    <row r="990" spans="2:10" ht="13.8">
       <c r="B990" s="8"/>
       <c r="C990" s="8"/>
       <c r="D990" s="8"/>
@@ -13501,7 +13554,7 @@
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
     </row>
-    <row r="991" spans="2:10" ht="14.25">
+    <row r="991" spans="2:10" ht="13.8">
       <c r="B991" s="8"/>
       <c r="C991" s="8"/>
       <c r="D991" s="8"/>
@@ -13512,7 +13565,7 @@
       <c r="I991" s="8"/>
       <c r="J991" s="8"/>
     </row>
-    <row r="992" spans="2:10" ht="14.25">
+    <row r="992" spans="2:10" ht="13.8">
       <c r="B992" s="8"/>
       <c r="C992" s="8"/>
       <c r="D992" s="8"/>
@@ -13523,7 +13576,7 @@
       <c r="I992" s="8"/>
       <c r="J992" s="8"/>
     </row>
-    <row r="993" spans="2:10" ht="14.25">
+    <row r="993" spans="2:10" ht="13.8">
       <c r="B993" s="8"/>
       <c r="C993" s="8"/>
       <c r="D993" s="8"/>
@@ -13534,7 +13587,7 @@
       <c r="I993" s="8"/>
       <c r="J993" s="8"/>
     </row>
-    <row r="994" spans="2:10" ht="14.25">
+    <row r="994" spans="2:10" ht="13.8">
       <c r="B994" s="8"/>
       <c r="C994" s="8"/>
       <c r="D994" s="8"/>
@@ -13545,7 +13598,7 @@
       <c r="I994" s="8"/>
       <c r="J994" s="8"/>
     </row>
-    <row r="995" spans="2:10" ht="14.25">
+    <row r="995" spans="2:10" ht="13.8">
       <c r="B995" s="8"/>
       <c r="C995" s="8"/>
       <c r="D995" s="8"/>
@@ -13556,7 +13609,7 @@
       <c r="I995" s="8"/>
       <c r="J995" s="8"/>
     </row>
-    <row r="996" spans="2:10" ht="14.25">
+    <row r="996" spans="2:10" ht="13.8">
       <c r="B996" s="8"/>
       <c r="C996" s="8"/>
       <c r="D996" s="8"/>
@@ -13567,7 +13620,7 @@
       <c r="I996" s="8"/>
       <c r="J996" s="8"/>
     </row>
-    <row r="997" spans="2:10" ht="14.25">
+    <row r="997" spans="2:10" ht="13.8">
       <c r="B997" s="8"/>
       <c r="C997" s="8"/>
       <c r="D997" s="8"/>
@@ -13580,19 +13633,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D22:J22"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="A1:J1"/>
@@ -13609,17 +13660,19 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
